--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2025.xlsx
@@ -223,19 +223,19 @@
     <x:t>Hennepin</x:t>
   </x:si>
   <x:si>
-    <x:t>23</x:t>
+    <x:t>24</x:t>
   </x:si>
   <x:si>
     <x:t>50</x:t>
   </x:si>
   <x:si>
-    <x:t>38</x:t>
+    <x:t>39</x:t>
   </x:si>
   <x:si>
-    <x:t>57</x:t>
+    <x:t>58</x:t>
   </x:si>
   <x:si>
-    <x:t>105</x:t>
+    <x:t>107</x:t>
   </x:si>
   <x:si>
     <x:t>145</x:t>
@@ -244,13 +244,13 @@
     <x:t>65</x:t>
   </x:si>
   <x:si>
-    <x:t>80</x:t>
+    <x:t>82</x:t>
   </x:si>
   <x:si>
-    <x:t>155</x:t>
+    <x:t>157</x:t>
   </x:si>
   <x:si>
-    <x:t>183</x:t>
+    <x:t>184</x:t>
   </x:si>
   <x:si>
     <x:t>79</x:t>
@@ -260,9 +260,6 @@
   </x:si>
   <x:si>
     <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
   </x:si>
   <x:si>
     <x:t>31</x:t>
@@ -277,13 +274,28 @@
     <x:t>37</x:t>
   </x:si>
   <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
     <x:t>40</x:t>
   </x:si>
   <x:si>
-    <x:t>74</x:t>
+    <x:t>78</x:t>
   </x:si>
   <x:si>
-    <x:t>63</x:t>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -334,9 +346,6 @@
     <x:t>McLeod</x:t>
   </x:si>
   <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
     <x:t>Meeker</x:t>
   </x:si>
   <x:si>
@@ -362,9 +371,6 @@
   </x:si>
   <x:si>
     <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
@@ -397,7 +403,7 @@
     <x:t>159</x:t>
   </x:si>
   <x:si>
-    <x:t>223</x:t>
+    <x:t>224</x:t>
   </x:si>
   <x:si>
     <x:t>194</x:t>
@@ -409,7 +415,7 @@
     <x:t>172</x:t>
   </x:si>
   <x:si>
-    <x:t>243</x:t>
+    <x:t>244</x:t>
   </x:si>
   <x:si>
     <x:t>200</x:t>
@@ -871,7 +877,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I686"/>
+  <x:dimension ref="A1:I688"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2142,7 +2148,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
         <x:v>28</x:v>
@@ -2171,7 +2177,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
         <x:v>37</x:v>
@@ -7658,7 +7664,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G234" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H234" s="1" t="s">
         <x:v>13</x:v>
@@ -7690,7 +7696,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H235" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I235" s="0" t="s">
         <x:v>13</x:v>
@@ -7716,10 +7722,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="G236" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H236" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I236" s="0" t="s">
         <x:v>13</x:v>
@@ -7774,7 +7780,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="G238" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H238" s="1" t="s">
         <x:v>46</x:v>
@@ -7797,16 +7803,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E239" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F239" s="1" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="F239" s="1" t="s">
+      <x:c r="G239" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="G239" s="1" t="s">
+      <x:c r="H239" s="1" t="s">
         <x:v>85</x:v>
-      </x:c>
-      <x:c r="H239" s="1" t="s">
-        <x:v>86</x:v>
       </x:c>
       <x:c r="I239" s="0" t="s">
         <x:v>13</x:v>
@@ -8003,7 +8009,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F246" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G246" s="1" t="s">
         <x:v>25</x:v>
@@ -8026,19 +8032,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D247" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E247" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F247" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G247" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H247" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I247" s="0" t="s">
         <x:v>13</x:v>
@@ -8055,19 +8061,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D248" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E248" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F248" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G248" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H248" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I248" s="0" t="s">
         <x:v>13</x:v>
@@ -8075,7 +8081,7 @@
     </x:row>
     <x:row r="249" spans="1:9">
       <x:c r="A249" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
         <x:v>10</x:v>
@@ -8104,7 +8110,7 @@
     </x:row>
     <x:row r="250" spans="1:9">
       <x:c r="A250" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
         <x:v>10</x:v>
@@ -8133,7 +8139,7 @@
     </x:row>
     <x:row r="251" spans="1:9">
       <x:c r="A251" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
         <x:v>10</x:v>
@@ -8162,7 +8168,7 @@
     </x:row>
     <x:row r="252" spans="1:9">
       <x:c r="A252" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
         <x:v>18</x:v>
@@ -8191,7 +8197,7 @@
     </x:row>
     <x:row r="253" spans="1:9">
       <x:c r="A253" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
         <x:v>18</x:v>
@@ -8220,7 +8226,7 @@
     </x:row>
     <x:row r="254" spans="1:9">
       <x:c r="A254" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
         <x:v>18</x:v>
@@ -8249,7 +8255,7 @@
     </x:row>
     <x:row r="255" spans="1:9">
       <x:c r="A255" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
         <x:v>19</x:v>
@@ -8278,7 +8284,7 @@
     </x:row>
     <x:row r="256" spans="1:9">
       <x:c r="A256" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
         <x:v>19</x:v>
@@ -8307,7 +8313,7 @@
     </x:row>
     <x:row r="257" spans="1:9">
       <x:c r="A257" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
         <x:v>10</x:v>
@@ -8336,7 +8342,7 @@
     </x:row>
     <x:row r="258" spans="1:9">
       <x:c r="A258" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
         <x:v>10</x:v>
@@ -8365,7 +8371,7 @@
     </x:row>
     <x:row r="259" spans="1:9">
       <x:c r="A259" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
         <x:v>10</x:v>
@@ -8394,7 +8400,7 @@
     </x:row>
     <x:row r="260" spans="1:9">
       <x:c r="A260" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
         <x:v>18</x:v>
@@ -8423,7 +8429,7 @@
     </x:row>
     <x:row r="261" spans="1:9">
       <x:c r="A261" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
         <x:v>18</x:v>
@@ -8452,7 +8458,7 @@
     </x:row>
     <x:row r="262" spans="1:9">
       <x:c r="A262" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
         <x:v>18</x:v>
@@ -8481,7 +8487,7 @@
     </x:row>
     <x:row r="263" spans="1:9">
       <x:c r="A263" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
         <x:v>19</x:v>
@@ -8510,7 +8516,7 @@
     </x:row>
     <x:row r="264" spans="1:9">
       <x:c r="A264" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
         <x:v>19</x:v>
@@ -8539,7 +8545,7 @@
     </x:row>
     <x:row r="265" spans="1:9">
       <x:c r="A265" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
         <x:v>19</x:v>
@@ -8568,7 +8574,7 @@
     </x:row>
     <x:row r="266" spans="1:9">
       <x:c r="A266" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
         <x:v>33</x:v>
@@ -8597,7 +8603,7 @@
     </x:row>
     <x:row r="267" spans="1:9">
       <x:c r="A267" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
         <x:v>33</x:v>
@@ -8626,7 +8632,7 @@
     </x:row>
     <x:row r="268" spans="1:9">
       <x:c r="A268" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
         <x:v>33</x:v>
@@ -8655,7 +8661,7 @@
     </x:row>
     <x:row r="269" spans="1:9">
       <x:c r="A269" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
         <x:v>34</x:v>
@@ -8684,7 +8690,7 @@
     </x:row>
     <x:row r="270" spans="1:9">
       <x:c r="A270" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
         <x:v>34</x:v>
@@ -8713,7 +8719,7 @@
     </x:row>
     <x:row r="271" spans="1:9">
       <x:c r="A271" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
         <x:v>10</x:v>
@@ -8742,7 +8748,7 @@
     </x:row>
     <x:row r="272" spans="1:9">
       <x:c r="A272" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
         <x:v>10</x:v>
@@ -8771,7 +8777,7 @@
     </x:row>
     <x:row r="273" spans="1:9">
       <x:c r="A273" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
         <x:v>18</x:v>
@@ -8800,7 +8806,7 @@
     </x:row>
     <x:row r="274" spans="1:9">
       <x:c r="A274" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
         <x:v>18</x:v>
@@ -8829,7 +8835,7 @@
     </x:row>
     <x:row r="275" spans="1:9">
       <x:c r="A275" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
         <x:v>19</x:v>
@@ -8858,7 +8864,7 @@
     </x:row>
     <x:row r="276" spans="1:9">
       <x:c r="A276" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
         <x:v>19</x:v>
@@ -8887,7 +8893,7 @@
     </x:row>
     <x:row r="277" spans="1:9">
       <x:c r="A277" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
         <x:v>19</x:v>
@@ -8916,7 +8922,7 @@
     </x:row>
     <x:row r="278" spans="1:9">
       <x:c r="A278" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
         <x:v>34</x:v>
@@ -8945,7 +8951,7 @@
     </x:row>
     <x:row r="279" spans="1:9">
       <x:c r="A279" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B279" s="0" t="s">
         <x:v>34</x:v>
@@ -8974,7 +8980,7 @@
     </x:row>
     <x:row r="280" spans="1:9">
       <x:c r="A280" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B280" s="0" t="s">
         <x:v>10</x:v>
@@ -9003,7 +9009,7 @@
     </x:row>
     <x:row r="281" spans="1:9">
       <x:c r="A281" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B281" s="0" t="s">
         <x:v>10</x:v>
@@ -9032,7 +9038,7 @@
     </x:row>
     <x:row r="282" spans="1:9">
       <x:c r="A282" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B282" s="0" t="s">
         <x:v>10</x:v>
@@ -9061,7 +9067,7 @@
     </x:row>
     <x:row r="283" spans="1:9">
       <x:c r="A283" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B283" s="0" t="s">
         <x:v>19</x:v>
@@ -9090,7 +9096,7 @@
     </x:row>
     <x:row r="284" spans="1:9">
       <x:c r="A284" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B284" s="0" t="s">
         <x:v>19</x:v>
@@ -9119,7 +9125,7 @@
     </x:row>
     <x:row r="285" spans="1:9">
       <x:c r="A285" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B285" s="0" t="s">
         <x:v>19</x:v>
@@ -9148,7 +9154,7 @@
     </x:row>
     <x:row r="286" spans="1:9">
       <x:c r="A286" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B286" s="0" t="s">
         <x:v>32</x:v>
@@ -9177,7 +9183,7 @@
     </x:row>
     <x:row r="287" spans="1:9">
       <x:c r="A287" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B287" s="0" t="s">
         <x:v>32</x:v>
@@ -9206,7 +9212,7 @@
     </x:row>
     <x:row r="288" spans="1:9">
       <x:c r="A288" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B288" s="0" t="s">
         <x:v>34</x:v>
@@ -9235,7 +9241,7 @@
     </x:row>
     <x:row r="289" spans="1:9">
       <x:c r="A289" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B289" s="0" t="s">
         <x:v>34</x:v>
@@ -9264,7 +9270,7 @@
     </x:row>
     <x:row r="290" spans="1:9">
       <x:c r="A290" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B290" s="0" t="s">
         <x:v>10</x:v>
@@ -9293,7 +9299,7 @@
     </x:row>
     <x:row r="291" spans="1:9">
       <x:c r="A291" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B291" s="0" t="s">
         <x:v>10</x:v>
@@ -9322,7 +9328,7 @@
     </x:row>
     <x:row r="292" spans="1:9">
       <x:c r="A292" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B292" s="0" t="s">
         <x:v>19</x:v>
@@ -9351,7 +9357,7 @@
     </x:row>
     <x:row r="293" spans="1:9">
       <x:c r="A293" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B293" s="0" t="s">
         <x:v>19</x:v>
@@ -9380,7 +9386,7 @@
     </x:row>
     <x:row r="294" spans="1:9">
       <x:c r="A294" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B294" s="0" t="s">
         <x:v>10</x:v>
@@ -9409,7 +9415,7 @@
     </x:row>
     <x:row r="295" spans="1:9">
       <x:c r="A295" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B295" s="0" t="s">
         <x:v>10</x:v>
@@ -9438,7 +9444,7 @@
     </x:row>
     <x:row r="296" spans="1:9">
       <x:c r="A296" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B296" s="0" t="s">
         <x:v>10</x:v>
@@ -9467,7 +9473,7 @@
     </x:row>
     <x:row r="297" spans="1:9">
       <x:c r="A297" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B297" s="0" t="s">
         <x:v>19</x:v>
@@ -9496,7 +9502,7 @@
     </x:row>
     <x:row r="298" spans="1:9">
       <x:c r="A298" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B298" s="0" t="s">
         <x:v>19</x:v>
@@ -9525,7 +9531,7 @@
     </x:row>
     <x:row r="299" spans="1:9">
       <x:c r="A299" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B299" s="0" t="s">
         <x:v>19</x:v>
@@ -9554,7 +9560,7 @@
     </x:row>
     <x:row r="300" spans="1:9">
       <x:c r="A300" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B300" s="0" t="s">
         <x:v>10</x:v>
@@ -9583,7 +9589,7 @@
     </x:row>
     <x:row r="301" spans="1:9">
       <x:c r="A301" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B301" s="0" t="s">
         <x:v>10</x:v>
@@ -9612,7 +9618,7 @@
     </x:row>
     <x:row r="302" spans="1:9">
       <x:c r="A302" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B302" s="0" t="s">
         <x:v>10</x:v>
@@ -9641,7 +9647,7 @@
     </x:row>
     <x:row r="303" spans="1:9">
       <x:c r="A303" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B303" s="0" t="s">
         <x:v>19</x:v>
@@ -9670,7 +9676,7 @@
     </x:row>
     <x:row r="304" spans="1:9">
       <x:c r="A304" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B304" s="0" t="s">
         <x:v>19</x:v>
@@ -9699,7 +9705,7 @@
     </x:row>
     <x:row r="305" spans="1:9">
       <x:c r="A305" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B305" s="0" t="s">
         <x:v>19</x:v>
@@ -9728,7 +9734,7 @@
     </x:row>
     <x:row r="306" spans="1:9">
       <x:c r="A306" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B306" s="0" t="s">
         <x:v>33</x:v>
@@ -9757,7 +9763,7 @@
     </x:row>
     <x:row r="307" spans="1:9">
       <x:c r="A307" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B307" s="0" t="s">
         <x:v>33</x:v>
@@ -9786,7 +9792,7 @@
     </x:row>
     <x:row r="308" spans="1:9">
       <x:c r="A308" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B308" s="0" t="s">
         <x:v>34</x:v>
@@ -9815,7 +9821,7 @@
     </x:row>
     <x:row r="309" spans="1:9">
       <x:c r="A309" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B309" s="0" t="s">
         <x:v>34</x:v>
@@ -9844,7 +9850,7 @@
     </x:row>
     <x:row r="310" spans="1:9">
       <x:c r="A310" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B310" s="0" t="s">
         <x:v>19</x:v>
@@ -9873,7 +9879,7 @@
     </x:row>
     <x:row r="311" spans="1:9">
       <x:c r="A311" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B311" s="0" t="s">
         <x:v>19</x:v>
@@ -9902,7 +9908,7 @@
     </x:row>
     <x:row r="312" spans="1:9">
       <x:c r="A312" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B312" s="0" t="s">
         <x:v>10</x:v>
@@ -9931,7 +9937,7 @@
     </x:row>
     <x:row r="313" spans="1:9">
       <x:c r="A313" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B313" s="0" t="s">
         <x:v>10</x:v>
@@ -9960,7 +9966,7 @@
     </x:row>
     <x:row r="314" spans="1:9">
       <x:c r="A314" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B314" s="0" t="s">
         <x:v>10</x:v>
@@ -9989,7 +9995,7 @@
     </x:row>
     <x:row r="315" spans="1:9">
       <x:c r="A315" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B315" s="0" t="s">
         <x:v>10</x:v>
@@ -10018,7 +10024,7 @@
     </x:row>
     <x:row r="316" spans="1:9">
       <x:c r="A316" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B316" s="0" t="s">
         <x:v>10</x:v>
@@ -10047,7 +10053,7 @@
     </x:row>
     <x:row r="317" spans="1:9">
       <x:c r="A317" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B317" s="0" t="s">
         <x:v>10</x:v>
@@ -10076,7 +10082,7 @@
     </x:row>
     <x:row r="318" spans="1:9">
       <x:c r="A318" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B318" s="0" t="s">
         <x:v>10</x:v>
@@ -10105,7 +10111,7 @@
     </x:row>
     <x:row r="319" spans="1:9">
       <x:c r="A319" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B319" s="0" t="s">
         <x:v>19</x:v>
@@ -10134,7 +10140,7 @@
     </x:row>
     <x:row r="320" spans="1:9">
       <x:c r="A320" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B320" s="0" t="s">
         <x:v>19</x:v>
@@ -10163,7 +10169,7 @@
     </x:row>
     <x:row r="321" spans="1:9">
       <x:c r="A321" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B321" s="0" t="s">
         <x:v>10</x:v>
@@ -10192,7 +10198,7 @@
     </x:row>
     <x:row r="322" spans="1:9">
       <x:c r="A322" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B322" s="0" t="s">
         <x:v>10</x:v>
@@ -10221,7 +10227,7 @@
     </x:row>
     <x:row r="323" spans="1:9">
       <x:c r="A323" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B323" s="0" t="s">
         <x:v>18</x:v>
@@ -10250,7 +10256,7 @@
     </x:row>
     <x:row r="324" spans="1:9">
       <x:c r="A324" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B324" s="0" t="s">
         <x:v>18</x:v>
@@ -10279,7 +10285,7 @@
     </x:row>
     <x:row r="325" spans="1:9">
       <x:c r="A325" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B325" s="0" t="s">
         <x:v>18</x:v>
@@ -10308,7 +10314,7 @@
     </x:row>
     <x:row r="326" spans="1:9">
       <x:c r="A326" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B326" s="0" t="s">
         <x:v>19</x:v>
@@ -10337,7 +10343,7 @@
     </x:row>
     <x:row r="327" spans="1:9">
       <x:c r="A327" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B327" s="0" t="s">
         <x:v>19</x:v>
@@ -10366,7 +10372,7 @@
     </x:row>
     <x:row r="328" spans="1:9">
       <x:c r="A328" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B328" s="0" t="s">
         <x:v>33</x:v>
@@ -10395,7 +10401,7 @@
     </x:row>
     <x:row r="329" spans="1:9">
       <x:c r="A329" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B329" s="0" t="s">
         <x:v>33</x:v>
@@ -10424,7 +10430,7 @@
     </x:row>
     <x:row r="330" spans="1:9">
       <x:c r="A330" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B330" s="0" t="s">
         <x:v>10</x:v>
@@ -10453,7 +10459,7 @@
     </x:row>
     <x:row r="331" spans="1:9">
       <x:c r="A331" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B331" s="0" t="s">
         <x:v>10</x:v>
@@ -10482,7 +10488,7 @@
     </x:row>
     <x:row r="332" spans="1:9">
       <x:c r="A332" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B332" s="0" t="s">
         <x:v>18</x:v>
@@ -10511,7 +10517,7 @@
     </x:row>
     <x:row r="333" spans="1:9">
       <x:c r="A333" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B333" s="0" t="s">
         <x:v>18</x:v>
@@ -10540,7 +10546,7 @@
     </x:row>
     <x:row r="334" spans="1:9">
       <x:c r="A334" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B334" s="0" t="s">
         <x:v>19</x:v>
@@ -10569,7 +10575,7 @@
     </x:row>
     <x:row r="335" spans="1:9">
       <x:c r="A335" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B335" s="0" t="s">
         <x:v>19</x:v>
@@ -10598,7 +10604,7 @@
     </x:row>
     <x:row r="336" spans="1:9">
       <x:c r="A336" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B336" s="0" t="s">
         <x:v>19</x:v>
@@ -10627,7 +10633,7 @@
     </x:row>
     <x:row r="337" spans="1:9">
       <x:c r="A337" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B337" s="0" t="s">
         <x:v>33</x:v>
@@ -10656,7 +10662,7 @@
     </x:row>
     <x:row r="338" spans="1:9">
       <x:c r="A338" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B338" s="0" t="s">
         <x:v>33</x:v>
@@ -10685,7 +10691,7 @@
     </x:row>
     <x:row r="339" spans="1:9">
       <x:c r="A339" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B339" s="0" t="s">
         <x:v>10</x:v>
@@ -10714,7 +10720,7 @@
     </x:row>
     <x:row r="340" spans="1:9">
       <x:c r="A340" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B340" s="0" t="s">
         <x:v>10</x:v>
@@ -10743,7 +10749,7 @@
     </x:row>
     <x:row r="341" spans="1:9">
       <x:c r="A341" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B341" s="0" t="s">
         <x:v>10</x:v>
@@ -10772,7 +10778,7 @@
     </x:row>
     <x:row r="342" spans="1:9">
       <x:c r="A342" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B342" s="0" t="s">
         <x:v>10</x:v>
@@ -10801,7 +10807,7 @@
     </x:row>
     <x:row r="343" spans="1:9">
       <x:c r="A343" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B343" s="0" t="s">
         <x:v>10</x:v>
@@ -10830,7 +10836,7 @@
     </x:row>
     <x:row r="344" spans="1:9">
       <x:c r="A344" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B344" s="0" t="s">
         <x:v>18</x:v>
@@ -10859,7 +10865,7 @@
     </x:row>
     <x:row r="345" spans="1:9">
       <x:c r="A345" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B345" s="0" t="s">
         <x:v>18</x:v>
@@ -10888,7 +10894,7 @@
     </x:row>
     <x:row r="346" spans="1:9">
       <x:c r="A346" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B346" s="0" t="s">
         <x:v>19</x:v>
@@ -10917,7 +10923,7 @@
     </x:row>
     <x:row r="347" spans="1:9">
       <x:c r="A347" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B347" s="0" t="s">
         <x:v>19</x:v>
@@ -10946,7 +10952,7 @@
     </x:row>
     <x:row r="348" spans="1:9">
       <x:c r="A348" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B348" s="0" t="s">
         <x:v>33</x:v>
@@ -10975,7 +10981,7 @@
     </x:row>
     <x:row r="349" spans="1:9">
       <x:c r="A349" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B349" s="0" t="s">
         <x:v>33</x:v>
@@ -11004,7 +11010,7 @@
     </x:row>
     <x:row r="350" spans="1:9">
       <x:c r="A350" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B350" s="0" t="s">
         <x:v>34</x:v>
@@ -11033,7 +11039,7 @@
     </x:row>
     <x:row r="351" spans="1:9">
       <x:c r="A351" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B351" s="0" t="s">
         <x:v>34</x:v>
@@ -11062,7 +11068,7 @@
     </x:row>
     <x:row r="352" spans="1:9">
       <x:c r="A352" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B352" s="0" t="s">
         <x:v>10</x:v>
@@ -11091,7 +11097,7 @@
     </x:row>
     <x:row r="353" spans="1:9">
       <x:c r="A353" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B353" s="0" t="s">
         <x:v>10</x:v>
@@ -11120,7 +11126,7 @@
     </x:row>
     <x:row r="354" spans="1:9">
       <x:c r="A354" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B354" s="0" t="s">
         <x:v>10</x:v>
@@ -11138,7 +11144,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G354" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H354" s="1" t="s">
         <x:v>20</x:v>
@@ -11149,7 +11155,7 @@
     </x:row>
     <x:row r="355" spans="1:9">
       <x:c r="A355" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B355" s="0" t="s">
         <x:v>18</x:v>
@@ -11178,7 +11184,7 @@
     </x:row>
     <x:row r="356" spans="1:9">
       <x:c r="A356" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B356" s="0" t="s">
         <x:v>18</x:v>
@@ -11207,7 +11213,7 @@
     </x:row>
     <x:row r="357" spans="1:9">
       <x:c r="A357" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B357" s="0" t="s">
         <x:v>19</x:v>
@@ -11236,7 +11242,7 @@
     </x:row>
     <x:row r="358" spans="1:9">
       <x:c r="A358" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B358" s="0" t="s">
         <x:v>19</x:v>
@@ -11265,7 +11271,7 @@
     </x:row>
     <x:row r="359" spans="1:9">
       <x:c r="A359" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B359" s="0" t="s">
         <x:v>19</x:v>
@@ -11294,7 +11300,7 @@
     </x:row>
     <x:row r="360" spans="1:9">
       <x:c r="A360" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B360" s="0" t="s">
         <x:v>33</x:v>
@@ -11323,7 +11329,7 @@
     </x:row>
     <x:row r="361" spans="1:9">
       <x:c r="A361" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B361" s="0" t="s">
         <x:v>33</x:v>
@@ -11352,7 +11358,7 @@
     </x:row>
     <x:row r="362" spans="1:9">
       <x:c r="A362" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B362" s="0" t="s">
         <x:v>33</x:v>
@@ -11381,7 +11387,7 @@
     </x:row>
     <x:row r="363" spans="1:9">
       <x:c r="A363" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B363" s="0" t="s">
         <x:v>10</x:v>
@@ -11410,7 +11416,7 @@
     </x:row>
     <x:row r="364" spans="1:9">
       <x:c r="A364" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B364" s="0" t="s">
         <x:v>10</x:v>
@@ -11439,7 +11445,7 @@
     </x:row>
     <x:row r="365" spans="1:9">
       <x:c r="A365" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B365" s="0" t="s">
         <x:v>19</x:v>
@@ -11468,7 +11474,7 @@
     </x:row>
     <x:row r="366" spans="1:9">
       <x:c r="A366" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B366" s="0" t="s">
         <x:v>19</x:v>
@@ -11497,7 +11503,7 @@
     </x:row>
     <x:row r="367" spans="1:9">
       <x:c r="A367" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B367" s="0" t="s">
         <x:v>19</x:v>
@@ -11526,7 +11532,7 @@
     </x:row>
     <x:row r="368" spans="1:9">
       <x:c r="A368" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B368" s="0" t="s">
         <x:v>10</x:v>
@@ -11555,7 +11561,7 @@
     </x:row>
     <x:row r="369" spans="1:9">
       <x:c r="A369" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B369" s="0" t="s">
         <x:v>10</x:v>
@@ -11584,7 +11590,7 @@
     </x:row>
     <x:row r="370" spans="1:9">
       <x:c r="A370" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B370" s="0" t="s">
         <x:v>10</x:v>
@@ -11613,7 +11619,7 @@
     </x:row>
     <x:row r="371" spans="1:9">
       <x:c r="A371" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B371" s="0" t="s">
         <x:v>18</x:v>
@@ -11642,7 +11648,7 @@
     </x:row>
     <x:row r="372" spans="1:9">
       <x:c r="A372" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B372" s="0" t="s">
         <x:v>18</x:v>
@@ -11671,7 +11677,7 @@
     </x:row>
     <x:row r="373" spans="1:9">
       <x:c r="A373" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B373" s="0" t="s">
         <x:v>19</x:v>
@@ -11700,7 +11706,7 @@
     </x:row>
     <x:row r="374" spans="1:9">
       <x:c r="A374" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B374" s="0" t="s">
         <x:v>19</x:v>
@@ -11729,7 +11735,7 @@
     </x:row>
     <x:row r="375" spans="1:9">
       <x:c r="A375" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B375" s="0" t="s">
         <x:v>19</x:v>
@@ -11758,7 +11764,7 @@
     </x:row>
     <x:row r="376" spans="1:9">
       <x:c r="A376" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B376" s="0" t="s">
         <x:v>32</x:v>
@@ -11787,7 +11793,7 @@
     </x:row>
     <x:row r="377" spans="1:9">
       <x:c r="A377" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B377" s="0" t="s">
         <x:v>32</x:v>
@@ -11816,7 +11822,7 @@
     </x:row>
     <x:row r="378" spans="1:9">
       <x:c r="A378" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B378" s="0" t="s">
         <x:v>33</x:v>
@@ -11845,7 +11851,7 @@
     </x:row>
     <x:row r="379" spans="1:9">
       <x:c r="A379" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B379" s="0" t="s">
         <x:v>33</x:v>
@@ -11874,7 +11880,7 @@
     </x:row>
     <x:row r="380" spans="1:9">
       <x:c r="A380" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B380" s="0" t="s">
         <x:v>10</x:v>
@@ -11903,7 +11909,7 @@
     </x:row>
     <x:row r="381" spans="1:9">
       <x:c r="A381" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B381" s="0" t="s">
         <x:v>10</x:v>
@@ -11932,7 +11938,7 @@
     </x:row>
     <x:row r="382" spans="1:9">
       <x:c r="A382" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B382" s="0" t="s">
         <x:v>10</x:v>
@@ -11961,7 +11967,7 @@
     </x:row>
     <x:row r="383" spans="1:9">
       <x:c r="A383" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B383" s="0" t="s">
         <x:v>18</x:v>
@@ -11990,7 +11996,7 @@
     </x:row>
     <x:row r="384" spans="1:9">
       <x:c r="A384" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B384" s="0" t="s">
         <x:v>18</x:v>
@@ -12019,7 +12025,7 @@
     </x:row>
     <x:row r="385" spans="1:9">
       <x:c r="A385" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B385" s="0" t="s">
         <x:v>19</x:v>
@@ -12048,7 +12054,7 @@
     </x:row>
     <x:row r="386" spans="1:9">
       <x:c r="A386" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B386" s="0" t="s">
         <x:v>19</x:v>
@@ -12077,7 +12083,7 @@
     </x:row>
     <x:row r="387" spans="1:9">
       <x:c r="A387" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B387" s="0" t="s">
         <x:v>19</x:v>
@@ -12106,7 +12112,7 @@
     </x:row>
     <x:row r="388" spans="1:9">
       <x:c r="A388" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B388" s="0" t="s">
         <x:v>33</x:v>
@@ -12135,7 +12141,7 @@
     </x:row>
     <x:row r="389" spans="1:9">
       <x:c r="A389" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B389" s="0" t="s">
         <x:v>33</x:v>
@@ -12164,7 +12170,7 @@
     </x:row>
     <x:row r="390" spans="1:9">
       <x:c r="A390" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B390" s="0" t="s">
         <x:v>34</x:v>
@@ -12193,7 +12199,7 @@
     </x:row>
     <x:row r="391" spans="1:9">
       <x:c r="A391" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B391" s="0" t="s">
         <x:v>34</x:v>
@@ -12222,7 +12228,7 @@
     </x:row>
     <x:row r="392" spans="1:9">
       <x:c r="A392" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B392" s="0" t="s">
         <x:v>10</x:v>
@@ -12251,7 +12257,7 @@
     </x:row>
     <x:row r="393" spans="1:9">
       <x:c r="A393" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B393" s="0" t="s">
         <x:v>10</x:v>
@@ -12280,7 +12286,7 @@
     </x:row>
     <x:row r="394" spans="1:9">
       <x:c r="A394" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B394" s="0" t="s">
         <x:v>10</x:v>
@@ -12292,7 +12298,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E394" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F394" s="1" t="s">
         <x:v>35</x:v>
@@ -12309,7 +12315,7 @@
     </x:row>
     <x:row r="395" spans="1:9">
       <x:c r="A395" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B395" s="0" t="s">
         <x:v>19</x:v>
@@ -12338,7 +12344,7 @@
     </x:row>
     <x:row r="396" spans="1:9">
       <x:c r="A396" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B396" s="0" t="s">
         <x:v>19</x:v>
@@ -12367,7 +12373,7 @@
     </x:row>
     <x:row r="397" spans="1:9">
       <x:c r="A397" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B397" s="0" t="s">
         <x:v>19</x:v>
@@ -12396,7 +12402,7 @@
     </x:row>
     <x:row r="398" spans="1:9">
       <x:c r="A398" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B398" s="0" t="s">
         <x:v>33</x:v>
@@ -12425,7 +12431,7 @@
     </x:row>
     <x:row r="399" spans="1:9">
       <x:c r="A399" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B399" s="0" t="s">
         <x:v>33</x:v>
@@ -12454,7 +12460,7 @@
     </x:row>
     <x:row r="400" spans="1:9">
       <x:c r="A400" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B400" s="0" t="s">
         <x:v>34</x:v>
@@ -12483,7 +12489,7 @@
     </x:row>
     <x:row r="401" spans="1:9">
       <x:c r="A401" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B401" s="0" t="s">
         <x:v>34</x:v>
@@ -12512,7 +12518,7 @@
     </x:row>
     <x:row r="402" spans="1:9">
       <x:c r="A402" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B402" s="0" t="s">
         <x:v>18</x:v>
@@ -12541,7 +12547,7 @@
     </x:row>
     <x:row r="403" spans="1:9">
       <x:c r="A403" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B403" s="0" t="s">
         <x:v>18</x:v>
@@ -12570,7 +12576,7 @@
     </x:row>
     <x:row r="404" spans="1:9">
       <x:c r="A404" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B404" s="0" t="s">
         <x:v>10</x:v>
@@ -12599,7 +12605,7 @@
     </x:row>
     <x:row r="405" spans="1:9">
       <x:c r="A405" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B405" s="0" t="s">
         <x:v>10</x:v>
@@ -12628,7 +12634,7 @@
     </x:row>
     <x:row r="406" spans="1:9">
       <x:c r="A406" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B406" s="0" t="s">
         <x:v>10</x:v>
@@ -12657,7 +12663,7 @@
     </x:row>
     <x:row r="407" spans="1:9">
       <x:c r="A407" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B407" s="0" t="s">
         <x:v>19</x:v>
@@ -12686,7 +12692,7 @@
     </x:row>
     <x:row r="408" spans="1:9">
       <x:c r="A408" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B408" s="0" t="s">
         <x:v>19</x:v>
@@ -12715,7 +12721,7 @@
     </x:row>
     <x:row r="409" spans="1:9">
       <x:c r="A409" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B409" s="0" t="s">
         <x:v>19</x:v>
@@ -12744,7 +12750,7 @@
     </x:row>
     <x:row r="410" spans="1:9">
       <x:c r="A410" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B410" s="0" t="s">
         <x:v>33</x:v>
@@ -12773,7 +12779,7 @@
     </x:row>
     <x:row r="411" spans="1:9">
       <x:c r="A411" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B411" s="0" t="s">
         <x:v>33</x:v>
@@ -12802,7 +12808,7 @@
     </x:row>
     <x:row r="412" spans="1:9">
       <x:c r="A412" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B412" s="0" t="s">
         <x:v>10</x:v>
@@ -12831,7 +12837,7 @@
     </x:row>
     <x:row r="413" spans="1:9">
       <x:c r="A413" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B413" s="0" t="s">
         <x:v>10</x:v>
@@ -12860,7 +12866,7 @@
     </x:row>
     <x:row r="414" spans="1:9">
       <x:c r="A414" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B414" s="0" t="s">
         <x:v>10</x:v>
@@ -12889,7 +12895,7 @@
     </x:row>
     <x:row r="415" spans="1:9">
       <x:c r="A415" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B415" s="0" t="s">
         <x:v>18</x:v>
@@ -12918,7 +12924,7 @@
     </x:row>
     <x:row r="416" spans="1:9">
       <x:c r="A416" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B416" s="0" t="s">
         <x:v>18</x:v>
@@ -12947,7 +12953,7 @@
     </x:row>
     <x:row r="417" spans="1:9">
       <x:c r="A417" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B417" s="0" t="s">
         <x:v>18</x:v>
@@ -12976,7 +12982,7 @@
     </x:row>
     <x:row r="418" spans="1:9">
       <x:c r="A418" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B418" s="0" t="s">
         <x:v>19</x:v>
@@ -13005,7 +13011,7 @@
     </x:row>
     <x:row r="419" spans="1:9">
       <x:c r="A419" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B419" s="0" t="s">
         <x:v>19</x:v>
@@ -13034,7 +13040,7 @@
     </x:row>
     <x:row r="420" spans="1:9">
       <x:c r="A420" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B420" s="0" t="s">
         <x:v>19</x:v>
@@ -13063,7 +13069,7 @@
     </x:row>
     <x:row r="421" spans="1:9">
       <x:c r="A421" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B421" s="0" t="s">
         <x:v>33</x:v>
@@ -13092,7 +13098,7 @@
     </x:row>
     <x:row r="422" spans="1:9">
       <x:c r="A422" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B422" s="0" t="s">
         <x:v>33</x:v>
@@ -13121,7 +13127,7 @@
     </x:row>
     <x:row r="423" spans="1:9">
       <x:c r="A423" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B423" s="0" t="s">
         <x:v>34</x:v>
@@ -13150,7 +13156,7 @@
     </x:row>
     <x:row r="424" spans="1:9">
       <x:c r="A424" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B424" s="0" t="s">
         <x:v>34</x:v>
@@ -13179,7 +13185,7 @@
     </x:row>
     <x:row r="425" spans="1:9">
       <x:c r="A425" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B425" s="0" t="s">
         <x:v>10</x:v>
@@ -13208,7 +13214,7 @@
     </x:row>
     <x:row r="426" spans="1:9">
       <x:c r="A426" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B426" s="0" t="s">
         <x:v>10</x:v>
@@ -13237,7 +13243,7 @@
     </x:row>
     <x:row r="427" spans="1:9">
       <x:c r="A427" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B427" s="0" t="s">
         <x:v>10</x:v>
@@ -13266,7 +13272,7 @@
     </x:row>
     <x:row r="428" spans="1:9">
       <x:c r="A428" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B428" s="0" t="s">
         <x:v>10</x:v>
@@ -13284,7 +13290,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G428" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H428" s="1" t="s">
         <x:v>28</x:v>
@@ -13295,7 +13301,7 @@
     </x:row>
     <x:row r="429" spans="1:9">
       <x:c r="A429" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B429" s="0" t="s">
         <x:v>10</x:v>
@@ -13310,10 +13316,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F429" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G429" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H429" s="1" t="s">
         <x:v>39</x:v>
@@ -13324,7 +13330,7 @@
     </x:row>
     <x:row r="430" spans="1:9">
       <x:c r="A430" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B430" s="0" t="s">
         <x:v>50</x:v>
@@ -13353,7 +13359,7 @@
     </x:row>
     <x:row r="431" spans="1:9">
       <x:c r="A431" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B431" s="0" t="s">
         <x:v>50</x:v>
@@ -13382,7 +13388,7 @@
     </x:row>
     <x:row r="432" spans="1:9">
       <x:c r="A432" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B432" s="0" t="s">
         <x:v>18</x:v>
@@ -13411,7 +13417,7 @@
     </x:row>
     <x:row r="433" spans="1:9">
       <x:c r="A433" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B433" s="0" t="s">
         <x:v>18</x:v>
@@ -13440,7 +13446,7 @@
     </x:row>
     <x:row r="434" spans="1:9">
       <x:c r="A434" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B434" s="0" t="s">
         <x:v>18</x:v>
@@ -13469,7 +13475,7 @@
     </x:row>
     <x:row r="435" spans="1:9">
       <x:c r="A435" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B435" s="0" t="s">
         <x:v>19</x:v>
@@ -13498,7 +13504,7 @@
     </x:row>
     <x:row r="436" spans="1:9">
       <x:c r="A436" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B436" s="0" t="s">
         <x:v>19</x:v>
@@ -13527,7 +13533,7 @@
     </x:row>
     <x:row r="437" spans="1:9">
       <x:c r="A437" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B437" s="0" t="s">
         <x:v>19</x:v>
@@ -13556,7 +13562,7 @@
     </x:row>
     <x:row r="438" spans="1:9">
       <x:c r="A438" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B438" s="0" t="s">
         <x:v>33</x:v>
@@ -13585,7 +13591,7 @@
     </x:row>
     <x:row r="439" spans="1:9">
       <x:c r="A439" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B439" s="0" t="s">
         <x:v>33</x:v>
@@ -13614,7 +13620,7 @@
     </x:row>
     <x:row r="440" spans="1:9">
       <x:c r="A440" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B440" s="0" t="s">
         <x:v>33</x:v>
@@ -13643,7 +13649,7 @@
     </x:row>
     <x:row r="441" spans="1:9">
       <x:c r="A441" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B441" s="0" t="s">
         <x:v>34</x:v>
@@ -13672,7 +13678,7 @@
     </x:row>
     <x:row r="442" spans="1:9">
       <x:c r="A442" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B442" s="0" t="s">
         <x:v>34</x:v>
@@ -13701,7 +13707,7 @@
     </x:row>
     <x:row r="443" spans="1:9">
       <x:c r="A443" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B443" s="0" t="s">
         <x:v>34</x:v>
@@ -13719,7 +13725,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G443" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H443" s="1" t="s">
         <x:v>17</x:v>
@@ -13730,7 +13736,7 @@
     </x:row>
     <x:row r="444" spans="1:9">
       <x:c r="A444" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B444" s="0" t="s">
         <x:v>10</x:v>
@@ -13759,7 +13765,7 @@
     </x:row>
     <x:row r="445" spans="1:9">
       <x:c r="A445" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B445" s="0" t="s">
         <x:v>10</x:v>
@@ -13788,7 +13794,7 @@
     </x:row>
     <x:row r="446" spans="1:9">
       <x:c r="A446" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B446" s="0" t="s">
         <x:v>18</x:v>
@@ -13817,7 +13823,7 @@
     </x:row>
     <x:row r="447" spans="1:9">
       <x:c r="A447" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B447" s="0" t="s">
         <x:v>18</x:v>
@@ -13846,7 +13852,7 @@
     </x:row>
     <x:row r="448" spans="1:9">
       <x:c r="A448" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B448" s="0" t="s">
         <x:v>19</x:v>
@@ -13875,7 +13881,7 @@
     </x:row>
     <x:row r="449" spans="1:9">
       <x:c r="A449" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B449" s="0" t="s">
         <x:v>19</x:v>
@@ -13904,7 +13910,7 @@
     </x:row>
     <x:row r="450" spans="1:9">
       <x:c r="A450" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B450" s="0" t="s">
         <x:v>19</x:v>
@@ -13933,7 +13939,7 @@
     </x:row>
     <x:row r="451" spans="1:9">
       <x:c r="A451" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B451" s="0" t="s">
         <x:v>34</x:v>
@@ -13962,7 +13968,7 @@
     </x:row>
     <x:row r="452" spans="1:9">
       <x:c r="A452" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B452" s="0" t="s">
         <x:v>34</x:v>
@@ -13991,7 +13997,7 @@
     </x:row>
     <x:row r="453" spans="1:9">
       <x:c r="A453" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B453" s="0" t="s">
         <x:v>10</x:v>
@@ -14020,7 +14026,7 @@
     </x:row>
     <x:row r="454" spans="1:9">
       <x:c r="A454" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B454" s="0" t="s">
         <x:v>10</x:v>
@@ -14049,7 +14055,7 @@
     </x:row>
     <x:row r="455" spans="1:9">
       <x:c r="A455" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B455" s="0" t="s">
         <x:v>10</x:v>
@@ -14078,7 +14084,7 @@
     </x:row>
     <x:row r="456" spans="1:9">
       <x:c r="A456" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B456" s="0" t="s">
         <x:v>19</x:v>
@@ -14107,7 +14113,7 @@
     </x:row>
     <x:row r="457" spans="1:9">
       <x:c r="A457" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B457" s="0" t="s">
         <x:v>19</x:v>
@@ -14136,7 +14142,7 @@
     </x:row>
     <x:row r="458" spans="1:9">
       <x:c r="A458" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B458" s="0" t="s">
         <x:v>10</x:v>
@@ -14165,7 +14171,7 @@
     </x:row>
     <x:row r="459" spans="1:9">
       <x:c r="A459" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B459" s="0" t="s">
         <x:v>10</x:v>
@@ -14194,7 +14200,7 @@
     </x:row>
     <x:row r="460" spans="1:9">
       <x:c r="A460" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B460" s="0" t="s">
         <x:v>19</x:v>
@@ -14223,7 +14229,7 @@
     </x:row>
     <x:row r="461" spans="1:9">
       <x:c r="A461" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B461" s="0" t="s">
         <x:v>19</x:v>
@@ -14252,7 +14258,7 @@
     </x:row>
     <x:row r="462" spans="1:9">
       <x:c r="A462" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B462" s="0" t="s">
         <x:v>19</x:v>
@@ -14281,7 +14287,7 @@
     </x:row>
     <x:row r="463" spans="1:9">
       <x:c r="A463" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B463" s="0" t="s">
         <x:v>19</x:v>
@@ -14310,7 +14316,7 @@
     </x:row>
     <x:row r="464" spans="1:9">
       <x:c r="A464" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B464" s="0" t="s">
         <x:v>19</x:v>
@@ -14339,7 +14345,7 @@
     </x:row>
     <x:row r="465" spans="1:9">
       <x:c r="A465" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B465" s="0" t="s">
         <x:v>10</x:v>
@@ -14368,7 +14374,7 @@
     </x:row>
     <x:row r="466" spans="1:9">
       <x:c r="A466" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B466" s="0" t="s">
         <x:v>10</x:v>
@@ -14397,7 +14403,7 @@
     </x:row>
     <x:row r="467" spans="1:9">
       <x:c r="A467" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B467" s="0" t="s">
         <x:v>10</x:v>
@@ -14426,7 +14432,7 @@
     </x:row>
     <x:row r="468" spans="1:9">
       <x:c r="A468" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B468" s="0" t="s">
         <x:v>18</x:v>
@@ -14455,7 +14461,7 @@
     </x:row>
     <x:row r="469" spans="1:9">
       <x:c r="A469" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B469" s="0" t="s">
         <x:v>18</x:v>
@@ -14484,7 +14490,7 @@
     </x:row>
     <x:row r="470" spans="1:9">
       <x:c r="A470" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B470" s="0" t="s">
         <x:v>19</x:v>
@@ -14513,7 +14519,7 @@
     </x:row>
     <x:row r="471" spans="1:9">
       <x:c r="A471" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B471" s="0" t="s">
         <x:v>19</x:v>
@@ -14542,7 +14548,7 @@
     </x:row>
     <x:row r="472" spans="1:9">
       <x:c r="A472" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B472" s="0" t="s">
         <x:v>19</x:v>
@@ -14571,7 +14577,7 @@
     </x:row>
     <x:row r="473" spans="1:9">
       <x:c r="A473" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B473" s="0" t="s">
         <x:v>33</x:v>
@@ -14600,7 +14606,7 @@
     </x:row>
     <x:row r="474" spans="1:9">
       <x:c r="A474" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B474" s="0" t="s">
         <x:v>33</x:v>
@@ -14629,7 +14635,7 @@
     </x:row>
     <x:row r="475" spans="1:9">
       <x:c r="A475" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B475" s="0" t="s">
         <x:v>34</x:v>
@@ -14658,7 +14664,7 @@
     </x:row>
     <x:row r="476" spans="1:9">
       <x:c r="A476" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B476" s="0" t="s">
         <x:v>34</x:v>
@@ -14687,7 +14693,7 @@
     </x:row>
     <x:row r="477" spans="1:9">
       <x:c r="A477" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B477" s="0" t="s">
         <x:v>10</x:v>
@@ -14716,7 +14722,7 @@
     </x:row>
     <x:row r="478" spans="1:9">
       <x:c r="A478" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B478" s="0" t="s">
         <x:v>10</x:v>
@@ -14745,7 +14751,7 @@
     </x:row>
     <x:row r="479" spans="1:9">
       <x:c r="A479" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B479" s="0" t="s">
         <x:v>10</x:v>
@@ -14774,7 +14780,7 @@
     </x:row>
     <x:row r="480" spans="1:9">
       <x:c r="A480" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B480" s="0" t="s">
         <x:v>19</x:v>
@@ -14803,7 +14809,7 @@
     </x:row>
     <x:row r="481" spans="1:9">
       <x:c r="A481" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B481" s="0" t="s">
         <x:v>19</x:v>
@@ -14832,7 +14838,7 @@
     </x:row>
     <x:row r="482" spans="1:9">
       <x:c r="A482" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B482" s="0" t="s">
         <x:v>10</x:v>
@@ -14861,7 +14867,7 @@
     </x:row>
     <x:row r="483" spans="1:9">
       <x:c r="A483" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B483" s="0" t="s">
         <x:v>10</x:v>
@@ -14873,16 +14879,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E483" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F483" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G483" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H483" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I483" s="0" t="s">
         <x:v>13</x:v>
@@ -14890,7 +14896,7 @@
     </x:row>
     <x:row r="484" spans="1:9">
       <x:c r="A484" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B484" s="0" t="s">
         <x:v>10</x:v>
@@ -14902,16 +14908,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E484" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F484" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G484" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H484" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I484" s="0" t="s">
         <x:v>13</x:v>
@@ -14919,7 +14925,7 @@
     </x:row>
     <x:row r="485" spans="1:9">
       <x:c r="A485" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B485" s="0" t="s">
         <x:v>18</x:v>
@@ -14948,7 +14954,7 @@
     </x:row>
     <x:row r="486" spans="1:9">
       <x:c r="A486" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B486" s="0" t="s">
         <x:v>18</x:v>
@@ -14977,7 +14983,7 @@
     </x:row>
     <x:row r="487" spans="1:9">
       <x:c r="A487" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B487" s="0" t="s">
         <x:v>18</x:v>
@@ -15006,7 +15012,7 @@
     </x:row>
     <x:row r="488" spans="1:9">
       <x:c r="A488" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B488" s="0" t="s">
         <x:v>19</x:v>
@@ -15035,7 +15041,7 @@
     </x:row>
     <x:row r="489" spans="1:9">
       <x:c r="A489" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B489" s="0" t="s">
         <x:v>19</x:v>
@@ -15050,7 +15056,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F489" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G489" s="1" t="s">
         <x:v>30</x:v>
@@ -15064,7 +15070,7 @@
     </x:row>
     <x:row r="490" spans="1:9">
       <x:c r="A490" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B490" s="0" t="s">
         <x:v>19</x:v>
@@ -15082,7 +15088,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="G490" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H490" s="1" t="s">
         <x:v>24</x:v>
@@ -15093,7 +15099,7 @@
     </x:row>
     <x:row r="491" spans="1:9">
       <x:c r="A491" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B491" s="0" t="s">
         <x:v>32</x:v>
@@ -15122,7 +15128,7 @@
     </x:row>
     <x:row r="492" spans="1:9">
       <x:c r="A492" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B492" s="0" t="s">
         <x:v>32</x:v>
@@ -15151,7 +15157,7 @@
     </x:row>
     <x:row r="493" spans="1:9">
       <x:c r="A493" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B493" s="0" t="s">
         <x:v>33</x:v>
@@ -15180,7 +15186,7 @@
     </x:row>
     <x:row r="494" spans="1:9">
       <x:c r="A494" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B494" s="0" t="s">
         <x:v>33</x:v>
@@ -15209,7 +15215,7 @@
     </x:row>
     <x:row r="495" spans="1:9">
       <x:c r="A495" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B495" s="0" t="s">
         <x:v>34</x:v>
@@ -15238,7 +15244,7 @@
     </x:row>
     <x:row r="496" spans="1:9">
       <x:c r="A496" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B496" s="0" t="s">
         <x:v>34</x:v>
@@ -15250,13 +15256,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E496" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F496" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G496" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H496" s="1" t="s">
         <x:v>22</x:v>
@@ -15267,7 +15273,7 @@
     </x:row>
     <x:row r="497" spans="1:9">
       <x:c r="A497" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B497" s="0" t="s">
         <x:v>34</x:v>
@@ -15279,7 +15285,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E497" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F497" s="1" t="s">
         <x:v>30</x:v>
@@ -15296,7 +15302,7 @@
     </x:row>
     <x:row r="498" spans="1:9">
       <x:c r="A498" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B498" s="0" t="s">
         <x:v>10</x:v>
@@ -15325,7 +15331,7 @@
     </x:row>
     <x:row r="499" spans="1:9">
       <x:c r="A499" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B499" s="0" t="s">
         <x:v>10</x:v>
@@ -15354,7 +15360,7 @@
     </x:row>
     <x:row r="500" spans="1:9">
       <x:c r="A500" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B500" s="0" t="s">
         <x:v>10</x:v>
@@ -15383,7 +15389,7 @@
     </x:row>
     <x:row r="501" spans="1:9">
       <x:c r="A501" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B501" s="0" t="s">
         <x:v>10</x:v>
@@ -15412,7 +15418,7 @@
     </x:row>
     <x:row r="502" spans="1:9">
       <x:c r="A502" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B502" s="0" t="s">
         <x:v>10</x:v>
@@ -15441,7 +15447,7 @@
     </x:row>
     <x:row r="503" spans="1:9">
       <x:c r="A503" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B503" s="0" t="s">
         <x:v>19</x:v>
@@ -15470,7 +15476,7 @@
     </x:row>
     <x:row r="504" spans="1:9">
       <x:c r="A504" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B504" s="0" t="s">
         <x:v>19</x:v>
@@ -15499,7 +15505,7 @@
     </x:row>
     <x:row r="505" spans="1:9">
       <x:c r="A505" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B505" s="0" t="s">
         <x:v>19</x:v>
@@ -15528,7 +15534,7 @@
     </x:row>
     <x:row r="506" spans="1:9">
       <x:c r="A506" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B506" s="0" t="s">
         <x:v>10</x:v>
@@ -15557,7 +15563,7 @@
     </x:row>
     <x:row r="507" spans="1:9">
       <x:c r="A507" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B507" s="0" t="s">
         <x:v>10</x:v>
@@ -15586,7 +15592,7 @@
     </x:row>
     <x:row r="508" spans="1:9">
       <x:c r="A508" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B508" s="0" t="s">
         <x:v>10</x:v>
@@ -15615,7 +15621,7 @@
     </x:row>
     <x:row r="509" spans="1:9">
       <x:c r="A509" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B509" s="0" t="s">
         <x:v>19</x:v>
@@ -15644,7 +15650,7 @@
     </x:row>
     <x:row r="510" spans="1:9">
       <x:c r="A510" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B510" s="0" t="s">
         <x:v>19</x:v>
@@ -15673,7 +15679,7 @@
     </x:row>
     <x:row r="511" spans="1:9">
       <x:c r="A511" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B511" s="0" t="s">
         <x:v>19</x:v>
@@ -15702,7 +15708,7 @@
     </x:row>
     <x:row r="512" spans="1:9">
       <x:c r="A512" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B512" s="0" t="s">
         <x:v>33</x:v>
@@ -15731,7 +15737,7 @@
     </x:row>
     <x:row r="513" spans="1:9">
       <x:c r="A513" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B513" s="0" t="s">
         <x:v>33</x:v>
@@ -15760,7 +15766,7 @@
     </x:row>
     <x:row r="514" spans="1:9">
       <x:c r="A514" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B514" s="0" t="s">
         <x:v>33</x:v>
@@ -15789,7 +15795,7 @@
     </x:row>
     <x:row r="515" spans="1:9">
       <x:c r="A515" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B515" s="0" t="s">
         <x:v>19</x:v>
@@ -15818,7 +15824,7 @@
     </x:row>
     <x:row r="516" spans="1:9">
       <x:c r="A516" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B516" s="0" t="s">
         <x:v>19</x:v>
@@ -15847,7 +15853,7 @@
     </x:row>
     <x:row r="517" spans="1:9">
       <x:c r="A517" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B517" s="0" t="s">
         <x:v>19</x:v>
@@ -15876,7 +15882,7 @@
     </x:row>
     <x:row r="518" spans="1:9">
       <x:c r="A518" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B518" s="0" t="s">
         <x:v>10</x:v>
@@ -15905,7 +15911,7 @@
     </x:row>
     <x:row r="519" spans="1:9">
       <x:c r="A519" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B519" s="0" t="s">
         <x:v>10</x:v>
@@ -15934,7 +15940,7 @@
     </x:row>
     <x:row r="520" spans="1:9">
       <x:c r="A520" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B520" s="0" t="s">
         <x:v>10</x:v>
@@ -15963,7 +15969,7 @@
     </x:row>
     <x:row r="521" spans="1:9">
       <x:c r="A521" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B521" s="0" t="s">
         <x:v>50</x:v>
@@ -15992,7 +15998,7 @@
     </x:row>
     <x:row r="522" spans="1:9">
       <x:c r="A522" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B522" s="0" t="s">
         <x:v>50</x:v>
@@ -16021,7 +16027,7 @@
     </x:row>
     <x:row r="523" spans="1:9">
       <x:c r="A523" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B523" s="0" t="s">
         <x:v>18</x:v>
@@ -16050,7 +16056,7 @@
     </x:row>
     <x:row r="524" spans="1:9">
       <x:c r="A524" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B524" s="0" t="s">
         <x:v>18</x:v>
@@ -16079,7 +16085,7 @@
     </x:row>
     <x:row r="525" spans="1:9">
       <x:c r="A525" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B525" s="0" t="s">
         <x:v>18</x:v>
@@ -16108,7 +16114,7 @@
     </x:row>
     <x:row r="526" spans="1:9">
       <x:c r="A526" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B526" s="0" t="s">
         <x:v>19</x:v>
@@ -16137,7 +16143,7 @@
     </x:row>
     <x:row r="527" spans="1:9">
       <x:c r="A527" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B527" s="0" t="s">
         <x:v>19</x:v>
@@ -16166,7 +16172,7 @@
     </x:row>
     <x:row r="528" spans="1:9">
       <x:c r="A528" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B528" s="0" t="s">
         <x:v>19</x:v>
@@ -16184,7 +16190,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G528" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H528" s="1" t="s">
         <x:v>38</x:v>
@@ -16195,7 +16201,7 @@
     </x:row>
     <x:row r="529" spans="1:9">
       <x:c r="A529" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B529" s="0" t="s">
         <x:v>33</x:v>
@@ -16224,7 +16230,7 @@
     </x:row>
     <x:row r="530" spans="1:9">
       <x:c r="A530" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B530" s="0" t="s">
         <x:v>33</x:v>
@@ -16253,7 +16259,7 @@
     </x:row>
     <x:row r="531" spans="1:9">
       <x:c r="A531" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B531" s="0" t="s">
         <x:v>33</x:v>
@@ -16282,7 +16288,7 @@
     </x:row>
     <x:row r="532" spans="1:9">
       <x:c r="A532" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B532" s="0" t="s">
         <x:v>34</x:v>
@@ -16311,7 +16317,7 @@
     </x:row>
     <x:row r="533" spans="1:9">
       <x:c r="A533" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B533" s="0" t="s">
         <x:v>34</x:v>
@@ -16340,7 +16346,7 @@
     </x:row>
     <x:row r="534" spans="1:9">
       <x:c r="A534" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B534" s="0" t="s">
         <x:v>34</x:v>
@@ -16369,7 +16375,7 @@
     </x:row>
     <x:row r="535" spans="1:9">
       <x:c r="A535" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B535" s="0" t="s">
         <x:v>10</x:v>
@@ -16398,7 +16404,7 @@
     </x:row>
     <x:row r="536" spans="1:9">
       <x:c r="A536" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B536" s="0" t="s">
         <x:v>10</x:v>
@@ -16427,7 +16433,7 @@
     </x:row>
     <x:row r="537" spans="1:9">
       <x:c r="A537" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B537" s="0" t="s">
         <x:v>10</x:v>
@@ -16456,7 +16462,7 @@
     </x:row>
     <x:row r="538" spans="1:9">
       <x:c r="A538" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B538" s="0" t="s">
         <x:v>18</x:v>
@@ -16485,7 +16491,7 @@
     </x:row>
     <x:row r="539" spans="1:9">
       <x:c r="A539" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B539" s="0" t="s">
         <x:v>18</x:v>
@@ -16514,7 +16520,7 @@
     </x:row>
     <x:row r="540" spans="1:9">
       <x:c r="A540" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B540" s="0" t="s">
         <x:v>18</x:v>
@@ -16543,7 +16549,7 @@
     </x:row>
     <x:row r="541" spans="1:9">
       <x:c r="A541" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B541" s="0" t="s">
         <x:v>19</x:v>
@@ -16572,7 +16578,7 @@
     </x:row>
     <x:row r="542" spans="1:9">
       <x:c r="A542" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B542" s="0" t="s">
         <x:v>19</x:v>
@@ -16601,7 +16607,7 @@
     </x:row>
     <x:row r="543" spans="1:9">
       <x:c r="A543" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B543" s="0" t="s">
         <x:v>19</x:v>
@@ -16630,7 +16636,7 @@
     </x:row>
     <x:row r="544" spans="1:9">
       <x:c r="A544" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B544" s="0" t="s">
         <x:v>33</x:v>
@@ -16659,7 +16665,7 @@
     </x:row>
     <x:row r="545" spans="1:9">
       <x:c r="A545" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B545" s="0" t="s">
         <x:v>33</x:v>
@@ -16688,7 +16694,7 @@
     </x:row>
     <x:row r="546" spans="1:9">
       <x:c r="A546" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B546" s="0" t="s">
         <x:v>10</x:v>
@@ -16717,7 +16723,7 @@
     </x:row>
     <x:row r="547" spans="1:9">
       <x:c r="A547" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B547" s="0" t="s">
         <x:v>10</x:v>
@@ -16746,7 +16752,7 @@
     </x:row>
     <x:row r="548" spans="1:9">
       <x:c r="A548" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B548" s="0" t="s">
         <x:v>18</x:v>
@@ -16775,7 +16781,7 @@
     </x:row>
     <x:row r="549" spans="1:9">
       <x:c r="A549" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B549" s="0" t="s">
         <x:v>18</x:v>
@@ -16804,7 +16810,7 @@
     </x:row>
     <x:row r="550" spans="1:9">
       <x:c r="A550" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B550" s="0" t="s">
         <x:v>19</x:v>
@@ -16833,7 +16839,7 @@
     </x:row>
     <x:row r="551" spans="1:9">
       <x:c r="A551" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B551" s="0" t="s">
         <x:v>19</x:v>
@@ -16862,7 +16868,7 @@
     </x:row>
     <x:row r="552" spans="1:9">
       <x:c r="A552" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B552" s="0" t="s">
         <x:v>32</x:v>
@@ -16891,7 +16897,7 @@
     </x:row>
     <x:row r="553" spans="1:9">
       <x:c r="A553" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B553" s="0" t="s">
         <x:v>32</x:v>
@@ -16920,7 +16926,7 @@
     </x:row>
     <x:row r="554" spans="1:9">
       <x:c r="A554" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B554" s="0" t="s">
         <x:v>33</x:v>
@@ -16949,7 +16955,7 @@
     </x:row>
     <x:row r="555" spans="1:9">
       <x:c r="A555" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B555" s="0" t="s">
         <x:v>33</x:v>
@@ -16978,7 +16984,7 @@
     </x:row>
     <x:row r="556" spans="1:9">
       <x:c r="A556" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B556" s="0" t="s">
         <x:v>10</x:v>
@@ -17007,7 +17013,7 @@
     </x:row>
     <x:row r="557" spans="1:9">
       <x:c r="A557" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B557" s="0" t="s">
         <x:v>10</x:v>
@@ -17025,7 +17031,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G557" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H557" s="1" t="s">
         <x:v>28</x:v>
@@ -17036,7 +17042,7 @@
     </x:row>
     <x:row r="558" spans="1:9">
       <x:c r="A558" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B558" s="0" t="s">
         <x:v>10</x:v>
@@ -17054,7 +17060,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G558" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H558" s="1" t="s">
         <x:v>22</x:v>
@@ -17065,7 +17071,7 @@
     </x:row>
     <x:row r="559" spans="1:9">
       <x:c r="A559" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B559" s="0" t="s">
         <x:v>18</x:v>
@@ -17094,7 +17100,7 @@
     </x:row>
     <x:row r="560" spans="1:9">
       <x:c r="A560" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B560" s="0" t="s">
         <x:v>18</x:v>
@@ -17123,7 +17129,7 @@
     </x:row>
     <x:row r="561" spans="1:9">
       <x:c r="A561" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B561" s="0" t="s">
         <x:v>18</x:v>
@@ -17152,7 +17158,7 @@
     </x:row>
     <x:row r="562" spans="1:9">
       <x:c r="A562" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B562" s="0" t="s">
         <x:v>19</x:v>
@@ -17181,7 +17187,7 @@
     </x:row>
     <x:row r="563" spans="1:9">
       <x:c r="A563" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B563" s="0" t="s">
         <x:v>19</x:v>
@@ -17210,7 +17216,7 @@
     </x:row>
     <x:row r="564" spans="1:9">
       <x:c r="A564" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B564" s="0" t="s">
         <x:v>19</x:v>
@@ -17239,7 +17245,7 @@
     </x:row>
     <x:row r="565" spans="1:9">
       <x:c r="A565" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B565" s="0" t="s">
         <x:v>32</x:v>
@@ -17268,7 +17274,7 @@
     </x:row>
     <x:row r="566" spans="1:9">
       <x:c r="A566" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B566" s="0" t="s">
         <x:v>32</x:v>
@@ -17297,7 +17303,7 @@
     </x:row>
     <x:row r="567" spans="1:9">
       <x:c r="A567" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B567" s="0" t="s">
         <x:v>33</x:v>
@@ -17326,7 +17332,7 @@
     </x:row>
     <x:row r="568" spans="1:9">
       <x:c r="A568" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B568" s="0" t="s">
         <x:v>33</x:v>
@@ -17355,7 +17361,7 @@
     </x:row>
     <x:row r="569" spans="1:9">
       <x:c r="A569" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B569" s="0" t="s">
         <x:v>33</x:v>
@@ -17384,7 +17390,7 @@
     </x:row>
     <x:row r="570" spans="1:9">
       <x:c r="A570" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B570" s="0" t="s">
         <x:v>34</x:v>
@@ -17413,7 +17419,7 @@
     </x:row>
     <x:row r="571" spans="1:9">
       <x:c r="A571" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B571" s="0" t="s">
         <x:v>34</x:v>
@@ -17442,7 +17448,7 @@
     </x:row>
     <x:row r="572" spans="1:9">
       <x:c r="A572" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B572" s="0" t="s">
         <x:v>34</x:v>
@@ -17471,7 +17477,7 @@
     </x:row>
     <x:row r="573" spans="1:9">
       <x:c r="A573" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B573" s="0" t="s">
         <x:v>10</x:v>
@@ -17500,7 +17506,7 @@
     </x:row>
     <x:row r="574" spans="1:9">
       <x:c r="A574" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B574" s="0" t="s">
         <x:v>10</x:v>
@@ -17529,7 +17535,7 @@
     </x:row>
     <x:row r="575" spans="1:9">
       <x:c r="A575" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B575" s="0" t="s">
         <x:v>10</x:v>
@@ -17558,7 +17564,7 @@
     </x:row>
     <x:row r="576" spans="1:9">
       <x:c r="A576" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B576" s="0" t="s">
         <x:v>18</x:v>
@@ -17587,7 +17593,7 @@
     </x:row>
     <x:row r="577" spans="1:9">
       <x:c r="A577" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B577" s="0" t="s">
         <x:v>18</x:v>
@@ -17616,7 +17622,7 @@
     </x:row>
     <x:row r="578" spans="1:9">
       <x:c r="A578" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B578" s="0" t="s">
         <x:v>18</x:v>
@@ -17645,7 +17651,7 @@
     </x:row>
     <x:row r="579" spans="1:9">
       <x:c r="A579" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B579" s="0" t="s">
         <x:v>19</x:v>
@@ -17674,7 +17680,7 @@
     </x:row>
     <x:row r="580" spans="1:9">
       <x:c r="A580" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B580" s="0" t="s">
         <x:v>19</x:v>
@@ -17703,7 +17709,7 @@
     </x:row>
     <x:row r="581" spans="1:9">
       <x:c r="A581" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B581" s="0" t="s">
         <x:v>19</x:v>
@@ -17732,7 +17738,7 @@
     </x:row>
     <x:row r="582" spans="1:9">
       <x:c r="A582" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B582" s="0" t="s">
         <x:v>33</x:v>
@@ -17761,7 +17767,7 @@
     </x:row>
     <x:row r="583" spans="1:9">
       <x:c r="A583" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B583" s="0" t="s">
         <x:v>33</x:v>
@@ -17790,7 +17796,7 @@
     </x:row>
     <x:row r="584" spans="1:9">
       <x:c r="A584" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B584" s="0" t="s">
         <x:v>34</x:v>
@@ -17819,7 +17825,7 @@
     </x:row>
     <x:row r="585" spans="1:9">
       <x:c r="A585" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B585" s="0" t="s">
         <x:v>34</x:v>
@@ -17848,7 +17854,7 @@
     </x:row>
     <x:row r="586" spans="1:9">
       <x:c r="A586" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B586" s="0" t="s">
         <x:v>34</x:v>
@@ -17877,7 +17883,7 @@
     </x:row>
     <x:row r="587" spans="1:9">
       <x:c r="A587" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B587" s="0" t="s">
         <x:v>10</x:v>
@@ -17906,7 +17912,7 @@
     </x:row>
     <x:row r="588" spans="1:9">
       <x:c r="A588" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B588" s="0" t="s">
         <x:v>10</x:v>
@@ -17935,7 +17941,7 @@
     </x:row>
     <x:row r="589" spans="1:9">
       <x:c r="A589" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B589" s="0" t="s">
         <x:v>10</x:v>
@@ -17964,7 +17970,7 @@
     </x:row>
     <x:row r="590" spans="1:9">
       <x:c r="A590" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B590" s="0" t="s">
         <x:v>18</x:v>
@@ -17993,7 +17999,7 @@
     </x:row>
     <x:row r="591" spans="1:9">
       <x:c r="A591" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B591" s="0" t="s">
         <x:v>18</x:v>
@@ -18022,7 +18028,7 @@
     </x:row>
     <x:row r="592" spans="1:9">
       <x:c r="A592" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B592" s="0" t="s">
         <x:v>18</x:v>
@@ -18051,7 +18057,7 @@
     </x:row>
     <x:row r="593" spans="1:9">
       <x:c r="A593" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B593" s="0" t="s">
         <x:v>19</x:v>
@@ -18080,7 +18086,7 @@
     </x:row>
     <x:row r="594" spans="1:9">
       <x:c r="A594" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B594" s="0" t="s">
         <x:v>19</x:v>
@@ -18109,7 +18115,7 @@
     </x:row>
     <x:row r="595" spans="1:9">
       <x:c r="A595" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B595" s="0" t="s">
         <x:v>19</x:v>
@@ -18138,10 +18144,10 @@
     </x:row>
     <x:row r="596" spans="1:9">
       <x:c r="A596" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B596" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C596" s="1" t="s">
         <x:v>14</x:v>
@@ -18150,13 +18156,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E596" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F596" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G596" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H596" s="1" t="s">
         <x:v>13</x:v>
@@ -18167,10 +18173,10 @@
     </x:row>
     <x:row r="597" spans="1:9">
       <x:c r="A597" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B597" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C597" s="1" t="s">
         <x:v>16</x:v>
@@ -18179,13 +18185,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E597" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F597" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G597" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H597" s="1" t="s">
         <x:v>13</x:v>
@@ -18196,7 +18202,7 @@
     </x:row>
     <x:row r="598" spans="1:9">
       <x:c r="A598" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B598" s="0" t="s">
         <x:v>19</x:v>
@@ -18208,10 +18214,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E598" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F598" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G598" s="1" t="s">
         <x:v>12</x:v>
@@ -18225,7 +18231,7 @@
     </x:row>
     <x:row r="599" spans="1:9">
       <x:c r="A599" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B599" s="0" t="s">
         <x:v>19</x:v>
@@ -18237,10 +18243,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E599" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F599" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G599" s="1" t="s">
         <x:v>12</x:v>
@@ -18254,16 +18260,16 @@
     </x:row>
     <x:row r="600" spans="1:9">
       <x:c r="A600" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B600" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C600" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D600" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E600" s="1" t="s">
         <x:v>13</x:v>
@@ -18272,7 +18278,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G600" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H600" s="1" t="s">
         <x:v>13</x:v>
@@ -18283,13 +18289,13 @@
     </x:row>
     <x:row r="601" spans="1:9">
       <x:c r="A601" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B601" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C601" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D601" s="1" t="s">
         <x:v>13</x:v>
@@ -18304,7 +18310,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H601" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I601" s="0" t="s">
         <x:v>13</x:v>
@@ -18312,13 +18318,13 @@
     </x:row>
     <x:row r="602" spans="1:9">
       <x:c r="A602" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B602" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C602" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D602" s="1" t="s">
         <x:v>15</x:v>
@@ -18330,10 +18336,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G602" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H602" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I602" s="0" t="s">
         <x:v>13</x:v>
@@ -18341,10 +18347,10 @@
     </x:row>
     <x:row r="603" spans="1:9">
       <x:c r="A603" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B603" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C603" s="1" t="s">
         <x:v>14</x:v>
@@ -18353,16 +18359,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E603" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F603" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G603" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H603" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I603" s="0" t="s">
         <x:v>13</x:v>
@@ -18370,28 +18376,28 @@
     </x:row>
     <x:row r="604" spans="1:9">
       <x:c r="A604" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B604" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C604" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D604" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E604" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F604" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G604" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H604" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I604" s="0" t="s">
         <x:v>13</x:v>
@@ -18399,10 +18405,10 @@
     </x:row>
     <x:row r="605" spans="1:9">
       <x:c r="A605" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B605" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C605" s="1" t="s">
         <x:v>14</x:v>
@@ -18411,16 +18417,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E605" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F605" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G605" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H605" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I605" s="0" t="s">
         <x:v>13</x:v>
@@ -18428,10 +18434,10 @@
     </x:row>
     <x:row r="606" spans="1:9">
       <x:c r="A606" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B606" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C606" s="1" t="s">
         <x:v>16</x:v>
@@ -18440,16 +18446,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E606" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F606" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G606" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H606" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I606" s="0" t="s">
         <x:v>13</x:v>
@@ -18457,13 +18463,13 @@
     </x:row>
     <x:row r="607" spans="1:9">
       <x:c r="A607" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B607" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C607" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D607" s="1" t="s">
         <x:v>13</x:v>
@@ -18472,13 +18478,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F607" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G607" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H607" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I607" s="0" t="s">
         <x:v>13</x:v>
@@ -18486,13 +18492,13 @@
     </x:row>
     <x:row r="608" spans="1:9">
       <x:c r="A608" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B608" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C608" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D608" s="1" t="s">
         <x:v>13</x:v>
@@ -18501,13 +18507,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F608" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G608" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H608" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I608" s="0" t="s">
         <x:v>13</x:v>
@@ -18515,13 +18521,13 @@
     </x:row>
     <x:row r="609" spans="1:9">
       <x:c r="A609" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B609" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C609" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D609" s="1" t="s">
         <x:v>13</x:v>
@@ -18533,10 +18539,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G609" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H609" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I609" s="0" t="s">
         <x:v>13</x:v>
@@ -18544,10 +18550,10 @@
     </x:row>
     <x:row r="610" spans="1:9">
       <x:c r="A610" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B610" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C610" s="1" t="s">
         <x:v>14</x:v>
@@ -18556,16 +18562,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E610" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F610" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G610" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H610" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I610" s="0" t="s">
         <x:v>13</x:v>
@@ -18573,10 +18579,10 @@
     </x:row>
     <x:row r="611" spans="1:9">
       <x:c r="A611" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B611" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C611" s="1" t="s">
         <x:v>16</x:v>
@@ -18585,16 +18591,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E611" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F611" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G611" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H611" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I611" s="0" t="s">
         <x:v>13</x:v>
@@ -18602,19 +18608,19 @@
     </x:row>
     <x:row r="612" spans="1:9">
       <x:c r="A612" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B612" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C612" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D612" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E612" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F612" s="1" t="s">
         <x:v>13</x:v>
@@ -18623,7 +18629,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H612" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I612" s="0" t="s">
         <x:v>13</x:v>
@@ -18631,19 +18637,19 @@
     </x:row>
     <x:row r="613" spans="1:9">
       <x:c r="A613" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B613" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C613" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D613" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E613" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F613" s="1" t="s">
         <x:v>13</x:v>
@@ -18652,7 +18658,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H613" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I613" s="0" t="s">
         <x:v>13</x:v>
@@ -18660,13 +18666,13 @@
     </x:row>
     <x:row r="614" spans="1:9">
       <x:c r="A614" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B614" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="C614" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D614" s="1" t="s">
         <x:v>13</x:v>
@@ -18681,7 +18687,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H614" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I614" s="0" t="s">
         <x:v>13</x:v>
@@ -18689,16 +18695,16 @@
     </x:row>
     <x:row r="615" spans="1:9">
       <x:c r="A615" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B615" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C615" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D615" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E615" s="1" t="s">
         <x:v>13</x:v>
@@ -18707,10 +18713,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G615" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H615" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I615" s="0" t="s">
         <x:v>13</x:v>
@@ -18718,16 +18724,16 @@
     </x:row>
     <x:row r="616" spans="1:9">
       <x:c r="A616" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B616" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C616" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D616" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E616" s="1" t="s">
         <x:v>13</x:v>
@@ -18736,10 +18742,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G616" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H616" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I616" s="0" t="s">
         <x:v>13</x:v>
@@ -18747,28 +18753,28 @@
     </x:row>
     <x:row r="617" spans="1:9">
       <x:c r="A617" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B617" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C617" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D617" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E617" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F617" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G617" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H617" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I617" s="0" t="s">
         <x:v>13</x:v>
@@ -18776,28 +18782,28 @@
     </x:row>
     <x:row r="618" spans="1:9">
       <x:c r="A618" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B618" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C618" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D618" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E618" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F618" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G618" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H618" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I618" s="0" t="s">
         <x:v>13</x:v>
@@ -18805,10 +18811,10 @@
     </x:row>
     <x:row r="619" spans="1:9">
       <x:c r="A619" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B619" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C619" s="1" t="s">
         <x:v>14</x:v>
@@ -18826,7 +18832,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H619" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I619" s="0" t="s">
         <x:v>13</x:v>
@@ -18834,10 +18840,10 @@
     </x:row>
     <x:row r="620" spans="1:9">
       <x:c r="A620" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B620" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C620" s="1" t="s">
         <x:v>16</x:v>
@@ -18855,7 +18861,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H620" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I620" s="0" t="s">
         <x:v>13</x:v>
@@ -18863,10 +18869,10 @@
     </x:row>
     <x:row r="621" spans="1:9">
       <x:c r="A621" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B621" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C621" s="1" t="s">
         <x:v>14</x:v>
@@ -18878,13 +18884,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F621" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G621" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H621" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I621" s="0" t="s">
         <x:v>13</x:v>
@@ -18892,10 +18898,10 @@
     </x:row>
     <x:row r="622" spans="1:9">
       <x:c r="A622" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B622" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C622" s="1" t="s">
         <x:v>16</x:v>
@@ -18907,13 +18913,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F622" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G622" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H622" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I622" s="0" t="s">
         <x:v>13</x:v>
@@ -18921,10 +18927,10 @@
     </x:row>
     <x:row r="623" spans="1:9">
       <x:c r="A623" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B623" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C623" s="1" t="s">
         <x:v>14</x:v>
@@ -18936,13 +18942,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F623" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G623" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H623" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I623" s="0" t="s">
         <x:v>13</x:v>
@@ -18950,10 +18956,10 @@
     </x:row>
     <x:row r="624" spans="1:9">
       <x:c r="A624" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B624" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C624" s="1" t="s">
         <x:v>16</x:v>
@@ -18965,13 +18971,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F624" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G624" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H624" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I624" s="0" t="s">
         <x:v>13</x:v>
@@ -18979,10 +18985,10 @@
     </x:row>
     <x:row r="625" spans="1:9">
       <x:c r="A625" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B625" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C625" s="1" t="s">
         <x:v>14</x:v>
@@ -18991,16 +18997,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E625" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F625" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G625" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H625" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I625" s="0" t="s">
         <x:v>13</x:v>
@@ -19008,10 +19014,10 @@
     </x:row>
     <x:row r="626" spans="1:9">
       <x:c r="A626" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B626" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C626" s="1" t="s">
         <x:v>16</x:v>
@@ -19020,16 +19026,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E626" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F626" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G626" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H626" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I626" s="0" t="s">
         <x:v>13</x:v>
@@ -19037,28 +19043,28 @@
     </x:row>
     <x:row r="627" spans="1:9">
       <x:c r="A627" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B627" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C627" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D627" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E627" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F627" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G627" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H627" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I627" s="0" t="s">
         <x:v>13</x:v>
@@ -19066,28 +19072,28 @@
     </x:row>
     <x:row r="628" spans="1:9">
       <x:c r="A628" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B628" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C628" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D628" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E628" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F628" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G628" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H628" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I628" s="0" t="s">
         <x:v>13</x:v>
@@ -19095,28 +19101,28 @@
     </x:row>
     <x:row r="629" spans="1:9">
       <x:c r="A629" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B629" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C629" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D629" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E629" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F629" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G629" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H629" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I629" s="0" t="s">
         <x:v>13</x:v>
@@ -19124,28 +19130,28 @@
     </x:row>
     <x:row r="630" spans="1:9">
       <x:c r="A630" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B630" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C630" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D630" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E630" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F630" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G630" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H630" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I630" s="0" t="s">
         <x:v>13</x:v>
@@ -19153,28 +19159,28 @@
     </x:row>
     <x:row r="631" spans="1:9">
       <x:c r="A631" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B631" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C631" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D631" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E631" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E631" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="F631" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G631" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H631" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I631" s="0" t="s">
         <x:v>13</x:v>
@@ -19182,28 +19188,28 @@
     </x:row>
     <x:row r="632" spans="1:9">
       <x:c r="A632" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B632" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C632" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D632" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E632" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F632" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G632" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H632" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I632" s="0" t="s">
         <x:v>13</x:v>
@@ -19211,28 +19217,28 @@
     </x:row>
     <x:row r="633" spans="1:9">
       <x:c r="A633" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B633" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C633" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D633" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E633" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F633" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G633" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F633" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G633" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="H633" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I633" s="0" t="s">
         <x:v>13</x:v>
@@ -19240,28 +19246,28 @@
     </x:row>
     <x:row r="634" spans="1:9">
       <x:c r="A634" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B634" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C634" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D634" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E634" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F634" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G634" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H634" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I634" s="0" t="s">
         <x:v>13</x:v>
@@ -19269,28 +19275,28 @@
     </x:row>
     <x:row r="635" spans="1:9">
       <x:c r="A635" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B635" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C635" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D635" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E635" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F635" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G635" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H635" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I635" s="0" t="s">
         <x:v>13</x:v>
@@ -19298,28 +19304,28 @@
     </x:row>
     <x:row r="636" spans="1:9">
       <x:c r="A636" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B636" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C636" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D636" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E636" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F636" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G636" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H636" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I636" s="0" t="s">
         <x:v>13</x:v>
@@ -19327,28 +19333,28 @@
     </x:row>
     <x:row r="637" spans="1:9">
       <x:c r="A637" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B637" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C637" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D637" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E637" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F637" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G637" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H637" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I637" s="0" t="s">
         <x:v>13</x:v>
@@ -19356,25 +19362,25 @@
     </x:row>
     <x:row r="638" spans="1:9">
       <x:c r="A638" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B638" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C638" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D638" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E638" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F638" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G638" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H638" s="1" t="s">
         <x:v>13</x:v>
@@ -19385,25 +19391,25 @@
     </x:row>
     <x:row r="639" spans="1:9">
       <x:c r="A639" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B639" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C639" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D639" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E639" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F639" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G639" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H639" s="1" t="s">
         <x:v>13</x:v>
@@ -19414,19 +19420,19 @@
     </x:row>
     <x:row r="640" spans="1:9">
       <x:c r="A640" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B640" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="C640" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D640" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E640" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F640" s="1" t="s">
         <x:v>12</x:v>
@@ -19443,10 +19449,10 @@
     </x:row>
     <x:row r="641" spans="1:9">
       <x:c r="A641" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B641" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C641" s="1" t="s">
         <x:v>14</x:v>
@@ -19455,13 +19461,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E641" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F641" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G641" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H641" s="1" t="s">
         <x:v>13</x:v>
@@ -19472,25 +19478,25 @@
     </x:row>
     <x:row r="642" spans="1:9">
       <x:c r="A642" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B642" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C642" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D642" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E642" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F642" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G642" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H642" s="1" t="s">
         <x:v>13</x:v>
@@ -19501,10 +19507,10 @@
     </x:row>
     <x:row r="643" spans="1:9">
       <x:c r="A643" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B643" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C643" s="1" t="s">
         <x:v>14</x:v>
@@ -19513,13 +19519,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E643" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F643" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G643" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H643" s="1" t="s">
         <x:v>13</x:v>
@@ -19530,10 +19536,10 @@
     </x:row>
     <x:row r="644" spans="1:9">
       <x:c r="A644" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B644" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C644" s="1" t="s">
         <x:v>16</x:v>
@@ -19542,13 +19548,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E644" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F644" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G644" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H644" s="1" t="s">
         <x:v>13</x:v>
@@ -19559,10 +19565,10 @@
     </x:row>
     <x:row r="645" spans="1:9">
       <x:c r="A645" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B645" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C645" s="1" t="s">
         <x:v>14</x:v>
@@ -19571,13 +19577,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E645" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F645" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G645" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H645" s="1" t="s">
         <x:v>13</x:v>
@@ -19588,10 +19594,10 @@
     </x:row>
     <x:row r="646" spans="1:9">
       <x:c r="A646" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B646" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C646" s="1" t="s">
         <x:v>16</x:v>
@@ -19600,13 +19606,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E646" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F646" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G646" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H646" s="1" t="s">
         <x:v>13</x:v>
@@ -19617,25 +19623,25 @@
     </x:row>
     <x:row r="647" spans="1:9">
       <x:c r="A647" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B647" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C647" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D647" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E647" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F647" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G647" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H647" s="1" t="s">
         <x:v>13</x:v>
@@ -19646,22 +19652,22 @@
     </x:row>
     <x:row r="648" spans="1:9">
       <x:c r="A648" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B648" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C648" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D648" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E648" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F648" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G648" s="1" t="s">
         <x:v>12</x:v>
@@ -19675,13 +19681,13 @@
     </x:row>
     <x:row r="649" spans="1:9">
       <x:c r="A649" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B649" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C649" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D649" s="1" t="s">
         <x:v>13</x:v>
@@ -19690,10 +19696,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F649" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G649" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H649" s="1" t="s">
         <x:v>13</x:v>
@@ -19704,10 +19710,10 @@
     </x:row>
     <x:row r="650" spans="1:9">
       <x:c r="A650" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B650" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C650" s="1" t="s">
         <x:v>14</x:v>
@@ -19719,13 +19725,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F650" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G650" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H650" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I650" s="0" t="s">
         <x:v>13</x:v>
@@ -19733,10 +19739,10 @@
     </x:row>
     <x:row r="651" spans="1:9">
       <x:c r="A651" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B651" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C651" s="1" t="s">
         <x:v>16</x:v>
@@ -19748,13 +19754,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F651" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G651" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H651" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I651" s="0" t="s">
         <x:v>13</x:v>
@@ -19762,10 +19768,10 @@
     </x:row>
     <x:row r="652" spans="1:9">
       <x:c r="A652" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B652" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C652" s="1" t="s">
         <x:v>14</x:v>
@@ -19780,7 +19786,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G652" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H652" s="1" t="s">
         <x:v>12</x:v>
@@ -19791,10 +19797,10 @@
     </x:row>
     <x:row r="653" spans="1:9">
       <x:c r="A653" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B653" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C653" s="1" t="s">
         <x:v>16</x:v>
@@ -19809,7 +19815,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G653" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H653" s="1" t="s">
         <x:v>12</x:v>
@@ -19820,16 +19826,16 @@
     </x:row>
     <x:row r="654" spans="1:9">
       <x:c r="A654" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B654" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C654" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D654" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E654" s="1" t="s">
         <x:v>13</x:v>
@@ -19838,10 +19844,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G654" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H654" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I654" s="0" t="s">
         <x:v>13</x:v>
@@ -19849,28 +19855,28 @@
     </x:row>
     <x:row r="655" spans="1:9">
       <x:c r="A655" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B655" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C655" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D655" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E655" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F655" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G655" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H655" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I655" s="0" t="s">
         <x:v>13</x:v>
@@ -19878,28 +19884,28 @@
     </x:row>
     <x:row r="656" spans="1:9">
       <x:c r="A656" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B656" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C656" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D656" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E656" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F656" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G656" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H656" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I656" s="0" t="s">
         <x:v>13</x:v>
@@ -19907,28 +19913,28 @@
     </x:row>
     <x:row r="657" spans="1:9">
       <x:c r="A657" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B657" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C657" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D657" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E657" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F657" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G657" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H657" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I657" s="0" t="s">
         <x:v>13</x:v>
@@ -19936,28 +19942,28 @@
     </x:row>
     <x:row r="658" spans="1:9">
       <x:c r="A658" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B658" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C658" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D658" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E658" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F658" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G658" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H658" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I658" s="0" t="s">
         <x:v>13</x:v>
@@ -19965,28 +19971,28 @@
     </x:row>
     <x:row r="659" spans="1:9">
       <x:c r="A659" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B659" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C659" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D659" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E659" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F659" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G659" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H659" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I659" s="0" t="s">
         <x:v>13</x:v>
@@ -19994,28 +20000,28 @@
     </x:row>
     <x:row r="660" spans="1:9">
       <x:c r="A660" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B660" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C660" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D660" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E660" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F660" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G660" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H660" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I660" s="0" t="s">
         <x:v>13</x:v>
@@ -20023,28 +20029,28 @@
     </x:row>
     <x:row r="661" spans="1:9">
       <x:c r="A661" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B661" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C661" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D661" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E661" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F661" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G661" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H661" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I661" s="0" t="s">
         <x:v>13</x:v>
@@ -20052,19 +20058,19 @@
     </x:row>
     <x:row r="662" spans="1:9">
       <x:c r="A662" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B662" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="C662" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D662" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E662" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F662" s="1" t="s">
         <x:v>13</x:v>
@@ -20073,7 +20079,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H662" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I662" s="0" t="s">
         <x:v>13</x:v>
@@ -20081,28 +20087,28 @@
     </x:row>
     <x:row r="663" spans="1:9">
       <x:c r="A663" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B663" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C663" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D663" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E663" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F663" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G663" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H663" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I663" s="0" t="s">
         <x:v>13</x:v>
@@ -20110,28 +20116,28 @@
     </x:row>
     <x:row r="664" spans="1:9">
       <x:c r="A664" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B664" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C664" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D664" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E664" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F664" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G664" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H664" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I664" s="0" t="s">
         <x:v>13</x:v>
@@ -20139,13 +20145,13 @@
     </x:row>
     <x:row r="665" spans="1:9">
       <x:c r="A665" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B665" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="C665" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D665" s="1" t="s">
         <x:v>13</x:v>
@@ -20157,7 +20163,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G665" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H665" s="1" t="s">
         <x:v>13</x:v>
@@ -20168,13 +20174,13 @@
     </x:row>
     <x:row r="666" spans="1:9">
       <x:c r="A666" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B666" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C666" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D666" s="1" t="s">
         <x:v>13</x:v>
@@ -20183,7 +20189,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F666" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G666" s="1" t="s">
         <x:v>12</x:v>
@@ -20197,25 +20203,25 @@
     </x:row>
     <x:row r="667" spans="1:9">
       <x:c r="A667" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B667" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C667" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D667" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E667" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F667" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G667" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H667" s="1" t="s">
         <x:v>13</x:v>
@@ -20226,25 +20232,25 @@
     </x:row>
     <x:row r="668" spans="1:9">
       <x:c r="A668" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B668" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C668" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D668" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E668" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F668" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G668" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H668" s="1" t="s">
         <x:v>13</x:v>
@@ -20255,25 +20261,25 @@
     </x:row>
     <x:row r="669" spans="1:9">
       <x:c r="A669" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B669" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C669" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D669" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E669" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F669" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G669" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H669" s="1" t="s">
         <x:v>13</x:v>
@@ -20284,28 +20290,28 @@
     </x:row>
     <x:row r="670" spans="1:9">
       <x:c r="A670" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B670" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C670" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D670" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E670" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F670" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G670" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H670" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I670" s="0" t="s">
         <x:v>13</x:v>
@@ -20313,16 +20319,16 @@
     </x:row>
     <x:row r="671" spans="1:9">
       <x:c r="A671" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B671" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C671" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D671" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E671" s="1" t="s">
         <x:v>13</x:v>
@@ -20331,10 +20337,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G671" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H671" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I671" s="0" t="s">
         <x:v>13</x:v>
@@ -20342,28 +20348,28 @@
     </x:row>
     <x:row r="672" spans="1:9">
       <x:c r="A672" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B672" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C672" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D672" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E672" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F672" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G672" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H672" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I672" s="0" t="s">
         <x:v>13</x:v>
@@ -20371,28 +20377,28 @@
     </x:row>
     <x:row r="673" spans="1:9">
       <x:c r="A673" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B673" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C673" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D673" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E673" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F673" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G673" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H673" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I673" s="0" t="s">
         <x:v>13</x:v>
@@ -20400,28 +20406,28 @@
     </x:row>
     <x:row r="674" spans="1:9">
       <x:c r="A674" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B674" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C674" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D674" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E674" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F674" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G674" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H674" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I674" s="0" t="s">
         <x:v>13</x:v>
@@ -20429,28 +20435,28 @@
     </x:row>
     <x:row r="675" spans="1:9">
       <x:c r="A675" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B675" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C675" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D675" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E675" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F675" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G675" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H675" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I675" s="0" t="s">
         <x:v>13</x:v>
@@ -20458,28 +20464,28 @@
     </x:row>
     <x:row r="676" spans="1:9">
       <x:c r="A676" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B676" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C676" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D676" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E676" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F676" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G676" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H676" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I676" s="0" t="s">
         <x:v>13</x:v>
@@ -20487,19 +20493,19 @@
     </x:row>
     <x:row r="677" spans="1:9">
       <x:c r="A677" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B677" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="C677" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D677" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E677" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F677" s="1" t="s">
         <x:v>13</x:v>
@@ -20516,19 +20522,19 @@
     </x:row>
     <x:row r="678" spans="1:9">
       <x:c r="A678" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B678" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C678" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D678" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E678" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F678" s="1" t="s">
         <x:v>13</x:v>
@@ -20537,7 +20543,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H678" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I678" s="0" t="s">
         <x:v>13</x:v>
@@ -20545,19 +20551,19 @@
     </x:row>
     <x:row r="679" spans="1:9">
       <x:c r="A679" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B679" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C679" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D679" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E679" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F679" s="1" t="s">
         <x:v>13</x:v>
@@ -20566,7 +20572,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H679" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I679" s="0" t="s">
         <x:v>13</x:v>
@@ -20574,16 +20580,16 @@
     </x:row>
     <x:row r="680" spans="1:9">
       <x:c r="A680" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B680" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C680" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D680" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E680" s="1" t="s">
         <x:v>13</x:v>
@@ -20595,7 +20601,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H680" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I680" s="0" t="s">
         <x:v>13</x:v>
@@ -20603,13 +20609,13 @@
     </x:row>
     <x:row r="681" spans="1:9">
       <x:c r="A681" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B681" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C681" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D681" s="1" t="s">
         <x:v>13</x:v>
@@ -20624,7 +20630,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H681" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I681" s="0" t="s">
         <x:v>13</x:v>
@@ -20632,13 +20638,13 @@
     </x:row>
     <x:row r="682" spans="1:9">
       <x:c r="A682" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B682" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C682" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D682" s="1" t="s">
         <x:v>12</x:v>
@@ -20653,7 +20659,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H682" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I682" s="0" t="s">
         <x:v>13</x:v>
@@ -20661,10 +20667,10 @@
     </x:row>
     <x:row r="683" spans="1:9">
       <x:c r="A683" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B683" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C683" s="1" t="s">
         <x:v>14</x:v>
@@ -20673,16 +20679,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E683" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F683" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G683" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H683" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I683" s="0" t="s">
         <x:v>13</x:v>
@@ -20690,28 +20696,28 @@
     </x:row>
     <x:row r="684" spans="1:9">
       <x:c r="A684" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B684" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C684" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D684" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E684" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F684" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G684" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H684" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I684" s="0" t="s">
         <x:v>13</x:v>
@@ -20719,10 +20725,10 @@
     </x:row>
     <x:row r="685" spans="1:9">
       <x:c r="A685" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B685" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C685" s="1" t="s">
         <x:v>14</x:v>
@@ -20737,7 +20743,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G685" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H685" s="1" t="s">
         <x:v>13</x:v>
@@ -20748,30 +20754,88 @@
     </x:row>
     <x:row r="686" spans="1:9">
       <x:c r="A686" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B686" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C686" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D686" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E686" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F686" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G686" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H686" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I686" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="687" spans="1:9">
+      <x:c r="A687" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B687" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C686" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D686" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E686" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F686" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G686" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H686" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I686" s="0" t="s">
+      <x:c r="C687" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D687" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E687" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F687" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G687" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H687" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I687" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="688" spans="1:9">
+      <x:c r="A688" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B688" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C688" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D688" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E688" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F688" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G688" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H688" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I688" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2025.xlsx
@@ -5657,7 +5657,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F165" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G165" s="1" t="s">
         <x:v>23</x:v>
@@ -5686,7 +5686,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F166" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G166" s="1" t="s">
         <x:v>29</x:v>
@@ -5805,7 +5805,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G170" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H170" s="1" t="s">
         <x:v>35</x:v>
@@ -5863,7 +5863,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G172" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H172" s="1" t="s">
         <x:v>59</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2025.xlsx
@@ -148,10 +148,13 @@
     <x:t>Blue Earth</x:t>
   </x:si>
   <x:si>
-    <x:t>28</x:t>
+    <x:t>30</x:t>
   </x:si>
   <x:si>
-    <x:t>35</x:t>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
   </x:si>
   <x:si>
     <x:t>Brown</x:t>
@@ -193,7 +196,7 @@
     <x:t>Dakota</x:t>
   </x:si>
   <x:si>
-    <x:t>15</x:t>
+    <x:t>16</x:t>
   </x:si>
   <x:si>
     <x:t>Dodge</x:t>
@@ -232,7 +235,7 @@
     <x:t>59</x:t>
   </x:si>
   <x:si>
-    <x:t>107</x:t>
+    <x:t>108</x:t>
   </x:si>
   <x:si>
     <x:t>145</x:t>
@@ -247,7 +250,7 @@
     <x:t>83</x:t>
   </x:si>
   <x:si>
-    <x:t>158</x:t>
+    <x:t>159</x:t>
   </x:si>
   <x:si>
     <x:t>185</x:t>
@@ -256,7 +259,13 @@
     <x:t>79</x:t>
   </x:si>
   <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
     <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
@@ -268,7 +277,7 @@
     <x:t>49</x:t>
   </x:si>
   <x:si>
-    <x:t>37</x:t>
+    <x:t>38</x:t>
   </x:si>
   <x:si>
     <x:t>19</x:t>
@@ -284,9 +293,6 @@
   </x:si>
   <x:si>
     <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -364,6 +370,9 @@
     <x:t>Olmsted</x:t>
   </x:si>
   <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
     <x:t>31</x:t>
   </x:si>
   <x:si>
@@ -394,7 +403,7 @@
     <x:t>106</x:t>
   </x:si>
   <x:si>
-    <x:t>159</x:t>
+    <x:t>158</x:t>
   </x:si>
   <x:si>
     <x:t>224</x:t>
@@ -406,7 +415,7 @@
     <x:t>117</x:t>
   </x:si>
   <x:si>
-    <x:t>172</x:t>
+    <x:t>171</x:t>
   </x:si>
   <x:si>
     <x:t>244</x:t>
@@ -416,9 +425,6 @@
   </x:si>
   <x:si>
     <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
@@ -2934,7 +2940,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="G71" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H71" s="1" t="s">
         <x:v>22</x:v>
@@ -3293,7 +3299,7 @@
     </x:row>
     <x:row r="84" spans="1:9">
       <x:c r="A84" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>10</x:v>
@@ -3322,7 +3328,7 @@
     </x:row>
     <x:row r="85" spans="1:9">
       <x:c r="A85" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>10</x:v>
@@ -3351,7 +3357,7 @@
     </x:row>
     <x:row r="86" spans="1:9">
       <x:c r="A86" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>10</x:v>
@@ -3380,7 +3386,7 @@
     </x:row>
     <x:row r="87" spans="1:9">
       <x:c r="A87" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>18</x:v>
@@ -3409,7 +3415,7 @@
     </x:row>
     <x:row r="88" spans="1:9">
       <x:c r="A88" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
         <x:v>18</x:v>
@@ -3438,7 +3444,7 @@
     </x:row>
     <x:row r="89" spans="1:9">
       <x:c r="A89" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
         <x:v>19</x:v>
@@ -3467,7 +3473,7 @@
     </x:row>
     <x:row r="90" spans="1:9">
       <x:c r="A90" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>19</x:v>
@@ -3496,7 +3502,7 @@
     </x:row>
     <x:row r="91" spans="1:9">
       <x:c r="A91" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>19</x:v>
@@ -3525,7 +3531,7 @@
     </x:row>
     <x:row r="92" spans="1:9">
       <x:c r="A92" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
         <x:v>33</x:v>
@@ -3554,7 +3560,7 @@
     </x:row>
     <x:row r="93" spans="1:9">
       <x:c r="A93" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
         <x:v>33</x:v>
@@ -3583,7 +3589,7 @@
     </x:row>
     <x:row r="94" spans="1:9">
       <x:c r="A94" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
         <x:v>10</x:v>
@@ -3612,7 +3618,7 @@
     </x:row>
     <x:row r="95" spans="1:9">
       <x:c r="A95" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
         <x:v>10</x:v>
@@ -3641,7 +3647,7 @@
     </x:row>
     <x:row r="96" spans="1:9">
       <x:c r="A96" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>10</x:v>
@@ -3670,7 +3676,7 @@
     </x:row>
     <x:row r="97" spans="1:9">
       <x:c r="A97" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>18</x:v>
@@ -3699,7 +3705,7 @@
     </x:row>
     <x:row r="98" spans="1:9">
       <x:c r="A98" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
         <x:v>18</x:v>
@@ -3728,7 +3734,7 @@
     </x:row>
     <x:row r="99" spans="1:9">
       <x:c r="A99" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
         <x:v>19</x:v>
@@ -3757,7 +3763,7 @@
     </x:row>
     <x:row r="100" spans="1:9">
       <x:c r="A100" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
         <x:v>19</x:v>
@@ -3786,7 +3792,7 @@
     </x:row>
     <x:row r="101" spans="1:9">
       <x:c r="A101" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
         <x:v>19</x:v>
@@ -3815,7 +3821,7 @@
     </x:row>
     <x:row r="102" spans="1:9">
       <x:c r="A102" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
         <x:v>10</x:v>
@@ -3844,7 +3850,7 @@
     </x:row>
     <x:row r="103" spans="1:9">
       <x:c r="A103" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
         <x:v>10</x:v>
@@ -3873,7 +3879,7 @@
     </x:row>
     <x:row r="104" spans="1:9">
       <x:c r="A104" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
         <x:v>10</x:v>
@@ -3902,10 +3908,10 @@
     </x:row>
     <x:row r="105" spans="1:9">
       <x:c r="A105" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C105" s="1" t="s">
         <x:v>14</x:v>
@@ -3931,10 +3937,10 @@
     </x:row>
     <x:row r="106" spans="1:9">
       <x:c r="A106" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C106" s="1" t="s">
         <x:v>16</x:v>
@@ -3960,7 +3966,7 @@
     </x:row>
     <x:row r="107" spans="1:9">
       <x:c r="A107" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
         <x:v>18</x:v>
@@ -3989,7 +3995,7 @@
     </x:row>
     <x:row r="108" spans="1:9">
       <x:c r="A108" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
         <x:v>18</x:v>
@@ -4018,7 +4024,7 @@
     </x:row>
     <x:row r="109" spans="1:9">
       <x:c r="A109" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
         <x:v>18</x:v>
@@ -4047,7 +4053,7 @@
     </x:row>
     <x:row r="110" spans="1:9">
       <x:c r="A110" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
         <x:v>19</x:v>
@@ -4076,7 +4082,7 @@
     </x:row>
     <x:row r="111" spans="1:9">
       <x:c r="A111" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
         <x:v>19</x:v>
@@ -4105,7 +4111,7 @@
     </x:row>
     <x:row r="112" spans="1:9">
       <x:c r="A112" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
         <x:v>19</x:v>
@@ -4134,7 +4140,7 @@
     </x:row>
     <x:row r="113" spans="1:9">
       <x:c r="A113" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
         <x:v>33</x:v>
@@ -4163,7 +4169,7 @@
     </x:row>
     <x:row r="114" spans="1:9">
       <x:c r="A114" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
         <x:v>33</x:v>
@@ -4192,7 +4198,7 @@
     </x:row>
     <x:row r="115" spans="1:9">
       <x:c r="A115" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
         <x:v>18</x:v>
@@ -4221,7 +4227,7 @@
     </x:row>
     <x:row r="116" spans="1:9">
       <x:c r="A116" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
         <x:v>18</x:v>
@@ -4250,7 +4256,7 @@
     </x:row>
     <x:row r="117" spans="1:9">
       <x:c r="A117" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
         <x:v>19</x:v>
@@ -4279,7 +4285,7 @@
     </x:row>
     <x:row r="118" spans="1:9">
       <x:c r="A118" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
         <x:v>19</x:v>
@@ -4308,7 +4314,7 @@
     </x:row>
     <x:row r="119" spans="1:9">
       <x:c r="A119" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
         <x:v>19</x:v>
@@ -4337,7 +4343,7 @@
     </x:row>
     <x:row r="120" spans="1:9">
       <x:c r="A120" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
         <x:v>10</x:v>
@@ -4366,7 +4372,7 @@
     </x:row>
     <x:row r="121" spans="1:9">
       <x:c r="A121" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
         <x:v>10</x:v>
@@ -4395,7 +4401,7 @@
     </x:row>
     <x:row r="122" spans="1:9">
       <x:c r="A122" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
         <x:v>10</x:v>
@@ -4424,7 +4430,7 @@
     </x:row>
     <x:row r="123" spans="1:9">
       <x:c r="A123" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
         <x:v>10</x:v>
@@ -4453,7 +4459,7 @@
     </x:row>
     <x:row r="124" spans="1:9">
       <x:c r="A124" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
         <x:v>10</x:v>
@@ -4482,7 +4488,7 @@
     </x:row>
     <x:row r="125" spans="1:9">
       <x:c r="A125" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
         <x:v>18</x:v>
@@ -4511,7 +4517,7 @@
     </x:row>
     <x:row r="126" spans="1:9">
       <x:c r="A126" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
         <x:v>18</x:v>
@@ -4540,7 +4546,7 @@
     </x:row>
     <x:row r="127" spans="1:9">
       <x:c r="A127" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
         <x:v>18</x:v>
@@ -4569,7 +4575,7 @@
     </x:row>
     <x:row r="128" spans="1:9">
       <x:c r="A128" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
         <x:v>19</x:v>
@@ -4598,7 +4604,7 @@
     </x:row>
     <x:row r="129" spans="1:9">
       <x:c r="A129" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
         <x:v>19</x:v>
@@ -4627,7 +4633,7 @@
     </x:row>
     <x:row r="130" spans="1:9">
       <x:c r="A130" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
         <x:v>19</x:v>
@@ -4656,7 +4662,7 @@
     </x:row>
     <x:row r="131" spans="1:9">
       <x:c r="A131" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
         <x:v>32</x:v>
@@ -4685,7 +4691,7 @@
     </x:row>
     <x:row r="132" spans="1:9">
       <x:c r="A132" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
         <x:v>32</x:v>
@@ -4714,7 +4720,7 @@
     </x:row>
     <x:row r="133" spans="1:9">
       <x:c r="A133" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
         <x:v>10</x:v>
@@ -4743,7 +4749,7 @@
     </x:row>
     <x:row r="134" spans="1:9">
       <x:c r="A134" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
         <x:v>10</x:v>
@@ -4772,7 +4778,7 @@
     </x:row>
     <x:row r="135" spans="1:9">
       <x:c r="A135" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
         <x:v>10</x:v>
@@ -4801,7 +4807,7 @@
     </x:row>
     <x:row r="136" spans="1:9">
       <x:c r="A136" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
         <x:v>18</x:v>
@@ -4830,7 +4836,7 @@
     </x:row>
     <x:row r="137" spans="1:9">
       <x:c r="A137" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
         <x:v>18</x:v>
@@ -4859,7 +4865,7 @@
     </x:row>
     <x:row r="138" spans="1:9">
       <x:c r="A138" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
         <x:v>19</x:v>
@@ -4888,7 +4894,7 @@
     </x:row>
     <x:row r="139" spans="1:9">
       <x:c r="A139" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
         <x:v>19</x:v>
@@ -4917,7 +4923,7 @@
     </x:row>
     <x:row r="140" spans="1:9">
       <x:c r="A140" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
         <x:v>19</x:v>
@@ -4946,7 +4952,7 @@
     </x:row>
     <x:row r="141" spans="1:9">
       <x:c r="A141" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
         <x:v>34</x:v>
@@ -4975,7 +4981,7 @@
     </x:row>
     <x:row r="142" spans="1:9">
       <x:c r="A142" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
         <x:v>34</x:v>
@@ -5004,7 +5010,7 @@
     </x:row>
     <x:row r="143" spans="1:9">
       <x:c r="A143" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
         <x:v>19</x:v>
@@ -5033,7 +5039,7 @@
     </x:row>
     <x:row r="144" spans="1:9">
       <x:c r="A144" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
         <x:v>19</x:v>
@@ -5062,7 +5068,7 @@
     </x:row>
     <x:row r="145" spans="1:9">
       <x:c r="A145" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
         <x:v>10</x:v>
@@ -5091,7 +5097,7 @@
     </x:row>
     <x:row r="146" spans="1:9">
       <x:c r="A146" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
         <x:v>10</x:v>
@@ -5120,7 +5126,7 @@
     </x:row>
     <x:row r="147" spans="1:9">
       <x:c r="A147" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
         <x:v>19</x:v>
@@ -5149,7 +5155,7 @@
     </x:row>
     <x:row r="148" spans="1:9">
       <x:c r="A148" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
         <x:v>19</x:v>
@@ -5178,7 +5184,7 @@
     </x:row>
     <x:row r="149" spans="1:9">
       <x:c r="A149" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
         <x:v>10</x:v>
@@ -5207,7 +5213,7 @@
     </x:row>
     <x:row r="150" spans="1:9">
       <x:c r="A150" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
         <x:v>10</x:v>
@@ -5236,7 +5242,7 @@
     </x:row>
     <x:row r="151" spans="1:9">
       <x:c r="A151" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
         <x:v>10</x:v>
@@ -5265,7 +5271,7 @@
     </x:row>
     <x:row r="152" spans="1:9">
       <x:c r="A152" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
         <x:v>18</x:v>
@@ -5294,7 +5300,7 @@
     </x:row>
     <x:row r="153" spans="1:9">
       <x:c r="A153" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
         <x:v>18</x:v>
@@ -5323,7 +5329,7 @@
     </x:row>
     <x:row r="154" spans="1:9">
       <x:c r="A154" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
         <x:v>18</x:v>
@@ -5352,7 +5358,7 @@
     </x:row>
     <x:row r="155" spans="1:9">
       <x:c r="A155" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
         <x:v>19</x:v>
@@ -5381,7 +5387,7 @@
     </x:row>
     <x:row r="156" spans="1:9">
       <x:c r="A156" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
         <x:v>19</x:v>
@@ -5410,7 +5416,7 @@
     </x:row>
     <x:row r="157" spans="1:9">
       <x:c r="A157" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
         <x:v>19</x:v>
@@ -5439,7 +5445,7 @@
     </x:row>
     <x:row r="158" spans="1:9">
       <x:c r="A158" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
         <x:v>33</x:v>
@@ -5468,7 +5474,7 @@
     </x:row>
     <x:row r="159" spans="1:9">
       <x:c r="A159" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
         <x:v>33</x:v>
@@ -5497,7 +5503,7 @@
     </x:row>
     <x:row r="160" spans="1:9">
       <x:c r="A160" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
         <x:v>33</x:v>
@@ -5526,7 +5532,7 @@
     </x:row>
     <x:row r="161" spans="1:9">
       <x:c r="A161" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
         <x:v>34</x:v>
@@ -5555,7 +5561,7 @@
     </x:row>
     <x:row r="162" spans="1:9">
       <x:c r="A162" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
         <x:v>34</x:v>
@@ -5584,7 +5590,7 @@
     </x:row>
     <x:row r="163" spans="1:9">
       <x:c r="A163" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
         <x:v>34</x:v>
@@ -5613,7 +5619,7 @@
     </x:row>
     <x:row r="164" spans="1:9">
       <x:c r="A164" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
         <x:v>10</x:v>
@@ -5642,7 +5648,7 @@
     </x:row>
     <x:row r="165" spans="1:9">
       <x:c r="A165" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
         <x:v>10</x:v>
@@ -5671,7 +5677,7 @@
     </x:row>
     <x:row r="166" spans="1:9">
       <x:c r="A166" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
         <x:v>10</x:v>
@@ -5700,7 +5706,7 @@
     </x:row>
     <x:row r="167" spans="1:9">
       <x:c r="A167" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
         <x:v>18</x:v>
@@ -5729,7 +5735,7 @@
     </x:row>
     <x:row r="168" spans="1:9">
       <x:c r="A168" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
         <x:v>18</x:v>
@@ -5758,7 +5764,7 @@
     </x:row>
     <x:row r="169" spans="1:9">
       <x:c r="A169" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
         <x:v>18</x:v>
@@ -5787,7 +5793,7 @@
     </x:row>
     <x:row r="170" spans="1:9">
       <x:c r="A170" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
         <x:v>19</x:v>
@@ -5816,7 +5822,7 @@
     </x:row>
     <x:row r="171" spans="1:9">
       <x:c r="A171" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
         <x:v>19</x:v>
@@ -5837,7 +5843,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H171" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I171" s="0" t="s">
         <x:v>13</x:v>
@@ -5845,7 +5851,7 @@
     </x:row>
     <x:row r="172" spans="1:9">
       <x:c r="A172" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
         <x:v>19</x:v>
@@ -5866,7 +5872,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H172" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I172" s="0" t="s">
         <x:v>13</x:v>
@@ -5874,7 +5880,7 @@
     </x:row>
     <x:row r="173" spans="1:9">
       <x:c r="A173" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
         <x:v>33</x:v>
@@ -5903,7 +5909,7 @@
     </x:row>
     <x:row r="174" spans="1:9">
       <x:c r="A174" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
         <x:v>33</x:v>
@@ -5932,7 +5938,7 @@
     </x:row>
     <x:row r="175" spans="1:9">
       <x:c r="A175" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
         <x:v>33</x:v>
@@ -5961,7 +5967,7 @@
     </x:row>
     <x:row r="176" spans="1:9">
       <x:c r="A176" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
         <x:v>34</x:v>
@@ -5990,7 +5996,7 @@
     </x:row>
     <x:row r="177" spans="1:9">
       <x:c r="A177" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
         <x:v>34</x:v>
@@ -6019,7 +6025,7 @@
     </x:row>
     <x:row r="178" spans="1:9">
       <x:c r="A178" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
         <x:v>34</x:v>
@@ -6048,7 +6054,7 @@
     </x:row>
     <x:row r="179" spans="1:9">
       <x:c r="A179" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
         <x:v>10</x:v>
@@ -6077,7 +6083,7 @@
     </x:row>
     <x:row r="180" spans="1:9">
       <x:c r="A180" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
         <x:v>10</x:v>
@@ -6106,7 +6112,7 @@
     </x:row>
     <x:row r="181" spans="1:9">
       <x:c r="A181" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
         <x:v>18</x:v>
@@ -6135,7 +6141,7 @@
     </x:row>
     <x:row r="182" spans="1:9">
       <x:c r="A182" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
         <x:v>18</x:v>
@@ -6164,7 +6170,7 @@
     </x:row>
     <x:row r="183" spans="1:9">
       <x:c r="A183" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
         <x:v>19</x:v>
@@ -6193,7 +6199,7 @@
     </x:row>
     <x:row r="184" spans="1:9">
       <x:c r="A184" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
         <x:v>19</x:v>
@@ -6222,7 +6228,7 @@
     </x:row>
     <x:row r="185" spans="1:9">
       <x:c r="A185" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
         <x:v>32</x:v>
@@ -6251,7 +6257,7 @@
     </x:row>
     <x:row r="186" spans="1:9">
       <x:c r="A186" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
         <x:v>32</x:v>
@@ -6280,7 +6286,7 @@
     </x:row>
     <x:row r="187" spans="1:9">
       <x:c r="A187" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
         <x:v>10</x:v>
@@ -6309,7 +6315,7 @@
     </x:row>
     <x:row r="188" spans="1:9">
       <x:c r="A188" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
         <x:v>10</x:v>
@@ -6338,7 +6344,7 @@
     </x:row>
     <x:row r="189" spans="1:9">
       <x:c r="A189" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
         <x:v>10</x:v>
@@ -6367,7 +6373,7 @@
     </x:row>
     <x:row r="190" spans="1:9">
       <x:c r="A190" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
         <x:v>19</x:v>
@@ -6396,7 +6402,7 @@
     </x:row>
     <x:row r="191" spans="1:9">
       <x:c r="A191" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
         <x:v>19</x:v>
@@ -6425,7 +6431,7 @@
     </x:row>
     <x:row r="192" spans="1:9">
       <x:c r="A192" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
         <x:v>10</x:v>
@@ -6454,7 +6460,7 @@
     </x:row>
     <x:row r="193" spans="1:9">
       <x:c r="A193" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
         <x:v>10</x:v>
@@ -6483,7 +6489,7 @@
     </x:row>
     <x:row r="194" spans="1:9">
       <x:c r="A194" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
         <x:v>19</x:v>
@@ -6512,7 +6518,7 @@
     </x:row>
     <x:row r="195" spans="1:9">
       <x:c r="A195" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
         <x:v>19</x:v>
@@ -6541,7 +6547,7 @@
     </x:row>
     <x:row r="196" spans="1:9">
       <x:c r="A196" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
         <x:v>10</x:v>
@@ -6570,7 +6576,7 @@
     </x:row>
     <x:row r="197" spans="1:9">
       <x:c r="A197" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
         <x:v>10</x:v>
@@ -6599,7 +6605,7 @@
     </x:row>
     <x:row r="198" spans="1:9">
       <x:c r="A198" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
         <x:v>10</x:v>
@@ -6628,7 +6634,7 @@
     </x:row>
     <x:row r="199" spans="1:9">
       <x:c r="A199" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
         <x:v>18</x:v>
@@ -6657,7 +6663,7 @@
     </x:row>
     <x:row r="200" spans="1:9">
       <x:c r="A200" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
         <x:v>18</x:v>
@@ -6686,7 +6692,7 @@
     </x:row>
     <x:row r="201" spans="1:9">
       <x:c r="A201" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
         <x:v>19</x:v>
@@ -6715,7 +6721,7 @@
     </x:row>
     <x:row r="202" spans="1:9">
       <x:c r="A202" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
         <x:v>19</x:v>
@@ -6744,7 +6750,7 @@
     </x:row>
     <x:row r="203" spans="1:9">
       <x:c r="A203" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
         <x:v>33</x:v>
@@ -6773,7 +6779,7 @@
     </x:row>
     <x:row r="204" spans="1:9">
       <x:c r="A204" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
         <x:v>33</x:v>
@@ -6802,7 +6808,7 @@
     </x:row>
     <x:row r="205" spans="1:9">
       <x:c r="A205" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
         <x:v>34</x:v>
@@ -6831,7 +6837,7 @@
     </x:row>
     <x:row r="206" spans="1:9">
       <x:c r="A206" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
         <x:v>34</x:v>
@@ -6860,7 +6866,7 @@
     </x:row>
     <x:row r="207" spans="1:9">
       <x:c r="A207" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
         <x:v>34</x:v>
@@ -6889,7 +6895,7 @@
     </x:row>
     <x:row r="208" spans="1:9">
       <x:c r="A208" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
         <x:v>10</x:v>
@@ -6918,7 +6924,7 @@
     </x:row>
     <x:row r="209" spans="1:9">
       <x:c r="A209" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
         <x:v>10</x:v>
@@ -6947,10 +6953,10 @@
     </x:row>
     <x:row r="210" spans="1:9">
       <x:c r="A210" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C210" s="1" t="s">
         <x:v>14</x:v>
@@ -6976,10 +6982,10 @@
     </x:row>
     <x:row r="211" spans="1:9">
       <x:c r="A211" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C211" s="1" t="s">
         <x:v>16</x:v>
@@ -7005,7 +7011,7 @@
     </x:row>
     <x:row r="212" spans="1:9">
       <x:c r="A212" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
         <x:v>18</x:v>
@@ -7034,7 +7040,7 @@
     </x:row>
     <x:row r="213" spans="1:9">
       <x:c r="A213" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
         <x:v>18</x:v>
@@ -7063,7 +7069,7 @@
     </x:row>
     <x:row r="214" spans="1:9">
       <x:c r="A214" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
         <x:v>18</x:v>
@@ -7092,7 +7098,7 @@
     </x:row>
     <x:row r="215" spans="1:9">
       <x:c r="A215" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
         <x:v>19</x:v>
@@ -7121,7 +7127,7 @@
     </x:row>
     <x:row r="216" spans="1:9">
       <x:c r="A216" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
         <x:v>19</x:v>
@@ -7142,7 +7148,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H216" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I216" s="0" t="s">
         <x:v>13</x:v>
@@ -7150,7 +7156,7 @@
     </x:row>
     <x:row r="217" spans="1:9">
       <x:c r="A217" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
         <x:v>19</x:v>
@@ -7171,7 +7177,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="H217" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I217" s="0" t="s">
         <x:v>13</x:v>
@@ -7179,7 +7185,7 @@
     </x:row>
     <x:row r="218" spans="1:9">
       <x:c r="A218" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
         <x:v>32</x:v>
@@ -7208,7 +7214,7 @@
     </x:row>
     <x:row r="219" spans="1:9">
       <x:c r="A219" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
         <x:v>32</x:v>
@@ -7237,7 +7243,7 @@
     </x:row>
     <x:row r="220" spans="1:9">
       <x:c r="A220" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
         <x:v>33</x:v>
@@ -7266,7 +7272,7 @@
     </x:row>
     <x:row r="221" spans="1:9">
       <x:c r="A221" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
         <x:v>33</x:v>
@@ -7295,7 +7301,7 @@
     </x:row>
     <x:row r="222" spans="1:9">
       <x:c r="A222" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
         <x:v>33</x:v>
@@ -7324,7 +7330,7 @@
     </x:row>
     <x:row r="223" spans="1:9">
       <x:c r="A223" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
         <x:v>34</x:v>
@@ -7353,7 +7359,7 @@
     </x:row>
     <x:row r="224" spans="1:9">
       <x:c r="A224" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
         <x:v>34</x:v>
@@ -7382,7 +7388,7 @@
     </x:row>
     <x:row r="225" spans="1:9">
       <x:c r="A225" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
         <x:v>34</x:v>
@@ -7411,7 +7417,7 @@
     </x:row>
     <x:row r="226" spans="1:9">
       <x:c r="A226" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
         <x:v>10</x:v>
@@ -7440,7 +7446,7 @@
     </x:row>
     <x:row r="227" spans="1:9">
       <x:c r="A227" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
         <x:v>10</x:v>
@@ -7469,7 +7475,7 @@
     </x:row>
     <x:row r="228" spans="1:9">
       <x:c r="A228" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
         <x:v>10</x:v>
@@ -7481,13 +7487,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E228" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F228" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G228" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H228" s="1" t="s">
         <x:v>31</x:v>
@@ -7498,7 +7504,7 @@
     </x:row>
     <x:row r="229" spans="1:9">
       <x:c r="A229" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
         <x:v>10</x:v>
@@ -7510,16 +7516,16 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E229" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F229" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G229" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H229" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I229" s="0" t="s">
         <x:v>13</x:v>
@@ -7527,7 +7533,7 @@
     </x:row>
     <x:row r="230" spans="1:9">
       <x:c r="A230" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
         <x:v>10</x:v>
@@ -7536,19 +7542,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D230" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E230" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F230" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G230" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H230" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I230" s="0" t="s">
         <x:v>13</x:v>
@@ -7556,10 +7562,10 @@
     </x:row>
     <x:row r="231" spans="1:9">
       <x:c r="A231" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C231" s="1" t="s">
         <x:v>11</x:v>
@@ -7585,10 +7591,10 @@
     </x:row>
     <x:row r="232" spans="1:9">
       <x:c r="A232" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C232" s="1" t="s">
         <x:v>14</x:v>
@@ -7614,10 +7620,10 @@
     </x:row>
     <x:row r="233" spans="1:9">
       <x:c r="A233" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C233" s="1" t="s">
         <x:v>16</x:v>
@@ -7643,7 +7649,7 @@
     </x:row>
     <x:row r="234" spans="1:9">
       <x:c r="A234" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
         <x:v>18</x:v>
@@ -7672,7 +7678,7 @@
     </x:row>
     <x:row r="235" spans="1:9">
       <x:c r="A235" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
         <x:v>18</x:v>
@@ -7701,7 +7707,7 @@
     </x:row>
     <x:row r="236" spans="1:9">
       <x:c r="A236" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
         <x:v>18</x:v>
@@ -7730,7 +7736,7 @@
     </x:row>
     <x:row r="237" spans="1:9">
       <x:c r="A237" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
         <x:v>19</x:v>
@@ -7759,7 +7765,7 @@
     </x:row>
     <x:row r="238" spans="1:9">
       <x:c r="A238" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
         <x:v>19</x:v>
@@ -7771,16 +7777,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E238" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F238" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G238" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H238" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I238" s="0" t="s">
         <x:v>13</x:v>
@@ -7788,7 +7794,7 @@
     </x:row>
     <x:row r="239" spans="1:9">
       <x:c r="A239" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
         <x:v>19</x:v>
@@ -7800,16 +7806,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E239" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F239" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G239" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H239" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I239" s="0" t="s">
         <x:v>13</x:v>
@@ -7817,7 +7823,7 @@
     </x:row>
     <x:row r="240" spans="1:9">
       <x:c r="A240" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
         <x:v>32</x:v>
@@ -7846,7 +7852,7 @@
     </x:row>
     <x:row r="241" spans="1:9">
       <x:c r="A241" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
         <x:v>32</x:v>
@@ -7875,7 +7881,7 @@
     </x:row>
     <x:row r="242" spans="1:9">
       <x:c r="A242" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
         <x:v>32</x:v>
@@ -7904,7 +7910,7 @@
     </x:row>
     <x:row r="243" spans="1:9">
       <x:c r="A243" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
         <x:v>33</x:v>
@@ -7933,7 +7939,7 @@
     </x:row>
     <x:row r="244" spans="1:9">
       <x:c r="A244" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
         <x:v>33</x:v>
@@ -7962,7 +7968,7 @@
     </x:row>
     <x:row r="245" spans="1:9">
       <x:c r="A245" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
         <x:v>33</x:v>
@@ -7991,7 +7997,7 @@
     </x:row>
     <x:row r="246" spans="1:9">
       <x:c r="A246" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
         <x:v>34</x:v>
@@ -8006,7 +8012,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F246" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G246" s="1" t="s">
         <x:v>25</x:v>
@@ -8020,7 +8026,7 @@
     </x:row>
     <x:row r="247" spans="1:9">
       <x:c r="A247" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
         <x:v>34</x:v>
@@ -8032,16 +8038,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E247" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F247" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G247" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H247" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I247" s="0" t="s">
         <x:v>13</x:v>
@@ -8049,7 +8055,7 @@
     </x:row>
     <x:row r="248" spans="1:9">
       <x:c r="A248" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
         <x:v>34</x:v>
@@ -8061,16 +8067,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E248" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F248" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G248" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H248" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I248" s="0" t="s">
         <x:v>13</x:v>
@@ -8078,7 +8084,7 @@
     </x:row>
     <x:row r="249" spans="1:9">
       <x:c r="A249" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
         <x:v>10</x:v>
@@ -8107,7 +8113,7 @@
     </x:row>
     <x:row r="250" spans="1:9">
       <x:c r="A250" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
         <x:v>10</x:v>
@@ -8136,7 +8142,7 @@
     </x:row>
     <x:row r="251" spans="1:9">
       <x:c r="A251" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
         <x:v>10</x:v>
@@ -8165,7 +8171,7 @@
     </x:row>
     <x:row r="252" spans="1:9">
       <x:c r="A252" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
         <x:v>18</x:v>
@@ -8194,7 +8200,7 @@
     </x:row>
     <x:row r="253" spans="1:9">
       <x:c r="A253" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
         <x:v>18</x:v>
@@ -8223,7 +8229,7 @@
     </x:row>
     <x:row r="254" spans="1:9">
       <x:c r="A254" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
         <x:v>18</x:v>
@@ -8252,7 +8258,7 @@
     </x:row>
     <x:row r="255" spans="1:9">
       <x:c r="A255" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
         <x:v>19</x:v>
@@ -8281,7 +8287,7 @@
     </x:row>
     <x:row r="256" spans="1:9">
       <x:c r="A256" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
         <x:v>19</x:v>
@@ -8310,7 +8316,7 @@
     </x:row>
     <x:row r="257" spans="1:9">
       <x:c r="A257" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
         <x:v>10</x:v>
@@ -8339,7 +8345,7 @@
     </x:row>
     <x:row r="258" spans="1:9">
       <x:c r="A258" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
         <x:v>10</x:v>
@@ -8368,7 +8374,7 @@
     </x:row>
     <x:row r="259" spans="1:9">
       <x:c r="A259" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
         <x:v>10</x:v>
@@ -8397,7 +8403,7 @@
     </x:row>
     <x:row r="260" spans="1:9">
       <x:c r="A260" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
         <x:v>18</x:v>
@@ -8426,7 +8432,7 @@
     </x:row>
     <x:row r="261" spans="1:9">
       <x:c r="A261" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
         <x:v>18</x:v>
@@ -8455,7 +8461,7 @@
     </x:row>
     <x:row r="262" spans="1:9">
       <x:c r="A262" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
         <x:v>18</x:v>
@@ -8484,7 +8490,7 @@
     </x:row>
     <x:row r="263" spans="1:9">
       <x:c r="A263" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
         <x:v>19</x:v>
@@ -8513,7 +8519,7 @@
     </x:row>
     <x:row r="264" spans="1:9">
       <x:c r="A264" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
         <x:v>19</x:v>
@@ -8542,7 +8548,7 @@
     </x:row>
     <x:row r="265" spans="1:9">
       <x:c r="A265" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
         <x:v>19</x:v>
@@ -8571,7 +8577,7 @@
     </x:row>
     <x:row r="266" spans="1:9">
       <x:c r="A266" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
         <x:v>33</x:v>
@@ -8600,7 +8606,7 @@
     </x:row>
     <x:row r="267" spans="1:9">
       <x:c r="A267" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
         <x:v>33</x:v>
@@ -8629,7 +8635,7 @@
     </x:row>
     <x:row r="268" spans="1:9">
       <x:c r="A268" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
         <x:v>33</x:v>
@@ -8658,7 +8664,7 @@
     </x:row>
     <x:row r="269" spans="1:9">
       <x:c r="A269" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
         <x:v>34</x:v>
@@ -8687,7 +8693,7 @@
     </x:row>
     <x:row r="270" spans="1:9">
       <x:c r="A270" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
         <x:v>34</x:v>
@@ -8716,7 +8722,7 @@
     </x:row>
     <x:row r="271" spans="1:9">
       <x:c r="A271" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
         <x:v>10</x:v>
@@ -8745,7 +8751,7 @@
     </x:row>
     <x:row r="272" spans="1:9">
       <x:c r="A272" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
         <x:v>10</x:v>
@@ -8774,7 +8780,7 @@
     </x:row>
     <x:row r="273" spans="1:9">
       <x:c r="A273" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
         <x:v>18</x:v>
@@ -8803,7 +8809,7 @@
     </x:row>
     <x:row r="274" spans="1:9">
       <x:c r="A274" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
         <x:v>18</x:v>
@@ -8832,7 +8838,7 @@
     </x:row>
     <x:row r="275" spans="1:9">
       <x:c r="A275" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
         <x:v>19</x:v>
@@ -8861,7 +8867,7 @@
     </x:row>
     <x:row r="276" spans="1:9">
       <x:c r="A276" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
         <x:v>19</x:v>
@@ -8890,7 +8896,7 @@
     </x:row>
     <x:row r="277" spans="1:9">
       <x:c r="A277" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
         <x:v>19</x:v>
@@ -8919,7 +8925,7 @@
     </x:row>
     <x:row r="278" spans="1:9">
       <x:c r="A278" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
         <x:v>34</x:v>
@@ -8948,7 +8954,7 @@
     </x:row>
     <x:row r="279" spans="1:9">
       <x:c r="A279" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B279" s="0" t="s">
         <x:v>34</x:v>
@@ -8977,7 +8983,7 @@
     </x:row>
     <x:row r="280" spans="1:9">
       <x:c r="A280" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B280" s="0" t="s">
         <x:v>10</x:v>
@@ -9006,7 +9012,7 @@
     </x:row>
     <x:row r="281" spans="1:9">
       <x:c r="A281" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B281" s="0" t="s">
         <x:v>10</x:v>
@@ -9035,7 +9041,7 @@
     </x:row>
     <x:row r="282" spans="1:9">
       <x:c r="A282" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B282" s="0" t="s">
         <x:v>10</x:v>
@@ -9064,7 +9070,7 @@
     </x:row>
     <x:row r="283" spans="1:9">
       <x:c r="A283" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B283" s="0" t="s">
         <x:v>19</x:v>
@@ -9093,7 +9099,7 @@
     </x:row>
     <x:row r="284" spans="1:9">
       <x:c r="A284" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B284" s="0" t="s">
         <x:v>19</x:v>
@@ -9122,7 +9128,7 @@
     </x:row>
     <x:row r="285" spans="1:9">
       <x:c r="A285" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B285" s="0" t="s">
         <x:v>19</x:v>
@@ -9151,7 +9157,7 @@
     </x:row>
     <x:row r="286" spans="1:9">
       <x:c r="A286" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B286" s="0" t="s">
         <x:v>32</x:v>
@@ -9180,7 +9186,7 @@
     </x:row>
     <x:row r="287" spans="1:9">
       <x:c r="A287" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B287" s="0" t="s">
         <x:v>32</x:v>
@@ -9209,7 +9215,7 @@
     </x:row>
     <x:row r="288" spans="1:9">
       <x:c r="A288" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B288" s="0" t="s">
         <x:v>34</x:v>
@@ -9238,7 +9244,7 @@
     </x:row>
     <x:row r="289" spans="1:9">
       <x:c r="A289" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B289" s="0" t="s">
         <x:v>34</x:v>
@@ -9267,7 +9273,7 @@
     </x:row>
     <x:row r="290" spans="1:9">
       <x:c r="A290" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B290" s="0" t="s">
         <x:v>10</x:v>
@@ -9296,7 +9302,7 @@
     </x:row>
     <x:row r="291" spans="1:9">
       <x:c r="A291" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B291" s="0" t="s">
         <x:v>10</x:v>
@@ -9325,7 +9331,7 @@
     </x:row>
     <x:row r="292" spans="1:9">
       <x:c r="A292" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B292" s="0" t="s">
         <x:v>19</x:v>
@@ -9354,7 +9360,7 @@
     </x:row>
     <x:row r="293" spans="1:9">
       <x:c r="A293" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B293" s="0" t="s">
         <x:v>19</x:v>
@@ -9383,7 +9389,7 @@
     </x:row>
     <x:row r="294" spans="1:9">
       <x:c r="A294" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B294" s="0" t="s">
         <x:v>10</x:v>
@@ -9412,7 +9418,7 @@
     </x:row>
     <x:row r="295" spans="1:9">
       <x:c r="A295" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B295" s="0" t="s">
         <x:v>10</x:v>
@@ -9441,7 +9447,7 @@
     </x:row>
     <x:row r="296" spans="1:9">
       <x:c r="A296" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B296" s="0" t="s">
         <x:v>10</x:v>
@@ -9470,7 +9476,7 @@
     </x:row>
     <x:row r="297" spans="1:9">
       <x:c r="A297" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B297" s="0" t="s">
         <x:v>19</x:v>
@@ -9499,7 +9505,7 @@
     </x:row>
     <x:row r="298" spans="1:9">
       <x:c r="A298" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B298" s="0" t="s">
         <x:v>19</x:v>
@@ -9528,7 +9534,7 @@
     </x:row>
     <x:row r="299" spans="1:9">
       <x:c r="A299" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B299" s="0" t="s">
         <x:v>19</x:v>
@@ -9557,7 +9563,7 @@
     </x:row>
     <x:row r="300" spans="1:9">
       <x:c r="A300" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B300" s="0" t="s">
         <x:v>10</x:v>
@@ -9586,7 +9592,7 @@
     </x:row>
     <x:row r="301" spans="1:9">
       <x:c r="A301" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B301" s="0" t="s">
         <x:v>10</x:v>
@@ -9615,7 +9621,7 @@
     </x:row>
     <x:row r="302" spans="1:9">
       <x:c r="A302" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B302" s="0" t="s">
         <x:v>10</x:v>
@@ -9644,7 +9650,7 @@
     </x:row>
     <x:row r="303" spans="1:9">
       <x:c r="A303" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B303" s="0" t="s">
         <x:v>18</x:v>
@@ -9673,7 +9679,7 @@
     </x:row>
     <x:row r="304" spans="1:9">
       <x:c r="A304" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B304" s="0" t="s">
         <x:v>18</x:v>
@@ -9702,7 +9708,7 @@
     </x:row>
     <x:row r="305" spans="1:9">
       <x:c r="A305" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B305" s="0" t="s">
         <x:v>19</x:v>
@@ -9731,7 +9737,7 @@
     </x:row>
     <x:row r="306" spans="1:9">
       <x:c r="A306" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B306" s="0" t="s">
         <x:v>19</x:v>
@@ -9760,7 +9766,7 @@
     </x:row>
     <x:row r="307" spans="1:9">
       <x:c r="A307" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B307" s="0" t="s">
         <x:v>19</x:v>
@@ -9789,7 +9795,7 @@
     </x:row>
     <x:row r="308" spans="1:9">
       <x:c r="A308" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B308" s="0" t="s">
         <x:v>33</x:v>
@@ -9818,7 +9824,7 @@
     </x:row>
     <x:row r="309" spans="1:9">
       <x:c r="A309" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B309" s="0" t="s">
         <x:v>33</x:v>
@@ -9847,7 +9853,7 @@
     </x:row>
     <x:row r="310" spans="1:9">
       <x:c r="A310" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B310" s="0" t="s">
         <x:v>34</x:v>
@@ -9876,7 +9882,7 @@
     </x:row>
     <x:row r="311" spans="1:9">
       <x:c r="A311" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B311" s="0" t="s">
         <x:v>34</x:v>
@@ -9905,7 +9911,7 @@
     </x:row>
     <x:row r="312" spans="1:9">
       <x:c r="A312" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B312" s="0" t="s">
         <x:v>19</x:v>
@@ -9934,7 +9940,7 @@
     </x:row>
     <x:row r="313" spans="1:9">
       <x:c r="A313" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B313" s="0" t="s">
         <x:v>19</x:v>
@@ -9963,7 +9969,7 @@
     </x:row>
     <x:row r="314" spans="1:9">
       <x:c r="A314" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B314" s="0" t="s">
         <x:v>10</x:v>
@@ -9992,7 +9998,7 @@
     </x:row>
     <x:row r="315" spans="1:9">
       <x:c r="A315" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B315" s="0" t="s">
         <x:v>10</x:v>
@@ -10021,7 +10027,7 @@
     </x:row>
     <x:row r="316" spans="1:9">
       <x:c r="A316" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B316" s="0" t="s">
         <x:v>19</x:v>
@@ -10050,7 +10056,7 @@
     </x:row>
     <x:row r="317" spans="1:9">
       <x:c r="A317" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B317" s="0" t="s">
         <x:v>19</x:v>
@@ -10079,7 +10085,7 @@
     </x:row>
     <x:row r="318" spans="1:9">
       <x:c r="A318" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B318" s="0" t="s">
         <x:v>10</x:v>
@@ -10108,7 +10114,7 @@
     </x:row>
     <x:row r="319" spans="1:9">
       <x:c r="A319" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B319" s="0" t="s">
         <x:v>10</x:v>
@@ -10137,7 +10143,7 @@
     </x:row>
     <x:row r="320" spans="1:9">
       <x:c r="A320" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B320" s="0" t="s">
         <x:v>10</x:v>
@@ -10166,7 +10172,7 @@
     </x:row>
     <x:row r="321" spans="1:9">
       <x:c r="A321" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B321" s="0" t="s">
         <x:v>10</x:v>
@@ -10195,7 +10201,7 @@
     </x:row>
     <x:row r="322" spans="1:9">
       <x:c r="A322" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B322" s="0" t="s">
         <x:v>10</x:v>
@@ -10224,7 +10230,7 @@
     </x:row>
     <x:row r="323" spans="1:9">
       <x:c r="A323" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B323" s="0" t="s">
         <x:v>19</x:v>
@@ -10253,7 +10259,7 @@
     </x:row>
     <x:row r="324" spans="1:9">
       <x:c r="A324" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B324" s="0" t="s">
         <x:v>19</x:v>
@@ -10282,7 +10288,7 @@
     </x:row>
     <x:row r="325" spans="1:9">
       <x:c r="A325" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B325" s="0" t="s">
         <x:v>10</x:v>
@@ -10311,7 +10317,7 @@
     </x:row>
     <x:row r="326" spans="1:9">
       <x:c r="A326" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B326" s="0" t="s">
         <x:v>10</x:v>
@@ -10340,7 +10346,7 @@
     </x:row>
     <x:row r="327" spans="1:9">
       <x:c r="A327" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B327" s="0" t="s">
         <x:v>18</x:v>
@@ -10369,7 +10375,7 @@
     </x:row>
     <x:row r="328" spans="1:9">
       <x:c r="A328" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B328" s="0" t="s">
         <x:v>18</x:v>
@@ -10398,7 +10404,7 @@
     </x:row>
     <x:row r="329" spans="1:9">
       <x:c r="A329" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B329" s="0" t="s">
         <x:v>18</x:v>
@@ -10427,7 +10433,7 @@
     </x:row>
     <x:row r="330" spans="1:9">
       <x:c r="A330" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B330" s="0" t="s">
         <x:v>19</x:v>
@@ -10456,7 +10462,7 @@
     </x:row>
     <x:row r="331" spans="1:9">
       <x:c r="A331" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B331" s="0" t="s">
         <x:v>19</x:v>
@@ -10485,7 +10491,7 @@
     </x:row>
     <x:row r="332" spans="1:9">
       <x:c r="A332" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B332" s="0" t="s">
         <x:v>33</x:v>
@@ -10514,7 +10520,7 @@
     </x:row>
     <x:row r="333" spans="1:9">
       <x:c r="A333" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B333" s="0" t="s">
         <x:v>33</x:v>
@@ -10543,7 +10549,7 @@
     </x:row>
     <x:row r="334" spans="1:9">
       <x:c r="A334" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B334" s="0" t="s">
         <x:v>10</x:v>
@@ -10572,7 +10578,7 @@
     </x:row>
     <x:row r="335" spans="1:9">
       <x:c r="A335" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B335" s="0" t="s">
         <x:v>10</x:v>
@@ -10601,7 +10607,7 @@
     </x:row>
     <x:row r="336" spans="1:9">
       <x:c r="A336" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B336" s="0" t="s">
         <x:v>18</x:v>
@@ -10630,7 +10636,7 @@
     </x:row>
     <x:row r="337" spans="1:9">
       <x:c r="A337" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B337" s="0" t="s">
         <x:v>18</x:v>
@@ -10659,7 +10665,7 @@
     </x:row>
     <x:row r="338" spans="1:9">
       <x:c r="A338" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B338" s="0" t="s">
         <x:v>19</x:v>
@@ -10688,7 +10694,7 @@
     </x:row>
     <x:row r="339" spans="1:9">
       <x:c r="A339" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B339" s="0" t="s">
         <x:v>19</x:v>
@@ -10717,7 +10723,7 @@
     </x:row>
     <x:row r="340" spans="1:9">
       <x:c r="A340" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B340" s="0" t="s">
         <x:v>19</x:v>
@@ -10746,7 +10752,7 @@
     </x:row>
     <x:row r="341" spans="1:9">
       <x:c r="A341" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B341" s="0" t="s">
         <x:v>33</x:v>
@@ -10775,7 +10781,7 @@
     </x:row>
     <x:row r="342" spans="1:9">
       <x:c r="A342" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B342" s="0" t="s">
         <x:v>33</x:v>
@@ -10804,7 +10810,7 @@
     </x:row>
     <x:row r="343" spans="1:9">
       <x:c r="A343" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B343" s="0" t="s">
         <x:v>10</x:v>
@@ -10833,7 +10839,7 @@
     </x:row>
     <x:row r="344" spans="1:9">
       <x:c r="A344" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B344" s="0" t="s">
         <x:v>10</x:v>
@@ -10862,7 +10868,7 @@
     </x:row>
     <x:row r="345" spans="1:9">
       <x:c r="A345" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B345" s="0" t="s">
         <x:v>10</x:v>
@@ -10891,7 +10897,7 @@
     </x:row>
     <x:row r="346" spans="1:9">
       <x:c r="A346" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B346" s="0" t="s">
         <x:v>10</x:v>
@@ -10920,7 +10926,7 @@
     </x:row>
     <x:row r="347" spans="1:9">
       <x:c r="A347" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B347" s="0" t="s">
         <x:v>10</x:v>
@@ -10949,7 +10955,7 @@
     </x:row>
     <x:row r="348" spans="1:9">
       <x:c r="A348" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B348" s="0" t="s">
         <x:v>18</x:v>
@@ -10978,7 +10984,7 @@
     </x:row>
     <x:row r="349" spans="1:9">
       <x:c r="A349" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B349" s="0" t="s">
         <x:v>18</x:v>
@@ -11007,7 +11013,7 @@
     </x:row>
     <x:row r="350" spans="1:9">
       <x:c r="A350" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B350" s="0" t="s">
         <x:v>19</x:v>
@@ -11036,7 +11042,7 @@
     </x:row>
     <x:row r="351" spans="1:9">
       <x:c r="A351" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B351" s="0" t="s">
         <x:v>19</x:v>
@@ -11065,7 +11071,7 @@
     </x:row>
     <x:row r="352" spans="1:9">
       <x:c r="A352" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B352" s="0" t="s">
         <x:v>33</x:v>
@@ -11094,7 +11100,7 @@
     </x:row>
     <x:row r="353" spans="1:9">
       <x:c r="A353" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B353" s="0" t="s">
         <x:v>33</x:v>
@@ -11123,7 +11129,7 @@
     </x:row>
     <x:row r="354" spans="1:9">
       <x:c r="A354" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B354" s="0" t="s">
         <x:v>34</x:v>
@@ -11152,7 +11158,7 @@
     </x:row>
     <x:row r="355" spans="1:9">
       <x:c r="A355" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B355" s="0" t="s">
         <x:v>34</x:v>
@@ -11181,7 +11187,7 @@
     </x:row>
     <x:row r="356" spans="1:9">
       <x:c r="A356" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B356" s="0" t="s">
         <x:v>10</x:v>
@@ -11210,7 +11216,7 @@
     </x:row>
     <x:row r="357" spans="1:9">
       <x:c r="A357" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B357" s="0" t="s">
         <x:v>10</x:v>
@@ -11239,7 +11245,7 @@
     </x:row>
     <x:row r="358" spans="1:9">
       <x:c r="A358" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B358" s="0" t="s">
         <x:v>10</x:v>
@@ -11257,7 +11263,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G358" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H358" s="1" t="s">
         <x:v>20</x:v>
@@ -11268,7 +11274,7 @@
     </x:row>
     <x:row r="359" spans="1:9">
       <x:c r="A359" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B359" s="0" t="s">
         <x:v>18</x:v>
@@ -11297,7 +11303,7 @@
     </x:row>
     <x:row r="360" spans="1:9">
       <x:c r="A360" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B360" s="0" t="s">
         <x:v>18</x:v>
@@ -11326,7 +11332,7 @@
     </x:row>
     <x:row r="361" spans="1:9">
       <x:c r="A361" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B361" s="0" t="s">
         <x:v>19</x:v>
@@ -11355,7 +11361,7 @@
     </x:row>
     <x:row r="362" spans="1:9">
       <x:c r="A362" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B362" s="0" t="s">
         <x:v>19</x:v>
@@ -11384,7 +11390,7 @@
     </x:row>
     <x:row r="363" spans="1:9">
       <x:c r="A363" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B363" s="0" t="s">
         <x:v>19</x:v>
@@ -11413,7 +11419,7 @@
     </x:row>
     <x:row r="364" spans="1:9">
       <x:c r="A364" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B364" s="0" t="s">
         <x:v>33</x:v>
@@ -11442,7 +11448,7 @@
     </x:row>
     <x:row r="365" spans="1:9">
       <x:c r="A365" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B365" s="0" t="s">
         <x:v>33</x:v>
@@ -11471,7 +11477,7 @@
     </x:row>
     <x:row r="366" spans="1:9">
       <x:c r="A366" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B366" s="0" t="s">
         <x:v>33</x:v>
@@ -11500,7 +11506,7 @@
     </x:row>
     <x:row r="367" spans="1:9">
       <x:c r="A367" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B367" s="0" t="s">
         <x:v>10</x:v>
@@ -11529,7 +11535,7 @@
     </x:row>
     <x:row r="368" spans="1:9">
       <x:c r="A368" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B368" s="0" t="s">
         <x:v>10</x:v>
@@ -11558,7 +11564,7 @@
     </x:row>
     <x:row r="369" spans="1:9">
       <x:c r="A369" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B369" s="0" t="s">
         <x:v>19</x:v>
@@ -11587,7 +11593,7 @@
     </x:row>
     <x:row r="370" spans="1:9">
       <x:c r="A370" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B370" s="0" t="s">
         <x:v>19</x:v>
@@ -11616,7 +11622,7 @@
     </x:row>
     <x:row r="371" spans="1:9">
       <x:c r="A371" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B371" s="0" t="s">
         <x:v>19</x:v>
@@ -11645,7 +11651,7 @@
     </x:row>
     <x:row r="372" spans="1:9">
       <x:c r="A372" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B372" s="0" t="s">
         <x:v>10</x:v>
@@ -11674,7 +11680,7 @@
     </x:row>
     <x:row r="373" spans="1:9">
       <x:c r="A373" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B373" s="0" t="s">
         <x:v>10</x:v>
@@ -11703,7 +11709,7 @@
     </x:row>
     <x:row r="374" spans="1:9">
       <x:c r="A374" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B374" s="0" t="s">
         <x:v>10</x:v>
@@ -11732,7 +11738,7 @@
     </x:row>
     <x:row r="375" spans="1:9">
       <x:c r="A375" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B375" s="0" t="s">
         <x:v>18</x:v>
@@ -11761,7 +11767,7 @@
     </x:row>
     <x:row r="376" spans="1:9">
       <x:c r="A376" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B376" s="0" t="s">
         <x:v>18</x:v>
@@ -11790,7 +11796,7 @@
     </x:row>
     <x:row r="377" spans="1:9">
       <x:c r="A377" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B377" s="0" t="s">
         <x:v>19</x:v>
@@ -11819,7 +11825,7 @@
     </x:row>
     <x:row r="378" spans="1:9">
       <x:c r="A378" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B378" s="0" t="s">
         <x:v>19</x:v>
@@ -11848,7 +11854,7 @@
     </x:row>
     <x:row r="379" spans="1:9">
       <x:c r="A379" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B379" s="0" t="s">
         <x:v>19</x:v>
@@ -11877,7 +11883,7 @@
     </x:row>
     <x:row r="380" spans="1:9">
       <x:c r="A380" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B380" s="0" t="s">
         <x:v>32</x:v>
@@ -11906,7 +11912,7 @@
     </x:row>
     <x:row r="381" spans="1:9">
       <x:c r="A381" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B381" s="0" t="s">
         <x:v>32</x:v>
@@ -11935,7 +11941,7 @@
     </x:row>
     <x:row r="382" spans="1:9">
       <x:c r="A382" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B382" s="0" t="s">
         <x:v>33</x:v>
@@ -11964,7 +11970,7 @@
     </x:row>
     <x:row r="383" spans="1:9">
       <x:c r="A383" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B383" s="0" t="s">
         <x:v>33</x:v>
@@ -11993,7 +11999,7 @@
     </x:row>
     <x:row r="384" spans="1:9">
       <x:c r="A384" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B384" s="0" t="s">
         <x:v>10</x:v>
@@ -12022,7 +12028,7 @@
     </x:row>
     <x:row r="385" spans="1:9">
       <x:c r="A385" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B385" s="0" t="s">
         <x:v>10</x:v>
@@ -12051,7 +12057,7 @@
     </x:row>
     <x:row r="386" spans="1:9">
       <x:c r="A386" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B386" s="0" t="s">
         <x:v>10</x:v>
@@ -12080,7 +12086,7 @@
     </x:row>
     <x:row r="387" spans="1:9">
       <x:c r="A387" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B387" s="0" t="s">
         <x:v>18</x:v>
@@ -12109,7 +12115,7 @@
     </x:row>
     <x:row r="388" spans="1:9">
       <x:c r="A388" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B388" s="0" t="s">
         <x:v>18</x:v>
@@ -12138,7 +12144,7 @@
     </x:row>
     <x:row r="389" spans="1:9">
       <x:c r="A389" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B389" s="0" t="s">
         <x:v>19</x:v>
@@ -12167,7 +12173,7 @@
     </x:row>
     <x:row r="390" spans="1:9">
       <x:c r="A390" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B390" s="0" t="s">
         <x:v>19</x:v>
@@ -12196,7 +12202,7 @@
     </x:row>
     <x:row r="391" spans="1:9">
       <x:c r="A391" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B391" s="0" t="s">
         <x:v>19</x:v>
@@ -12225,7 +12231,7 @@
     </x:row>
     <x:row r="392" spans="1:9">
       <x:c r="A392" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B392" s="0" t="s">
         <x:v>33</x:v>
@@ -12254,7 +12260,7 @@
     </x:row>
     <x:row r="393" spans="1:9">
       <x:c r="A393" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B393" s="0" t="s">
         <x:v>33</x:v>
@@ -12283,7 +12289,7 @@
     </x:row>
     <x:row r="394" spans="1:9">
       <x:c r="A394" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B394" s="0" t="s">
         <x:v>34</x:v>
@@ -12312,7 +12318,7 @@
     </x:row>
     <x:row r="395" spans="1:9">
       <x:c r="A395" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B395" s="0" t="s">
         <x:v>34</x:v>
@@ -12341,7 +12347,7 @@
     </x:row>
     <x:row r="396" spans="1:9">
       <x:c r="A396" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B396" s="0" t="s">
         <x:v>10</x:v>
@@ -12370,7 +12376,7 @@
     </x:row>
     <x:row r="397" spans="1:9">
       <x:c r="A397" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B397" s="0" t="s">
         <x:v>10</x:v>
@@ -12399,7 +12405,7 @@
     </x:row>
     <x:row r="398" spans="1:9">
       <x:c r="A398" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B398" s="0" t="s">
         <x:v>10</x:v>
@@ -12411,7 +12417,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E398" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F398" s="1" t="s">
         <x:v>35</x:v>
@@ -12428,7 +12434,7 @@
     </x:row>
     <x:row r="399" spans="1:9">
       <x:c r="A399" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B399" s="0" t="s">
         <x:v>19</x:v>
@@ -12457,7 +12463,7 @@
     </x:row>
     <x:row r="400" spans="1:9">
       <x:c r="A400" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B400" s="0" t="s">
         <x:v>19</x:v>
@@ -12486,7 +12492,7 @@
     </x:row>
     <x:row r="401" spans="1:9">
       <x:c r="A401" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B401" s="0" t="s">
         <x:v>19</x:v>
@@ -12515,7 +12521,7 @@
     </x:row>
     <x:row r="402" spans="1:9">
       <x:c r="A402" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B402" s="0" t="s">
         <x:v>33</x:v>
@@ -12544,7 +12550,7 @@
     </x:row>
     <x:row r="403" spans="1:9">
       <x:c r="A403" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B403" s="0" t="s">
         <x:v>33</x:v>
@@ -12573,7 +12579,7 @@
     </x:row>
     <x:row r="404" spans="1:9">
       <x:c r="A404" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B404" s="0" t="s">
         <x:v>34</x:v>
@@ -12602,7 +12608,7 @@
     </x:row>
     <x:row r="405" spans="1:9">
       <x:c r="A405" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B405" s="0" t="s">
         <x:v>34</x:v>
@@ -12631,7 +12637,7 @@
     </x:row>
     <x:row r="406" spans="1:9">
       <x:c r="A406" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B406" s="0" t="s">
         <x:v>18</x:v>
@@ -12660,7 +12666,7 @@
     </x:row>
     <x:row r="407" spans="1:9">
       <x:c r="A407" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B407" s="0" t="s">
         <x:v>18</x:v>
@@ -12689,7 +12695,7 @@
     </x:row>
     <x:row r="408" spans="1:9">
       <x:c r="A408" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B408" s="0" t="s">
         <x:v>10</x:v>
@@ -12718,7 +12724,7 @@
     </x:row>
     <x:row r="409" spans="1:9">
       <x:c r="A409" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B409" s="0" t="s">
         <x:v>10</x:v>
@@ -12747,7 +12753,7 @@
     </x:row>
     <x:row r="410" spans="1:9">
       <x:c r="A410" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B410" s="0" t="s">
         <x:v>10</x:v>
@@ -12776,7 +12782,7 @@
     </x:row>
     <x:row r="411" spans="1:9">
       <x:c r="A411" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B411" s="0" t="s">
         <x:v>19</x:v>
@@ -12805,7 +12811,7 @@
     </x:row>
     <x:row r="412" spans="1:9">
       <x:c r="A412" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B412" s="0" t="s">
         <x:v>19</x:v>
@@ -12834,7 +12840,7 @@
     </x:row>
     <x:row r="413" spans="1:9">
       <x:c r="A413" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B413" s="0" t="s">
         <x:v>19</x:v>
@@ -12863,7 +12869,7 @@
     </x:row>
     <x:row r="414" spans="1:9">
       <x:c r="A414" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B414" s="0" t="s">
         <x:v>33</x:v>
@@ -12892,7 +12898,7 @@
     </x:row>
     <x:row r="415" spans="1:9">
       <x:c r="A415" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B415" s="0" t="s">
         <x:v>33</x:v>
@@ -12921,7 +12927,7 @@
     </x:row>
     <x:row r="416" spans="1:9">
       <x:c r="A416" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B416" s="0" t="s">
         <x:v>10</x:v>
@@ -12950,7 +12956,7 @@
     </x:row>
     <x:row r="417" spans="1:9">
       <x:c r="A417" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B417" s="0" t="s">
         <x:v>10</x:v>
@@ -12979,7 +12985,7 @@
     </x:row>
     <x:row r="418" spans="1:9">
       <x:c r="A418" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B418" s="0" t="s">
         <x:v>10</x:v>
@@ -13008,7 +13014,7 @@
     </x:row>
     <x:row r="419" spans="1:9">
       <x:c r="A419" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B419" s="0" t="s">
         <x:v>18</x:v>
@@ -13037,7 +13043,7 @@
     </x:row>
     <x:row r="420" spans="1:9">
       <x:c r="A420" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B420" s="0" t="s">
         <x:v>18</x:v>
@@ -13066,7 +13072,7 @@
     </x:row>
     <x:row r="421" spans="1:9">
       <x:c r="A421" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B421" s="0" t="s">
         <x:v>18</x:v>
@@ -13095,7 +13101,7 @@
     </x:row>
     <x:row r="422" spans="1:9">
       <x:c r="A422" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B422" s="0" t="s">
         <x:v>19</x:v>
@@ -13124,7 +13130,7 @@
     </x:row>
     <x:row r="423" spans="1:9">
       <x:c r="A423" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B423" s="0" t="s">
         <x:v>19</x:v>
@@ -13153,7 +13159,7 @@
     </x:row>
     <x:row r="424" spans="1:9">
       <x:c r="A424" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B424" s="0" t="s">
         <x:v>19</x:v>
@@ -13182,7 +13188,7 @@
     </x:row>
     <x:row r="425" spans="1:9">
       <x:c r="A425" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B425" s="0" t="s">
         <x:v>33</x:v>
@@ -13211,7 +13217,7 @@
     </x:row>
     <x:row r="426" spans="1:9">
       <x:c r="A426" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B426" s="0" t="s">
         <x:v>33</x:v>
@@ -13240,7 +13246,7 @@
     </x:row>
     <x:row r="427" spans="1:9">
       <x:c r="A427" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B427" s="0" t="s">
         <x:v>34</x:v>
@@ -13269,7 +13275,7 @@
     </x:row>
     <x:row r="428" spans="1:9">
       <x:c r="A428" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B428" s="0" t="s">
         <x:v>34</x:v>
@@ -13298,7 +13304,7 @@
     </x:row>
     <x:row r="429" spans="1:9">
       <x:c r="A429" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B429" s="0" t="s">
         <x:v>10</x:v>
@@ -13327,7 +13333,7 @@
     </x:row>
     <x:row r="430" spans="1:9">
       <x:c r="A430" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B430" s="0" t="s">
         <x:v>10</x:v>
@@ -13356,7 +13362,7 @@
     </x:row>
     <x:row r="431" spans="1:9">
       <x:c r="A431" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B431" s="0" t="s">
         <x:v>10</x:v>
@@ -13385,7 +13391,7 @@
     </x:row>
     <x:row r="432" spans="1:9">
       <x:c r="A432" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B432" s="0" t="s">
         <x:v>10</x:v>
@@ -13403,7 +13409,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G432" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H432" s="1" t="s">
         <x:v>28</x:v>
@@ -13414,7 +13420,7 @@
     </x:row>
     <x:row r="433" spans="1:9">
       <x:c r="A433" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B433" s="0" t="s">
         <x:v>10</x:v>
@@ -13429,10 +13435,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F433" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G433" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H433" s="1" t="s">
         <x:v>39</x:v>
@@ -13443,10 +13449,10 @@
     </x:row>
     <x:row r="434" spans="1:9">
       <x:c r="A434" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B434" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C434" s="1" t="s">
         <x:v>14</x:v>
@@ -13472,10 +13478,10 @@
     </x:row>
     <x:row r="435" spans="1:9">
       <x:c r="A435" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B435" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C435" s="1" t="s">
         <x:v>16</x:v>
@@ -13501,7 +13507,7 @@
     </x:row>
     <x:row r="436" spans="1:9">
       <x:c r="A436" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B436" s="0" t="s">
         <x:v>18</x:v>
@@ -13530,7 +13536,7 @@
     </x:row>
     <x:row r="437" spans="1:9">
       <x:c r="A437" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B437" s="0" t="s">
         <x:v>18</x:v>
@@ -13559,7 +13565,7 @@
     </x:row>
     <x:row r="438" spans="1:9">
       <x:c r="A438" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B438" s="0" t="s">
         <x:v>18</x:v>
@@ -13588,7 +13594,7 @@
     </x:row>
     <x:row r="439" spans="1:9">
       <x:c r="A439" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B439" s="0" t="s">
         <x:v>19</x:v>
@@ -13617,7 +13623,7 @@
     </x:row>
     <x:row r="440" spans="1:9">
       <x:c r="A440" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B440" s="0" t="s">
         <x:v>19</x:v>
@@ -13646,7 +13652,7 @@
     </x:row>
     <x:row r="441" spans="1:9">
       <x:c r="A441" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B441" s="0" t="s">
         <x:v>19</x:v>
@@ -13661,7 +13667,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F441" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G441" s="1" t="s">
         <x:v>27</x:v>
@@ -13675,7 +13681,7 @@
     </x:row>
     <x:row r="442" spans="1:9">
       <x:c r="A442" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B442" s="0" t="s">
         <x:v>33</x:v>
@@ -13704,7 +13710,7 @@
     </x:row>
     <x:row r="443" spans="1:9">
       <x:c r="A443" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B443" s="0" t="s">
         <x:v>33</x:v>
@@ -13733,7 +13739,7 @@
     </x:row>
     <x:row r="444" spans="1:9">
       <x:c r="A444" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B444" s="0" t="s">
         <x:v>33</x:v>
@@ -13762,7 +13768,7 @@
     </x:row>
     <x:row r="445" spans="1:9">
       <x:c r="A445" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B445" s="0" t="s">
         <x:v>34</x:v>
@@ -13791,7 +13797,7 @@
     </x:row>
     <x:row r="446" spans="1:9">
       <x:c r="A446" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B446" s="0" t="s">
         <x:v>34</x:v>
@@ -13820,7 +13826,7 @@
     </x:row>
     <x:row r="447" spans="1:9">
       <x:c r="A447" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B447" s="0" t="s">
         <x:v>34</x:v>
@@ -13838,7 +13844,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G447" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H447" s="1" t="s">
         <x:v>17</x:v>
@@ -13849,7 +13855,7 @@
     </x:row>
     <x:row r="448" spans="1:9">
       <x:c r="A448" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B448" s="0" t="s">
         <x:v>10</x:v>
@@ -13878,7 +13884,7 @@
     </x:row>
     <x:row r="449" spans="1:9">
       <x:c r="A449" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B449" s="0" t="s">
         <x:v>10</x:v>
@@ -13907,7 +13913,7 @@
     </x:row>
     <x:row r="450" spans="1:9">
       <x:c r="A450" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B450" s="0" t="s">
         <x:v>18</x:v>
@@ -13936,7 +13942,7 @@
     </x:row>
     <x:row r="451" spans="1:9">
       <x:c r="A451" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B451" s="0" t="s">
         <x:v>18</x:v>
@@ -13965,7 +13971,7 @@
     </x:row>
     <x:row r="452" spans="1:9">
       <x:c r="A452" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B452" s="0" t="s">
         <x:v>19</x:v>
@@ -13994,7 +14000,7 @@
     </x:row>
     <x:row r="453" spans="1:9">
       <x:c r="A453" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B453" s="0" t="s">
         <x:v>19</x:v>
@@ -14023,7 +14029,7 @@
     </x:row>
     <x:row r="454" spans="1:9">
       <x:c r="A454" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B454" s="0" t="s">
         <x:v>19</x:v>
@@ -14052,7 +14058,7 @@
     </x:row>
     <x:row r="455" spans="1:9">
       <x:c r="A455" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B455" s="0" t="s">
         <x:v>34</x:v>
@@ -14081,7 +14087,7 @@
     </x:row>
     <x:row r="456" spans="1:9">
       <x:c r="A456" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B456" s="0" t="s">
         <x:v>34</x:v>
@@ -14110,7 +14116,7 @@
     </x:row>
     <x:row r="457" spans="1:9">
       <x:c r="A457" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B457" s="0" t="s">
         <x:v>10</x:v>
@@ -14139,7 +14145,7 @@
     </x:row>
     <x:row r="458" spans="1:9">
       <x:c r="A458" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B458" s="0" t="s">
         <x:v>10</x:v>
@@ -14168,7 +14174,7 @@
     </x:row>
     <x:row r="459" spans="1:9">
       <x:c r="A459" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B459" s="0" t="s">
         <x:v>10</x:v>
@@ -14197,7 +14203,7 @@
     </x:row>
     <x:row r="460" spans="1:9">
       <x:c r="A460" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B460" s="0" t="s">
         <x:v>19</x:v>
@@ -14226,7 +14232,7 @@
     </x:row>
     <x:row r="461" spans="1:9">
       <x:c r="A461" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B461" s="0" t="s">
         <x:v>19</x:v>
@@ -14255,7 +14261,7 @@
     </x:row>
     <x:row r="462" spans="1:9">
       <x:c r="A462" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B462" s="0" t="s">
         <x:v>10</x:v>
@@ -14284,7 +14290,7 @@
     </x:row>
     <x:row r="463" spans="1:9">
       <x:c r="A463" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B463" s="0" t="s">
         <x:v>10</x:v>
@@ -14313,7 +14319,7 @@
     </x:row>
     <x:row r="464" spans="1:9">
       <x:c r="A464" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B464" s="0" t="s">
         <x:v>19</x:v>
@@ -14342,7 +14348,7 @@
     </x:row>
     <x:row r="465" spans="1:9">
       <x:c r="A465" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B465" s="0" t="s">
         <x:v>19</x:v>
@@ -14371,7 +14377,7 @@
     </x:row>
     <x:row r="466" spans="1:9">
       <x:c r="A466" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B466" s="0" t="s">
         <x:v>19</x:v>
@@ -14400,7 +14406,7 @@
     </x:row>
     <x:row r="467" spans="1:9">
       <x:c r="A467" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B467" s="0" t="s">
         <x:v>19</x:v>
@@ -14429,7 +14435,7 @@
     </x:row>
     <x:row r="468" spans="1:9">
       <x:c r="A468" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B468" s="0" t="s">
         <x:v>19</x:v>
@@ -14458,7 +14464,7 @@
     </x:row>
     <x:row r="469" spans="1:9">
       <x:c r="A469" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B469" s="0" t="s">
         <x:v>10</x:v>
@@ -14487,7 +14493,7 @@
     </x:row>
     <x:row r="470" spans="1:9">
       <x:c r="A470" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B470" s="0" t="s">
         <x:v>10</x:v>
@@ -14516,7 +14522,7 @@
     </x:row>
     <x:row r="471" spans="1:9">
       <x:c r="A471" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B471" s="0" t="s">
         <x:v>10</x:v>
@@ -14545,7 +14551,7 @@
     </x:row>
     <x:row r="472" spans="1:9">
       <x:c r="A472" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B472" s="0" t="s">
         <x:v>18</x:v>
@@ -14574,7 +14580,7 @@
     </x:row>
     <x:row r="473" spans="1:9">
       <x:c r="A473" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B473" s="0" t="s">
         <x:v>18</x:v>
@@ -14603,7 +14609,7 @@
     </x:row>
     <x:row r="474" spans="1:9">
       <x:c r="A474" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B474" s="0" t="s">
         <x:v>19</x:v>
@@ -14632,7 +14638,7 @@
     </x:row>
     <x:row r="475" spans="1:9">
       <x:c r="A475" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B475" s="0" t="s">
         <x:v>19</x:v>
@@ -14661,7 +14667,7 @@
     </x:row>
     <x:row r="476" spans="1:9">
       <x:c r="A476" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B476" s="0" t="s">
         <x:v>19</x:v>
@@ -14690,7 +14696,7 @@
     </x:row>
     <x:row r="477" spans="1:9">
       <x:c r="A477" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B477" s="0" t="s">
         <x:v>33</x:v>
@@ -14719,7 +14725,7 @@
     </x:row>
     <x:row r="478" spans="1:9">
       <x:c r="A478" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B478" s="0" t="s">
         <x:v>33</x:v>
@@ -14748,7 +14754,7 @@
     </x:row>
     <x:row r="479" spans="1:9">
       <x:c r="A479" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B479" s="0" t="s">
         <x:v>34</x:v>
@@ -14777,7 +14783,7 @@
     </x:row>
     <x:row r="480" spans="1:9">
       <x:c r="A480" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B480" s="0" t="s">
         <x:v>34</x:v>
@@ -14806,7 +14812,7 @@
     </x:row>
     <x:row r="481" spans="1:9">
       <x:c r="A481" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B481" s="0" t="s">
         <x:v>10</x:v>
@@ -14835,7 +14841,7 @@
     </x:row>
     <x:row r="482" spans="1:9">
       <x:c r="A482" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B482" s="0" t="s">
         <x:v>10</x:v>
@@ -14864,7 +14870,7 @@
     </x:row>
     <x:row r="483" spans="1:9">
       <x:c r="A483" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B483" s="0" t="s">
         <x:v>10</x:v>
@@ -14893,7 +14899,7 @@
     </x:row>
     <x:row r="484" spans="1:9">
       <x:c r="A484" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B484" s="0" t="s">
         <x:v>19</x:v>
@@ -14922,7 +14928,7 @@
     </x:row>
     <x:row r="485" spans="1:9">
       <x:c r="A485" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B485" s="0" t="s">
         <x:v>19</x:v>
@@ -14951,7 +14957,7 @@
     </x:row>
     <x:row r="486" spans="1:9">
       <x:c r="A486" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B486" s="0" t="s">
         <x:v>10</x:v>
@@ -14969,7 +14975,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G486" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H486" s="1" t="s">
         <x:v>35</x:v>
@@ -14980,7 +14986,7 @@
     </x:row>
     <x:row r="487" spans="1:9">
       <x:c r="A487" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B487" s="0" t="s">
         <x:v>10</x:v>
@@ -14992,16 +14998,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E487" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F487" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G487" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H487" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I487" s="0" t="s">
         <x:v>13</x:v>
@@ -15009,7 +15015,7 @@
     </x:row>
     <x:row r="488" spans="1:9">
       <x:c r="A488" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B488" s="0" t="s">
         <x:v>10</x:v>
@@ -15021,16 +15027,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E488" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F488" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G488" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H488" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I488" s="0" t="s">
         <x:v>13</x:v>
@@ -15038,7 +15044,7 @@
     </x:row>
     <x:row r="489" spans="1:9">
       <x:c r="A489" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B489" s="0" t="s">
         <x:v>18</x:v>
@@ -15067,7 +15073,7 @@
     </x:row>
     <x:row r="490" spans="1:9">
       <x:c r="A490" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B490" s="0" t="s">
         <x:v>18</x:v>
@@ -15096,7 +15102,7 @@
     </x:row>
     <x:row r="491" spans="1:9">
       <x:c r="A491" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B491" s="0" t="s">
         <x:v>18</x:v>
@@ -15125,7 +15131,7 @@
     </x:row>
     <x:row r="492" spans="1:9">
       <x:c r="A492" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B492" s="0" t="s">
         <x:v>19</x:v>
@@ -15154,7 +15160,7 @@
     </x:row>
     <x:row r="493" spans="1:9">
       <x:c r="A493" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B493" s="0" t="s">
         <x:v>19</x:v>
@@ -15169,7 +15175,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F493" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G493" s="1" t="s">
         <x:v>30</x:v>
@@ -15183,7 +15189,7 @@
     </x:row>
     <x:row r="494" spans="1:9">
       <x:c r="A494" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B494" s="0" t="s">
         <x:v>19</x:v>
@@ -15195,13 +15201,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E494" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F494" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G494" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H494" s="1" t="s">
         <x:v>24</x:v>
@@ -15212,7 +15218,7 @@
     </x:row>
     <x:row r="495" spans="1:9">
       <x:c r="A495" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B495" s="0" t="s">
         <x:v>32</x:v>
@@ -15241,7 +15247,7 @@
     </x:row>
     <x:row r="496" spans="1:9">
       <x:c r="A496" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B496" s="0" t="s">
         <x:v>32</x:v>
@@ -15270,7 +15276,7 @@
     </x:row>
     <x:row r="497" spans="1:9">
       <x:c r="A497" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B497" s="0" t="s">
         <x:v>33</x:v>
@@ -15299,7 +15305,7 @@
     </x:row>
     <x:row r="498" spans="1:9">
       <x:c r="A498" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B498" s="0" t="s">
         <x:v>33</x:v>
@@ -15328,7 +15334,7 @@
     </x:row>
     <x:row r="499" spans="1:9">
       <x:c r="A499" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B499" s="0" t="s">
         <x:v>34</x:v>
@@ -15357,7 +15363,7 @@
     </x:row>
     <x:row r="500" spans="1:9">
       <x:c r="A500" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B500" s="0" t="s">
         <x:v>34</x:v>
@@ -15369,13 +15375,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E500" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F500" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G500" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H500" s="1" t="s">
         <x:v>22</x:v>
@@ -15386,7 +15392,7 @@
     </x:row>
     <x:row r="501" spans="1:9">
       <x:c r="A501" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B501" s="0" t="s">
         <x:v>34</x:v>
@@ -15398,13 +15404,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E501" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F501" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G501" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H501" s="1" t="s">
         <x:v>37</x:v>
@@ -15415,7 +15421,7 @@
     </x:row>
     <x:row r="502" spans="1:9">
       <x:c r="A502" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B502" s="0" t="s">
         <x:v>10</x:v>
@@ -15444,7 +15450,7 @@
     </x:row>
     <x:row r="503" spans="1:9">
       <x:c r="A503" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B503" s="0" t="s">
         <x:v>10</x:v>
@@ -15473,7 +15479,7 @@
     </x:row>
     <x:row r="504" spans="1:9">
       <x:c r="A504" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B504" s="0" t="s">
         <x:v>10</x:v>
@@ -15502,7 +15508,7 @@
     </x:row>
     <x:row r="505" spans="1:9">
       <x:c r="A505" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B505" s="0" t="s">
         <x:v>10</x:v>
@@ -15531,7 +15537,7 @@
     </x:row>
     <x:row r="506" spans="1:9">
       <x:c r="A506" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B506" s="0" t="s">
         <x:v>10</x:v>
@@ -15560,7 +15566,7 @@
     </x:row>
     <x:row r="507" spans="1:9">
       <x:c r="A507" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B507" s="0" t="s">
         <x:v>19</x:v>
@@ -15589,7 +15595,7 @@
     </x:row>
     <x:row r="508" spans="1:9">
       <x:c r="A508" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B508" s="0" t="s">
         <x:v>19</x:v>
@@ -15618,7 +15624,7 @@
     </x:row>
     <x:row r="509" spans="1:9">
       <x:c r="A509" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B509" s="0" t="s">
         <x:v>19</x:v>
@@ -15647,7 +15653,7 @@
     </x:row>
     <x:row r="510" spans="1:9">
       <x:c r="A510" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B510" s="0" t="s">
         <x:v>10</x:v>
@@ -15676,7 +15682,7 @@
     </x:row>
     <x:row r="511" spans="1:9">
       <x:c r="A511" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B511" s="0" t="s">
         <x:v>10</x:v>
@@ -15705,7 +15711,7 @@
     </x:row>
     <x:row r="512" spans="1:9">
       <x:c r="A512" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B512" s="0" t="s">
         <x:v>10</x:v>
@@ -15734,7 +15740,7 @@
     </x:row>
     <x:row r="513" spans="1:9">
       <x:c r="A513" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B513" s="0" t="s">
         <x:v>19</x:v>
@@ -15763,7 +15769,7 @@
     </x:row>
     <x:row r="514" spans="1:9">
       <x:c r="A514" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B514" s="0" t="s">
         <x:v>19</x:v>
@@ -15792,7 +15798,7 @@
     </x:row>
     <x:row r="515" spans="1:9">
       <x:c r="A515" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B515" s="0" t="s">
         <x:v>19</x:v>
@@ -15821,7 +15827,7 @@
     </x:row>
     <x:row r="516" spans="1:9">
       <x:c r="A516" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B516" s="0" t="s">
         <x:v>33</x:v>
@@ -15850,7 +15856,7 @@
     </x:row>
     <x:row r="517" spans="1:9">
       <x:c r="A517" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B517" s="0" t="s">
         <x:v>33</x:v>
@@ -15879,7 +15885,7 @@
     </x:row>
     <x:row r="518" spans="1:9">
       <x:c r="A518" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B518" s="0" t="s">
         <x:v>33</x:v>
@@ -15908,7 +15914,7 @@
     </x:row>
     <x:row r="519" spans="1:9">
       <x:c r="A519" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B519" s="0" t="s">
         <x:v>19</x:v>
@@ -15937,7 +15943,7 @@
     </x:row>
     <x:row r="520" spans="1:9">
       <x:c r="A520" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B520" s="0" t="s">
         <x:v>19</x:v>
@@ -15966,7 +15972,7 @@
     </x:row>
     <x:row r="521" spans="1:9">
       <x:c r="A521" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B521" s="0" t="s">
         <x:v>19</x:v>
@@ -15995,7 +16001,7 @@
     </x:row>
     <x:row r="522" spans="1:9">
       <x:c r="A522" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B522" s="0" t="s">
         <x:v>10</x:v>
@@ -16024,7 +16030,7 @@
     </x:row>
     <x:row r="523" spans="1:9">
       <x:c r="A523" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B523" s="0" t="s">
         <x:v>10</x:v>
@@ -16053,7 +16059,7 @@
     </x:row>
     <x:row r="524" spans="1:9">
       <x:c r="A524" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B524" s="0" t="s">
         <x:v>10</x:v>
@@ -16082,10 +16088,10 @@
     </x:row>
     <x:row r="525" spans="1:9">
       <x:c r="A525" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B525" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C525" s="1" t="s">
         <x:v>14</x:v>
@@ -16111,10 +16117,10 @@
     </x:row>
     <x:row r="526" spans="1:9">
       <x:c r="A526" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B526" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C526" s="1" t="s">
         <x:v>16</x:v>
@@ -16140,7 +16146,7 @@
     </x:row>
     <x:row r="527" spans="1:9">
       <x:c r="A527" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B527" s="0" t="s">
         <x:v>18</x:v>
@@ -16169,7 +16175,7 @@
     </x:row>
     <x:row r="528" spans="1:9">
       <x:c r="A528" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B528" s="0" t="s">
         <x:v>18</x:v>
@@ -16198,7 +16204,7 @@
     </x:row>
     <x:row r="529" spans="1:9">
       <x:c r="A529" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B529" s="0" t="s">
         <x:v>18</x:v>
@@ -16227,7 +16233,7 @@
     </x:row>
     <x:row r="530" spans="1:9">
       <x:c r="A530" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B530" s="0" t="s">
         <x:v>19</x:v>
@@ -16256,7 +16262,7 @@
     </x:row>
     <x:row r="531" spans="1:9">
       <x:c r="A531" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B531" s="0" t="s">
         <x:v>19</x:v>
@@ -16274,7 +16280,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G531" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H531" s="1" t="s">
         <x:v>24</x:v>
@@ -16285,7 +16291,7 @@
     </x:row>
     <x:row r="532" spans="1:9">
       <x:c r="A532" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B532" s="0" t="s">
         <x:v>19</x:v>
@@ -16303,7 +16309,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G532" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H532" s="1" t="s">
         <x:v>38</x:v>
@@ -16314,7 +16320,7 @@
     </x:row>
     <x:row r="533" spans="1:9">
       <x:c r="A533" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B533" s="0" t="s">
         <x:v>33</x:v>
@@ -16343,7 +16349,7 @@
     </x:row>
     <x:row r="534" spans="1:9">
       <x:c r="A534" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B534" s="0" t="s">
         <x:v>33</x:v>
@@ -16372,7 +16378,7 @@
     </x:row>
     <x:row r="535" spans="1:9">
       <x:c r="A535" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B535" s="0" t="s">
         <x:v>33</x:v>
@@ -16401,7 +16407,7 @@
     </x:row>
     <x:row r="536" spans="1:9">
       <x:c r="A536" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B536" s="0" t="s">
         <x:v>34</x:v>
@@ -16430,7 +16436,7 @@
     </x:row>
     <x:row r="537" spans="1:9">
       <x:c r="A537" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B537" s="0" t="s">
         <x:v>34</x:v>
@@ -16448,7 +16454,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G537" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H537" s="1" t="s">
         <x:v>17</x:v>
@@ -16459,7 +16465,7 @@
     </x:row>
     <x:row r="538" spans="1:9">
       <x:c r="A538" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B538" s="0" t="s">
         <x:v>34</x:v>
@@ -16477,7 +16483,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G538" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H538" s="1" t="s">
         <x:v>20</x:v>
@@ -16488,7 +16494,7 @@
     </x:row>
     <x:row r="539" spans="1:9">
       <x:c r="A539" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B539" s="0" t="s">
         <x:v>10</x:v>
@@ -16517,7 +16523,7 @@
     </x:row>
     <x:row r="540" spans="1:9">
       <x:c r="A540" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B540" s="0" t="s">
         <x:v>10</x:v>
@@ -16546,7 +16552,7 @@
     </x:row>
     <x:row r="541" spans="1:9">
       <x:c r="A541" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B541" s="0" t="s">
         <x:v>10</x:v>
@@ -16575,7 +16581,7 @@
     </x:row>
     <x:row r="542" spans="1:9">
       <x:c r="A542" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B542" s="0" t="s">
         <x:v>18</x:v>
@@ -16604,7 +16610,7 @@
     </x:row>
     <x:row r="543" spans="1:9">
       <x:c r="A543" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B543" s="0" t="s">
         <x:v>18</x:v>
@@ -16633,7 +16639,7 @@
     </x:row>
     <x:row r="544" spans="1:9">
       <x:c r="A544" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B544" s="0" t="s">
         <x:v>18</x:v>
@@ -16662,7 +16668,7 @@
     </x:row>
     <x:row r="545" spans="1:9">
       <x:c r="A545" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B545" s="0" t="s">
         <x:v>19</x:v>
@@ -16691,7 +16697,7 @@
     </x:row>
     <x:row r="546" spans="1:9">
       <x:c r="A546" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B546" s="0" t="s">
         <x:v>19</x:v>
@@ -16720,7 +16726,7 @@
     </x:row>
     <x:row r="547" spans="1:9">
       <x:c r="A547" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B547" s="0" t="s">
         <x:v>19</x:v>
@@ -16749,7 +16755,7 @@
     </x:row>
     <x:row r="548" spans="1:9">
       <x:c r="A548" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B548" s="0" t="s">
         <x:v>33</x:v>
@@ -16778,7 +16784,7 @@
     </x:row>
     <x:row r="549" spans="1:9">
       <x:c r="A549" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B549" s="0" t="s">
         <x:v>33</x:v>
@@ -16807,7 +16813,7 @@
     </x:row>
     <x:row r="550" spans="1:9">
       <x:c r="A550" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B550" s="0" t="s">
         <x:v>10</x:v>
@@ -16836,7 +16842,7 @@
     </x:row>
     <x:row r="551" spans="1:9">
       <x:c r="A551" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B551" s="0" t="s">
         <x:v>10</x:v>
@@ -16865,7 +16871,7 @@
     </x:row>
     <x:row r="552" spans="1:9">
       <x:c r="A552" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B552" s="0" t="s">
         <x:v>18</x:v>
@@ -16894,7 +16900,7 @@
     </x:row>
     <x:row r="553" spans="1:9">
       <x:c r="A553" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B553" s="0" t="s">
         <x:v>18</x:v>
@@ -16923,7 +16929,7 @@
     </x:row>
     <x:row r="554" spans="1:9">
       <x:c r="A554" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B554" s="0" t="s">
         <x:v>19</x:v>
@@ -16952,7 +16958,7 @@
     </x:row>
     <x:row r="555" spans="1:9">
       <x:c r="A555" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B555" s="0" t="s">
         <x:v>19</x:v>
@@ -16981,7 +16987,7 @@
     </x:row>
     <x:row r="556" spans="1:9">
       <x:c r="A556" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B556" s="0" t="s">
         <x:v>32</x:v>
@@ -17010,7 +17016,7 @@
     </x:row>
     <x:row r="557" spans="1:9">
       <x:c r="A557" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B557" s="0" t="s">
         <x:v>32</x:v>
@@ -17039,7 +17045,7 @@
     </x:row>
     <x:row r="558" spans="1:9">
       <x:c r="A558" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B558" s="0" t="s">
         <x:v>33</x:v>
@@ -17068,7 +17074,7 @@
     </x:row>
     <x:row r="559" spans="1:9">
       <x:c r="A559" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B559" s="0" t="s">
         <x:v>33</x:v>
@@ -17097,7 +17103,7 @@
     </x:row>
     <x:row r="560" spans="1:9">
       <x:c r="A560" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B560" s="0" t="s">
         <x:v>10</x:v>
@@ -17126,7 +17132,7 @@
     </x:row>
     <x:row r="561" spans="1:9">
       <x:c r="A561" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B561" s="0" t="s">
         <x:v>10</x:v>
@@ -17144,7 +17150,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G561" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H561" s="1" t="s">
         <x:v>28</x:v>
@@ -17155,7 +17161,7 @@
     </x:row>
     <x:row r="562" spans="1:9">
       <x:c r="A562" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B562" s="0" t="s">
         <x:v>10</x:v>
@@ -17173,7 +17179,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G562" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H562" s="1" t="s">
         <x:v>22</x:v>
@@ -17184,7 +17190,7 @@
     </x:row>
     <x:row r="563" spans="1:9">
       <x:c r="A563" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B563" s="0" t="s">
         <x:v>18</x:v>
@@ -17213,7 +17219,7 @@
     </x:row>
     <x:row r="564" spans="1:9">
       <x:c r="A564" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B564" s="0" t="s">
         <x:v>18</x:v>
@@ -17242,7 +17248,7 @@
     </x:row>
     <x:row r="565" spans="1:9">
       <x:c r="A565" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B565" s="0" t="s">
         <x:v>18</x:v>
@@ -17271,7 +17277,7 @@
     </x:row>
     <x:row r="566" spans="1:9">
       <x:c r="A566" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B566" s="0" t="s">
         <x:v>19</x:v>
@@ -17300,7 +17306,7 @@
     </x:row>
     <x:row r="567" spans="1:9">
       <x:c r="A567" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B567" s="0" t="s">
         <x:v>19</x:v>
@@ -17329,7 +17335,7 @@
     </x:row>
     <x:row r="568" spans="1:9">
       <x:c r="A568" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B568" s="0" t="s">
         <x:v>19</x:v>
@@ -17358,7 +17364,7 @@
     </x:row>
     <x:row r="569" spans="1:9">
       <x:c r="A569" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B569" s="0" t="s">
         <x:v>32</x:v>
@@ -17387,7 +17393,7 @@
     </x:row>
     <x:row r="570" spans="1:9">
       <x:c r="A570" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B570" s="0" t="s">
         <x:v>32</x:v>
@@ -17416,7 +17422,7 @@
     </x:row>
     <x:row r="571" spans="1:9">
       <x:c r="A571" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B571" s="0" t="s">
         <x:v>33</x:v>
@@ -17445,7 +17451,7 @@
     </x:row>
     <x:row r="572" spans="1:9">
       <x:c r="A572" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B572" s="0" t="s">
         <x:v>33</x:v>
@@ -17474,7 +17480,7 @@
     </x:row>
     <x:row r="573" spans="1:9">
       <x:c r="A573" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B573" s="0" t="s">
         <x:v>33</x:v>
@@ -17503,7 +17509,7 @@
     </x:row>
     <x:row r="574" spans="1:9">
       <x:c r="A574" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B574" s="0" t="s">
         <x:v>34</x:v>
@@ -17532,7 +17538,7 @@
     </x:row>
     <x:row r="575" spans="1:9">
       <x:c r="A575" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B575" s="0" t="s">
         <x:v>34</x:v>
@@ -17561,7 +17567,7 @@
     </x:row>
     <x:row r="576" spans="1:9">
       <x:c r="A576" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B576" s="0" t="s">
         <x:v>34</x:v>
@@ -17590,7 +17596,7 @@
     </x:row>
     <x:row r="577" spans="1:9">
       <x:c r="A577" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B577" s="0" t="s">
         <x:v>10</x:v>
@@ -17619,7 +17625,7 @@
     </x:row>
     <x:row r="578" spans="1:9">
       <x:c r="A578" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B578" s="0" t="s">
         <x:v>10</x:v>
@@ -17648,7 +17654,7 @@
     </x:row>
     <x:row r="579" spans="1:9">
       <x:c r="A579" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B579" s="0" t="s">
         <x:v>10</x:v>
@@ -17677,7 +17683,7 @@
     </x:row>
     <x:row r="580" spans="1:9">
       <x:c r="A580" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B580" s="0" t="s">
         <x:v>18</x:v>
@@ -17706,7 +17712,7 @@
     </x:row>
     <x:row r="581" spans="1:9">
       <x:c r="A581" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B581" s="0" t="s">
         <x:v>18</x:v>
@@ -17735,7 +17741,7 @@
     </x:row>
     <x:row r="582" spans="1:9">
       <x:c r="A582" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B582" s="0" t="s">
         <x:v>18</x:v>
@@ -17764,7 +17770,7 @@
     </x:row>
     <x:row r="583" spans="1:9">
       <x:c r="A583" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B583" s="0" t="s">
         <x:v>19</x:v>
@@ -17793,7 +17799,7 @@
     </x:row>
     <x:row r="584" spans="1:9">
       <x:c r="A584" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B584" s="0" t="s">
         <x:v>19</x:v>
@@ -17822,7 +17828,7 @@
     </x:row>
     <x:row r="585" spans="1:9">
       <x:c r="A585" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B585" s="0" t="s">
         <x:v>19</x:v>
@@ -17851,7 +17857,7 @@
     </x:row>
     <x:row r="586" spans="1:9">
       <x:c r="A586" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B586" s="0" t="s">
         <x:v>33</x:v>
@@ -17880,7 +17886,7 @@
     </x:row>
     <x:row r="587" spans="1:9">
       <x:c r="A587" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B587" s="0" t="s">
         <x:v>33</x:v>
@@ -17909,7 +17915,7 @@
     </x:row>
     <x:row r="588" spans="1:9">
       <x:c r="A588" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B588" s="0" t="s">
         <x:v>34</x:v>
@@ -17938,7 +17944,7 @@
     </x:row>
     <x:row r="589" spans="1:9">
       <x:c r="A589" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B589" s="0" t="s">
         <x:v>34</x:v>
@@ -17956,7 +17962,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G589" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H589" s="1" t="s">
         <x:v>15</x:v>
@@ -17967,7 +17973,7 @@
     </x:row>
     <x:row r="590" spans="1:9">
       <x:c r="A590" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B590" s="0" t="s">
         <x:v>34</x:v>
@@ -17985,7 +17991,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G590" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H590" s="1" t="s">
         <x:v>17</x:v>
@@ -17996,7 +18002,7 @@
     </x:row>
     <x:row r="591" spans="1:9">
       <x:c r="A591" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B591" s="0" t="s">
         <x:v>10</x:v>
@@ -18025,7 +18031,7 @@
     </x:row>
     <x:row r="592" spans="1:9">
       <x:c r="A592" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B592" s="0" t="s">
         <x:v>10</x:v>
@@ -18054,7 +18060,7 @@
     </x:row>
     <x:row r="593" spans="1:9">
       <x:c r="A593" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B593" s="0" t="s">
         <x:v>10</x:v>
@@ -18083,7 +18089,7 @@
     </x:row>
     <x:row r="594" spans="1:9">
       <x:c r="A594" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B594" s="0" t="s">
         <x:v>18</x:v>
@@ -18112,7 +18118,7 @@
     </x:row>
     <x:row r="595" spans="1:9">
       <x:c r="A595" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B595" s="0" t="s">
         <x:v>18</x:v>
@@ -18141,7 +18147,7 @@
     </x:row>
     <x:row r="596" spans="1:9">
       <x:c r="A596" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B596" s="0" t="s">
         <x:v>18</x:v>
@@ -18170,7 +18176,7 @@
     </x:row>
     <x:row r="597" spans="1:9">
       <x:c r="A597" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B597" s="0" t="s">
         <x:v>19</x:v>
@@ -18199,7 +18205,7 @@
     </x:row>
     <x:row r="598" spans="1:9">
       <x:c r="A598" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B598" s="0" t="s">
         <x:v>19</x:v>
@@ -18228,7 +18234,7 @@
     </x:row>
     <x:row r="599" spans="1:9">
       <x:c r="A599" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B599" s="0" t="s">
         <x:v>19</x:v>
@@ -18257,7 +18263,7 @@
     </x:row>
     <x:row r="600" spans="1:9">
       <x:c r="A600" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B600" s="0" t="s">
         <x:v>32</x:v>
@@ -18286,7 +18292,7 @@
     </x:row>
     <x:row r="601" spans="1:9">
       <x:c r="A601" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B601" s="0" t="s">
         <x:v>32</x:v>
@@ -18315,7 +18321,7 @@
     </x:row>
     <x:row r="602" spans="1:9">
       <x:c r="A602" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B602" s="0" t="s">
         <x:v>19</x:v>
@@ -18344,7 +18350,7 @@
     </x:row>
     <x:row r="603" spans="1:9">
       <x:c r="A603" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B603" s="0" t="s">
         <x:v>19</x:v>
@@ -18373,7 +18379,7 @@
     </x:row>
     <x:row r="604" spans="1:9">
       <x:c r="A604" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B604" s="0" t="s">
         <x:v>19</x:v>
@@ -18402,7 +18408,7 @@
     </x:row>
     <x:row r="605" spans="1:9">
       <x:c r="A605" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B605" s="0" t="s">
         <x:v>19</x:v>
@@ -18431,7 +18437,7 @@
     </x:row>
     <x:row r="606" spans="1:9">
       <x:c r="A606" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B606" s="0" t="s">
         <x:v>10</x:v>
@@ -18460,7 +18466,7 @@
     </x:row>
     <x:row r="607" spans="1:9">
       <x:c r="A607" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B607" s="0" t="s">
         <x:v>10</x:v>
@@ -18489,7 +18495,7 @@
     </x:row>
     <x:row r="608" spans="1:9">
       <x:c r="A608" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B608" s="0" t="s">
         <x:v>10</x:v>
@@ -18518,7 +18524,7 @@
     </x:row>
     <x:row r="609" spans="1:9">
       <x:c r="A609" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B609" s="0" t="s">
         <x:v>19</x:v>
@@ -18547,7 +18553,7 @@
     </x:row>
     <x:row r="610" spans="1:9">
       <x:c r="A610" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B610" s="0" t="s">
         <x:v>19</x:v>
@@ -18576,7 +18582,7 @@
     </x:row>
     <x:row r="611" spans="1:9">
       <x:c r="A611" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B611" s="0" t="s">
         <x:v>10</x:v>
@@ -18605,7 +18611,7 @@
     </x:row>
     <x:row r="612" spans="1:9">
       <x:c r="A612" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B612" s="0" t="s">
         <x:v>10</x:v>
@@ -18634,7 +18640,7 @@
     </x:row>
     <x:row r="613" spans="1:9">
       <x:c r="A613" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B613" s="0" t="s">
         <x:v>19</x:v>
@@ -18663,7 +18669,7 @@
     </x:row>
     <x:row r="614" spans="1:9">
       <x:c r="A614" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B614" s="0" t="s">
         <x:v>19</x:v>
@@ -18675,7 +18681,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E614" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F614" s="1" t="s">
         <x:v>13</x:v>
@@ -18692,7 +18698,7 @@
     </x:row>
     <x:row r="615" spans="1:9">
       <x:c r="A615" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B615" s="0" t="s">
         <x:v>19</x:v>
@@ -18704,7 +18710,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E615" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F615" s="1" t="s">
         <x:v>13</x:v>
@@ -18721,7 +18727,7 @@
     </x:row>
     <x:row r="616" spans="1:9">
       <x:c r="A616" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B616" s="0" t="s">
         <x:v>33</x:v>
@@ -18750,7 +18756,7 @@
     </x:row>
     <x:row r="617" spans="1:9">
       <x:c r="A617" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B617" s="0" t="s">
         <x:v>33</x:v>
@@ -18779,7 +18785,7 @@
     </x:row>
     <x:row r="618" spans="1:9">
       <x:c r="A618" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B618" s="0" t="s">
         <x:v>34</x:v>
@@ -18808,7 +18814,7 @@
     </x:row>
     <x:row r="619" spans="1:9">
       <x:c r="A619" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B619" s="0" t="s">
         <x:v>34</x:v>
@@ -18837,7 +18843,7 @@
     </x:row>
     <x:row r="620" spans="1:9">
       <x:c r="A620" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B620" s="0" t="s">
         <x:v>34</x:v>
@@ -18866,7 +18872,7 @@
     </x:row>
     <x:row r="621" spans="1:9">
       <x:c r="A621" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B621" s="0" t="s">
         <x:v>10</x:v>
@@ -18884,7 +18890,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G621" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H621" s="1" t="s">
         <x:v>13</x:v>
@@ -18895,7 +18901,7 @@
     </x:row>
     <x:row r="622" spans="1:9">
       <x:c r="A622" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B622" s="0" t="s">
         <x:v>10</x:v>
@@ -18913,7 +18919,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G622" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H622" s="1" t="s">
         <x:v>13</x:v>
@@ -18924,7 +18930,7 @@
     </x:row>
     <x:row r="623" spans="1:9">
       <x:c r="A623" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B623" s="0" t="s">
         <x:v>19</x:v>
@@ -18953,7 +18959,7 @@
     </x:row>
     <x:row r="624" spans="1:9">
       <x:c r="A624" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B624" s="0" t="s">
         <x:v>19</x:v>
@@ -18982,7 +18988,7 @@
     </x:row>
     <x:row r="625" spans="1:9">
       <x:c r="A625" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B625" s="0" t="s">
         <x:v>34</x:v>
@@ -19011,7 +19017,7 @@
     </x:row>
     <x:row r="626" spans="1:9">
       <x:c r="A626" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B626" s="0" t="s">
         <x:v>34</x:v>
@@ -19040,7 +19046,7 @@
     </x:row>
     <x:row r="627" spans="1:9">
       <x:c r="A627" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B627" s="0" t="s">
         <x:v>10</x:v>
@@ -19069,7 +19075,7 @@
     </x:row>
     <x:row r="628" spans="1:9">
       <x:c r="A628" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B628" s="0" t="s">
         <x:v>10</x:v>
@@ -19098,7 +19104,7 @@
     </x:row>
     <x:row r="629" spans="1:9">
       <x:c r="A629" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B629" s="0" t="s">
         <x:v>18</x:v>
@@ -19127,7 +19133,7 @@
     </x:row>
     <x:row r="630" spans="1:9">
       <x:c r="A630" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B630" s="0" t="s">
         <x:v>18</x:v>
@@ -19156,7 +19162,7 @@
     </x:row>
     <x:row r="631" spans="1:9">
       <x:c r="A631" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B631" s="0" t="s">
         <x:v>19</x:v>
@@ -19185,7 +19191,7 @@
     </x:row>
     <x:row r="632" spans="1:9">
       <x:c r="A632" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B632" s="0" t="s">
         <x:v>19</x:v>
@@ -19214,7 +19220,7 @@
     </x:row>
     <x:row r="633" spans="1:9">
       <x:c r="A633" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B633" s="0" t="s">
         <x:v>10</x:v>
@@ -19243,7 +19249,7 @@
     </x:row>
     <x:row r="634" spans="1:9">
       <x:c r="A634" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B634" s="0" t="s">
         <x:v>10</x:v>
@@ -19261,7 +19267,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G634" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H634" s="1" t="s">
         <x:v>35</x:v>
@@ -19272,7 +19278,7 @@
     </x:row>
     <x:row r="635" spans="1:9">
       <x:c r="A635" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B635" s="0" t="s">
         <x:v>10</x:v>
@@ -19290,7 +19296,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G635" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H635" s="1" t="s">
         <x:v>35</x:v>
@@ -19301,7 +19307,7 @@
     </x:row>
     <x:row r="636" spans="1:9">
       <x:c r="A636" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B636" s="0" t="s">
         <x:v>18</x:v>
@@ -19330,7 +19336,7 @@
     </x:row>
     <x:row r="637" spans="1:9">
       <x:c r="A637" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B637" s="0" t="s">
         <x:v>18</x:v>
@@ -19359,7 +19365,7 @@
     </x:row>
     <x:row r="638" spans="1:9">
       <x:c r="A638" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B638" s="0" t="s">
         <x:v>18</x:v>
@@ -19388,7 +19394,7 @@
     </x:row>
     <x:row r="639" spans="1:9">
       <x:c r="A639" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B639" s="0" t="s">
         <x:v>19</x:v>
@@ -19417,7 +19423,7 @@
     </x:row>
     <x:row r="640" spans="1:9">
       <x:c r="A640" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B640" s="0" t="s">
         <x:v>19</x:v>
@@ -19432,10 +19438,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F640" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G640" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H640" s="1" t="s">
         <x:v>39</x:v>
@@ -19446,7 +19452,7 @@
     </x:row>
     <x:row r="641" spans="1:9">
       <x:c r="A641" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B641" s="0" t="s">
         <x:v>19</x:v>
@@ -19461,10 +19467,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F641" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G641" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H641" s="1" t="s">
         <x:v>37</x:v>
@@ -19475,7 +19481,7 @@
     </x:row>
     <x:row r="642" spans="1:9">
       <x:c r="A642" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B642" s="0" t="s">
         <x:v>32</x:v>
@@ -19504,7 +19510,7 @@
     </x:row>
     <x:row r="643" spans="1:9">
       <x:c r="A643" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B643" s="0" t="s">
         <x:v>32</x:v>
@@ -19533,7 +19539,7 @@
     </x:row>
     <x:row r="644" spans="1:9">
       <x:c r="A644" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B644" s="0" t="s">
         <x:v>33</x:v>
@@ -19562,7 +19568,7 @@
     </x:row>
     <x:row r="645" spans="1:9">
       <x:c r="A645" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B645" s="0" t="s">
         <x:v>33</x:v>
@@ -19591,7 +19597,7 @@
     </x:row>
     <x:row r="646" spans="1:9">
       <x:c r="A646" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B646" s="0" t="s">
         <x:v>33</x:v>
@@ -19620,7 +19626,7 @@
     </x:row>
     <x:row r="647" spans="1:9">
       <x:c r="A647" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B647" s="0" t="s">
         <x:v>34</x:v>
@@ -19649,7 +19655,7 @@
     </x:row>
     <x:row r="648" spans="1:9">
       <x:c r="A648" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B648" s="0" t="s">
         <x:v>34</x:v>
@@ -19678,7 +19684,7 @@
     </x:row>
     <x:row r="649" spans="1:9">
       <x:c r="A649" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B649" s="0" t="s">
         <x:v>10</x:v>
@@ -19707,7 +19713,7 @@
     </x:row>
     <x:row r="650" spans="1:9">
       <x:c r="A650" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B650" s="0" t="s">
         <x:v>10</x:v>
@@ -19736,7 +19742,7 @@
     </x:row>
     <x:row r="651" spans="1:9">
       <x:c r="A651" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B651" s="0" t="s">
         <x:v>19</x:v>
@@ -19765,7 +19771,7 @@
     </x:row>
     <x:row r="652" spans="1:9">
       <x:c r="A652" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B652" s="0" t="s">
         <x:v>19</x:v>
@@ -19794,7 +19800,7 @@
     </x:row>
     <x:row r="653" spans="1:9">
       <x:c r="A653" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B653" s="0" t="s">
         <x:v>10</x:v>
@@ -19823,7 +19829,7 @@
     </x:row>
     <x:row r="654" spans="1:9">
       <x:c r="A654" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B654" s="0" t="s">
         <x:v>10</x:v>
@@ -19852,7 +19858,7 @@
     </x:row>
     <x:row r="655" spans="1:9">
       <x:c r="A655" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B655" s="0" t="s">
         <x:v>10</x:v>
@@ -19881,7 +19887,7 @@
     </x:row>
     <x:row r="656" spans="1:9">
       <x:c r="A656" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B656" s="0" t="s">
         <x:v>18</x:v>
@@ -19910,7 +19916,7 @@
     </x:row>
     <x:row r="657" spans="1:9">
       <x:c r="A657" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B657" s="0" t="s">
         <x:v>18</x:v>
@@ -19939,7 +19945,7 @@
     </x:row>
     <x:row r="658" spans="1:9">
       <x:c r="A658" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B658" s="0" t="s">
         <x:v>19</x:v>
@@ -19968,7 +19974,7 @@
     </x:row>
     <x:row r="659" spans="1:9">
       <x:c r="A659" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B659" s="0" t="s">
         <x:v>19</x:v>
@@ -19997,7 +20003,7 @@
     </x:row>
     <x:row r="660" spans="1:9">
       <x:c r="A660" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B660" s="0" t="s">
         <x:v>10</x:v>
@@ -20026,7 +20032,7 @@
     </x:row>
     <x:row r="661" spans="1:9">
       <x:c r="A661" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B661" s="0" t="s">
         <x:v>10</x:v>
@@ -20055,7 +20061,7 @@
     </x:row>
     <x:row r="662" spans="1:9">
       <x:c r="A662" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B662" s="0" t="s">
         <x:v>10</x:v>
@@ -20084,7 +20090,7 @@
     </x:row>
     <x:row r="663" spans="1:9">
       <x:c r="A663" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B663" s="0" t="s">
         <x:v>19</x:v>
@@ -20113,7 +20119,7 @@
     </x:row>
     <x:row r="664" spans="1:9">
       <x:c r="A664" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B664" s="0" t="s">
         <x:v>19</x:v>
@@ -20142,7 +20148,7 @@
     </x:row>
     <x:row r="665" spans="1:9">
       <x:c r="A665" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B665" s="0" t="s">
         <x:v>19</x:v>
@@ -20171,7 +20177,7 @@
     </x:row>
     <x:row r="666" spans="1:9">
       <x:c r="A666" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B666" s="0" t="s">
         <x:v>33</x:v>
@@ -20200,7 +20206,7 @@
     </x:row>
     <x:row r="667" spans="1:9">
       <x:c r="A667" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B667" s="0" t="s">
         <x:v>33</x:v>
@@ -20229,7 +20235,7 @@
     </x:row>
     <x:row r="668" spans="1:9">
       <x:c r="A668" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B668" s="0" t="s">
         <x:v>33</x:v>
@@ -20258,7 +20264,7 @@
     </x:row>
     <x:row r="669" spans="1:9">
       <x:c r="A669" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B669" s="0" t="s">
         <x:v>34</x:v>
@@ -20287,7 +20293,7 @@
     </x:row>
     <x:row r="670" spans="1:9">
       <x:c r="A670" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B670" s="0" t="s">
         <x:v>34</x:v>
@@ -20316,7 +20322,7 @@
     </x:row>
     <x:row r="671" spans="1:9">
       <x:c r="A671" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B671" s="0" t="s">
         <x:v>34</x:v>
@@ -20345,7 +20351,7 @@
     </x:row>
     <x:row r="672" spans="1:9">
       <x:c r="A672" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B672" s="0" t="s">
         <x:v>10</x:v>
@@ -20374,7 +20380,7 @@
     </x:row>
     <x:row r="673" spans="1:9">
       <x:c r="A673" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B673" s="0" t="s">
         <x:v>10</x:v>
@@ -20403,7 +20409,7 @@
     </x:row>
     <x:row r="674" spans="1:9">
       <x:c r="A674" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B674" s="0" t="s">
         <x:v>10</x:v>
@@ -20432,7 +20438,7 @@
     </x:row>
     <x:row r="675" spans="1:9">
       <x:c r="A675" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B675" s="0" t="s">
         <x:v>18</x:v>
@@ -20461,7 +20467,7 @@
     </x:row>
     <x:row r="676" spans="1:9">
       <x:c r="A676" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B676" s="0" t="s">
         <x:v>18</x:v>
@@ -20490,7 +20496,7 @@
     </x:row>
     <x:row r="677" spans="1:9">
       <x:c r="A677" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B677" s="0" t="s">
         <x:v>18</x:v>
@@ -20519,7 +20525,7 @@
     </x:row>
     <x:row r="678" spans="1:9">
       <x:c r="A678" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B678" s="0" t="s">
         <x:v>19</x:v>
@@ -20548,7 +20554,7 @@
     </x:row>
     <x:row r="679" spans="1:9">
       <x:c r="A679" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B679" s="0" t="s">
         <x:v>19</x:v>
@@ -20577,7 +20583,7 @@
     </x:row>
     <x:row r="680" spans="1:9">
       <x:c r="A680" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B680" s="0" t="s">
         <x:v>19</x:v>
@@ -20606,7 +20612,7 @@
     </x:row>
     <x:row r="681" spans="1:9">
       <x:c r="A681" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B681" s="0" t="s">
         <x:v>33</x:v>
@@ -20635,7 +20641,7 @@
     </x:row>
     <x:row r="682" spans="1:9">
       <x:c r="A682" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B682" s="0" t="s">
         <x:v>33</x:v>
@@ -20664,7 +20670,7 @@
     </x:row>
     <x:row r="683" spans="1:9">
       <x:c r="A683" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B683" s="0" t="s">
         <x:v>33</x:v>
@@ -20693,7 +20699,7 @@
     </x:row>
     <x:row r="684" spans="1:9">
       <x:c r="A684" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B684" s="0" t="s">
         <x:v>34</x:v>
@@ -20722,7 +20728,7 @@
     </x:row>
     <x:row r="685" spans="1:9">
       <x:c r="A685" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B685" s="0" t="s">
         <x:v>34</x:v>
@@ -20751,7 +20757,7 @@
     </x:row>
     <x:row r="686" spans="1:9">
       <x:c r="A686" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B686" s="0" t="s">
         <x:v>10</x:v>
@@ -20780,7 +20786,7 @@
     </x:row>
     <x:row r="687" spans="1:9">
       <x:c r="A687" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B687" s="0" t="s">
         <x:v>10</x:v>
@@ -20809,7 +20815,7 @@
     </x:row>
     <x:row r="688" spans="1:9">
       <x:c r="A688" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B688" s="0" t="s">
         <x:v>10</x:v>
@@ -20838,7 +20844,7 @@
     </x:row>
     <x:row r="689" spans="1:9">
       <x:c r="A689" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B689" s="0" t="s">
         <x:v>18</x:v>
@@ -20867,7 +20873,7 @@
     </x:row>
     <x:row r="690" spans="1:9">
       <x:c r="A690" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B690" s="0" t="s">
         <x:v>18</x:v>
@@ -20896,7 +20902,7 @@
     </x:row>
     <x:row r="691" spans="1:9">
       <x:c r="A691" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B691" s="0" t="s">
         <x:v>19</x:v>
@@ -20925,7 +20931,7 @@
     </x:row>
     <x:row r="692" spans="1:9">
       <x:c r="A692" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B692" s="0" t="s">
         <x:v>19</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2025.xlsx
@@ -244,9 +244,6 @@
     <x:t>65</x:t>
   </x:si>
   <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
     <x:t>83</x:t>
   </x:si>
   <x:si>
@@ -257,6 +254,9 @@
   </x:si>
   <x:si>
     <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
@@ -7484,7 +7484,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D228" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E228" s="1" t="s">
         <x:v>69</x:v>
@@ -7542,19 +7542,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D230" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E230" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="E230" s="1" t="s">
+      <x:c r="F230" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="F230" s="1" t="s">
+      <x:c r="G230" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="G230" s="1" t="s">
+      <x:c r="H230" s="1" t="s">
         <x:v>79</x:v>
-      </x:c>
-      <x:c r="H230" s="1" t="s">
-        <x:v>80</x:v>
       </x:c>
       <x:c r="I230" s="0" t="s">
         <x:v>13</x:v>
@@ -7777,7 +7777,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E238" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F238" s="1" t="s">
         <x:v>81</x:v>
@@ -8047,7 +8047,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="H247" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I247" s="0" t="s">
         <x:v>13</x:v>
@@ -15381,7 +15381,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="G500" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H500" s="1" t="s">
         <x:v>22</x:v>
@@ -16309,7 +16309,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G532" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H532" s="1" t="s">
         <x:v>38</x:v>
@@ -16718,7 +16718,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H546" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I546" s="0" t="s">
         <x:v>13</x:v>
@@ -16747,7 +16747,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="H547" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I547" s="0" t="s">
         <x:v>13</x:v>
@@ -17179,7 +17179,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G562" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H562" s="1" t="s">
         <x:v>22</x:v>
@@ -18942,7 +18942,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E623" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F623" s="1" t="s">
         <x:v>12</x:v>
@@ -18971,7 +18971,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E624" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F624" s="1" t="s">
         <x:v>12</x:v>
@@ -19296,7 +19296,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G635" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H635" s="1" t="s">
         <x:v>35</x:v>
